--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16060" yWindow="460" windowWidth="12740" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="16060" yWindow="480" windowWidth="12740" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -173,22 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拿无风险利率+公司债券风险溢价</t>
-    <rPh sb="0" eb="1">
-      <t>na</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wu feng xian li l</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gogn si zhai quan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>feng xian yi jia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019年初</t>
     <rPh sb="4" eb="5">
       <t>nian du</t>
@@ -364,6 +348,56 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>tie xian l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币汇率</t>
+    <rPh sb="0" eb="1">
+      <t>ren min bi hui l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金利率</t>
+    <rPh sb="0" eb="1">
+      <t>zi jin li l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年中债中短期票据（AAA）收益率</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zhai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong duan qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>piao ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou yi l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好公司发行的债券</t>
+    <rPh sb="0" eb="1">
+      <t>hao gong si</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa xing de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhai quan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,9 +407,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,6 +430,14 @@
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,12 +490,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P250"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -748,7 +791,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,22 +805,25 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>3.2534000000000001</v>
+      <c r="B2" s="6">
+        <v>3.2917000000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3.282</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>-3.2534000000000001</v>
+        <v>9.7000000000000419E-3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -789,7 +835,7 @@
         <v>3.5767000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,22 +849,25 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.6919</v>
+      <c r="B5" s="6">
+        <v>2.742</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.7046000000000001</v>
       </c>
       <c r="D5" s="1">
         <f>B5-C5</f>
-        <v>-2.6919</v>
+        <v>3.7399999999999878E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -830,7 +879,7 @@
         <v>2.9159000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,25 +890,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.0394000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>5.5326000000000004</v>
+        <v>3.1048</v>
       </c>
       <c r="D8" s="1">
         <f>B8-C8</f>
-        <v>-5.5326000000000004</v>
+        <v>-6.5399999999999903E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>6.4371999999999998</v>
@@ -868,7 +920,7 @@
         <v>5.8418999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,93 +930,86 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.4934000000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.5148000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11-C11</f>
+        <v>-2.1399999999999864E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.4371999999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.8418999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B14" s="1">
         <f>B2</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+        <v>3.2917000000000001</v>
+      </c>
+      <c r="C14" s="1">
         <f>C2</f>
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <f>C11-B11</f>
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>3.282</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14-C14</f>
+        <v>9.7000000000000419E-3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G14" s="1">
         <f>G2</f>
         <v>3.6076000000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H14" s="1">
         <f>H2</f>
         <v>3.5767000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>C8-C5</f>
-        <v>2.8407000000000004</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14-B14</f>
-        <v>2.8407000000000004</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1">
-        <f>G8-G5</f>
-        <v>3.2494999999999998</v>
-      </c>
-      <c r="H14" s="1">
-        <f>H8-H5</f>
-        <v>2.9259999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,45 +1023,41 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <f>B9+B12</f>
-        <v>0</v>
+        <f>B11-B5</f>
+        <v>2.7514000000000003</v>
       </c>
       <c r="C17" s="1">
-        <f>1/58.86*100-C11-C14</f>
-        <v>-4.3951533469249071</v>
+        <f>C11-C5</f>
+        <v>2.8102</v>
       </c>
       <c r="D17" s="1">
-        <f>C17-B17</f>
-        <v>-4.3951533469249071</v>
+        <f>B17-C17</f>
+        <v>-5.8799999999999741E-2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <f>G12+G9</f>
-        <v>0</v>
+        <f>G11-G5</f>
+        <v>3.2494999999999998</v>
       </c>
       <c r="H17" s="1">
-        <f>H12+H9</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>H17-G17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <f>H11-H5</f>
+        <v>2.9259999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,853 +1071,934 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <f>B11+B14</f>
+        <f>B12+B15</f>
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <f>C14+C11</f>
-        <v>6.094100000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f>C20-B20</f>
-        <v>6.094100000000001</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f>G14+G11</f>
-        <v>6.8571</v>
+        <f>G15+G12</f>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>H14+H11</f>
-        <v>6.5026999999999999</v>
+        <f>H15+H12</f>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f>H20-G20</f>
-        <v>-0.35440000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.9802999999999997</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.9869000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <f>B26-C26</f>
+        <v>-6.6000000000006054E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <f>B29-C29</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B34" s="5">
         <v>43833</v>
       </c>
-      <c r="C25" s="5">
-        <f>B25+7</f>
+      <c r="C34" s="5">
+        <f>B34+7</f>
         <v>43840</v>
       </c>
-      <c r="D25" s="5">
-        <f>C25+7</f>
+      <c r="D34" s="5">
+        <f>C34+7</f>
         <v>43847</v>
       </c>
-      <c r="E25" s="5">
-        <f>D25+6</f>
+      <c r="E34" s="5">
+        <f>D34+6</f>
         <v>43853</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F34" s="5">
         <v>43868</v>
       </c>
-      <c r="G25" s="5">
-        <f>F25+7</f>
+      <c r="G34" s="5">
+        <f>F34+7</f>
         <v>43875</v>
       </c>
-      <c r="H25" s="5">
-        <f>G25+7</f>
+      <c r="H34" s="5">
+        <f>G34+7</f>
         <v>43882</v>
       </c>
-      <c r="I25" s="5">
-        <f>H25+7</f>
+      <c r="I34" s="5">
+        <f>H34+7</f>
         <v>43889</v>
       </c>
-      <c r="J25" s="5">
-        <f>I25+7</f>
+      <c r="J34" s="5">
+        <f>I34+7</f>
         <v>43896</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" ref="K25:O25" si="0">J25+7</f>
+      <c r="K34" s="5">
+        <f t="shared" ref="K34:O34" si="0">J34+7</f>
         <v>43903</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L34" s="5">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M34" s="5">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N34" s="5">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O34" s="5">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B35" s="1">
         <v>3.5865999999999998</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C35" s="1">
         <v>3.5295000000000001</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D35" s="1">
         <v>3.5299</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E35" s="1">
         <v>3.4127000000000001</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F35" s="1">
         <v>3.2218</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G35" s="1">
         <v>3.282</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B37" s="1">
         <v>2.9662000000000002</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C37" s="1">
         <v>2.9502999999999999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D37" s="1">
         <v>2.9798</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E37" s="1">
         <v>2.9759000000000002</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F37" s="1">
         <v>2.7452999999999999</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G37" s="1">
         <v>2.7046000000000001</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B39" s="1">
         <v>5.8371000000000004</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C39" s="1">
         <v>5.7670000000000003</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D39" s="1">
         <v>5.7443</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E39" s="1">
         <v>5.7492000000000001</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F39" s="4">
         <v>5.6075999999999997</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G39" s="1">
         <v>5.5148000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="8">
         <f>1/51.03*100</f>
         <v>1.9596315892612188</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C41" s="8">
         <f>1/53.32*100</f>
         <v>1.8754688672168043</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D41" s="8">
         <f>1/54.13*100</f>
         <v>1.8474043968224643</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E41" s="8">
         <f>1/54.52*100</f>
         <v>1.8341892883345561</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F41" s="8">
         <f>1/58.38*100</f>
         <v>1.7129153819801302</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G41" s="8">
         <f>1/58.72*100</f>
         <v>1.7029972752043598</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" ref="B43:G43" si="1">B41-B35-(B39-B37)*2</f>
+        <v>-7.368768410738781</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.2874311327831967</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.2114956031775357</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.1251107116654442</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.2334846180198697</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.1994027247956405</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="8">
-        <f>B32-B26-(B30-B28)*2</f>
-        <v>-7.368768410738781</v>
-      </c>
-      <c r="C34" s="8">
-        <f>C32-C26-(C30-C28)*2</f>
-        <v>-7.2874311327831967</v>
-      </c>
-      <c r="D34" s="8">
-        <f>D32-D26-(D30-D28)*2</f>
-        <v>-7.2114956031775357</v>
-      </c>
-      <c r="E34" s="8">
-        <f>E32-E26-(E30-E28)*2</f>
-        <v>-7.1251107116654442</v>
-      </c>
-      <c r="F34" s="8">
-        <f>F32-F26-(F30-F28)*2</f>
-        <v>-7.2334846180198697</v>
-      </c>
-      <c r="G34" s="8">
-        <f>G32-G26-(G30-G28)*2</f>
-        <v>-7.1994027247956405</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="B45" s="1">
+        <f t="shared" ref="B45:G45" si="2">B35+(B39-B37)*2+B43</f>
+        <v>1.9596315892612193</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8754688672168038</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8474043968224638</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8341892883345547</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7129153819801308</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7029972752043596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B50" s="5">
+        <v>43833</v>
+      </c>
+      <c r="C50" s="5">
+        <f>B50+7</f>
+        <v>43840</v>
+      </c>
+      <c r="D50" s="5">
+        <f>C50+7</f>
+        <v>43847</v>
+      </c>
+      <c r="E50" s="5">
+        <f>D50+6</f>
+        <v>43853</v>
+      </c>
+      <c r="F50" s="5">
+        <v>43868</v>
+      </c>
+      <c r="G50" s="5">
+        <f>F50+7</f>
+        <v>43875</v>
+      </c>
+      <c r="H50" s="5">
+        <f>G50+7</f>
+        <v>43882</v>
+      </c>
+      <c r="I50" s="5">
+        <f>H50+7</f>
+        <v>43889</v>
+      </c>
+      <c r="J50" s="5">
+        <f>I50+7</f>
+        <v>43896</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" ref="K50:O50" si="3">J50+7</f>
+        <v>43903</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="3"/>
+        <v>43910</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="3"/>
+        <v>43917</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="3"/>
+        <v>43924</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="3"/>
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.5865999999999998</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.5295000000000001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.5299</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.4127000000000001</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.2218</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3.282</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.9662000000000002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.9502999999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.9798</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.9759000000000002</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.7452999999999999</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.7046000000000001</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5.8371000000000004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5.7443</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5.7492000000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.6075999999999997</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5.5148000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="1">
-        <f>B26+(B30-B28)*2+B34</f>
-        <v>1.9596315892612193</v>
-      </c>
-      <c r="C36" s="1">
-        <f>C26+(C30-C28)*2+C34</f>
-        <v>1.8754688672168038</v>
-      </c>
-      <c r="D36" s="1">
-        <f>D26+(D30-D28)*2+D34</f>
-        <v>1.8474043968224638</v>
-      </c>
-      <c r="E36" s="1">
-        <f>E26+(E30-E28)*2+E34</f>
-        <v>1.8341892883345547</v>
-      </c>
-      <c r="F36" s="1">
-        <f>F26+(F30-F28)*2+F34</f>
-        <v>1.7129153819801308</v>
-      </c>
-      <c r="G36" s="1">
-        <f>G26+(G30-G28)*2+G34</f>
-        <v>1.7029972752043596</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B41" s="5">
-        <v>43833</v>
-      </c>
-      <c r="C41" s="5">
-        <f>B41+7</f>
-        <v>43840</v>
-      </c>
-      <c r="D41" s="5">
-        <f>C41+7</f>
-        <v>43847</v>
-      </c>
-      <c r="E41" s="5">
-        <f>D41+6</f>
-        <v>43853</v>
-      </c>
-      <c r="F41" s="5">
-        <v>43868</v>
-      </c>
-      <c r="G41" s="5">
-        <f>F41+7</f>
-        <v>43875</v>
-      </c>
-      <c r="H41" s="5">
-        <f>G41+7</f>
-        <v>43882</v>
-      </c>
-      <c r="I41" s="5">
-        <f>H41+7</f>
-        <v>43889</v>
-      </c>
-      <c r="J41" s="5">
-        <f>I41+7</f>
-        <v>43896</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" ref="K41:O41" si="1">J41+7</f>
-        <v>43903</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="1"/>
-        <v>43910</v>
-      </c>
-      <c r="M41" s="5">
-        <f t="shared" si="1"/>
-        <v>43917</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="1"/>
-        <v>43924</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="1"/>
-        <v>43931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3.5865999999999998</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3.5295000000000001</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3.5299</v>
-      </c>
-      <c r="E42" s="1">
-        <v>3.4127000000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.2218</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2.9662000000000002</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2.9502999999999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2.9798</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2.9759000000000002</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.7452999999999999</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2.7046000000000001</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5.7443</v>
-      </c>
-      <c r="E46" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F46" s="4">
-        <v>5.6075999999999997</v>
-      </c>
-      <c r="G46" s="1">
-        <v>5.5148000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="8">
+      <c r="B57" s="8">
         <f>1/6.892*100</f>
         <v>14.509576320371446</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C57" s="8">
         <f>1/6.8*100</f>
         <v>14.705882352941178</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D57" s="8">
         <f>1/6.696*100</f>
         <v>14.934289127837516</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E57" s="8">
         <f>1/6.581*100</f>
         <v>15.195259079167297</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F57" s="8">
         <f>1/6.259*100</f>
         <v>15.976993129892952</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G57" s="8">
         <f>1/6.248*100</f>
         <v>16.005121638924454</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" ref="B59:G59" si="4">B57-B51-(B55-B53)*2</f>
+        <v>5.1811763203714465</v>
+      </c>
+      <c r="C59" s="8">
+        <f>C57-C51-(C55-C53)*2</f>
+        <v>5.5429823529411761</v>
+      </c>
+      <c r="D59" s="8">
+        <f t="shared" si="4"/>
+        <v>5.8753891278375168</v>
+      </c>
+      <c r="E59" s="8">
+        <f t="shared" si="4"/>
+        <v>6.2359590791672961</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="4"/>
+        <v>7.030593129892952</v>
+      </c>
+      <c r="G59" s="8">
+        <f t="shared" si="4"/>
+        <v>7.1027216389244536</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="8">
-        <f>B48-B42-(B46-B44)*2</f>
-        <v>5.1811763203714465</v>
-      </c>
-      <c r="C50" s="8">
-        <f>C48-C42-(C46-C44)*2</f>
-        <v>5.5429823529411761</v>
-      </c>
-      <c r="D50" s="8">
-        <f>D48-D42-(D46-D44)*2</f>
-        <v>5.8753891278375168</v>
-      </c>
-      <c r="E50" s="8">
-        <f>E48-E42-(E46-E44)*2</f>
-        <v>6.2359590791672961</v>
-      </c>
-      <c r="F50" s="8">
-        <f>F48-F42-(F46-F44)*2</f>
-        <v>7.030593129892952</v>
-      </c>
-      <c r="G50" s="8">
-        <f>G48-G42-(G46-G44)*2</f>
-        <v>7.1027216389244536</v>
-      </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="B61" s="1">
+        <f>B51+(B55-B53)*2+B59</f>
+        <v>14.509576320371448</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:G61" si="5">C51+(C55-C53)*2+C59</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="5"/>
+        <v>14.934289127837516</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="5"/>
+        <v>15.195259079167295</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="5"/>
+        <v>15.976993129892954</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="5"/>
+        <v>16.005121638924454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B66" s="5">
+        <v>43833</v>
+      </c>
+      <c r="C66" s="5">
+        <f>B66+7</f>
+        <v>43840</v>
+      </c>
+      <c r="D66" s="5">
+        <f>C66+7</f>
+        <v>43847</v>
+      </c>
+      <c r="E66" s="5">
+        <f>D66+6</f>
+        <v>43853</v>
+      </c>
+      <c r="F66" s="5">
+        <v>43868</v>
+      </c>
+      <c r="G66" s="5">
+        <f>F66+7</f>
+        <v>43875</v>
+      </c>
+      <c r="H66" s="5">
+        <f>G66+7</f>
+        <v>43882</v>
+      </c>
+      <c r="I66" s="5">
+        <f>H66+7</f>
+        <v>43889</v>
+      </c>
+      <c r="J66" s="5">
+        <f>I66+7</f>
+        <v>43896</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" ref="K66:O66" si="6">J66+7</f>
+        <v>43903</v>
+      </c>
+      <c r="L66" s="5">
+        <f t="shared" si="6"/>
+        <v>43910</v>
+      </c>
+      <c r="M66" s="5">
+        <f t="shared" si="6"/>
+        <v>43917</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="6"/>
+        <v>43924</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="6"/>
+        <v>43931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3.5865999999999998</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.5295000000000001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.5299</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3.4127000000000001</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.2218</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3.282</v>
+      </c>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.9662000000000002</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2.9502999999999999</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.9798</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.9759000000000002</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.7452999999999999</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2.7046000000000001</v>
+      </c>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5.8371000000000004</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.7443</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5.7492000000000001</v>
+      </c>
+      <c r="F71" s="4">
+        <v>5.6075999999999997</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5.5148000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="1">
-        <f>B42+(B46-B44)*2+B50</f>
-        <v>14.509576320371448</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" ref="C52:G52" si="2">C42+(C46-C44)*2+C50</f>
-        <v>14.705882352941178</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="2"/>
-        <v>14.934289127837516</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="2"/>
-        <v>15.195259079167295</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="2"/>
-        <v>15.976993129892954</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="2"/>
-        <v>16.005121638924454</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B57" s="5">
-        <v>43833</v>
-      </c>
-      <c r="C57" s="5">
-        <f>B57+7</f>
-        <v>43840</v>
-      </c>
-      <c r="D57" s="5">
-        <f>C57+7</f>
-        <v>43847</v>
-      </c>
-      <c r="E57" s="5">
-        <f>D57+6</f>
-        <v>43853</v>
-      </c>
-      <c r="F57" s="5">
-        <v>43868</v>
-      </c>
-      <c r="G57" s="5">
-        <f>F57+7</f>
-        <v>43875</v>
-      </c>
-      <c r="H57" s="5">
-        <f>G57+7</f>
-        <v>43882</v>
-      </c>
-      <c r="I57" s="5">
-        <f>H57+7</f>
-        <v>43889</v>
-      </c>
-      <c r="J57" s="5">
-        <f>I57+7</f>
-        <v>43896</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" ref="K57:O57" si="3">J57+7</f>
-        <v>43903</v>
-      </c>
-      <c r="L57" s="5">
-        <f t="shared" si="3"/>
-        <v>43910</v>
-      </c>
-      <c r="M57" s="5">
-        <f t="shared" si="3"/>
-        <v>43917</v>
-      </c>
-      <c r="N57" s="5">
-        <f t="shared" si="3"/>
-        <v>43924</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="3"/>
-        <v>43931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1">
-        <v>3.5865999999999998</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3.5295000000000001</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3.5299</v>
-      </c>
-      <c r="E58" s="1">
-        <v>3.4127000000000001</v>
-      </c>
-      <c r="F58" s="1">
-        <v>3.2218</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2.9662000000000002</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2.9502999999999999</v>
-      </c>
-      <c r="D60" s="1">
-        <v>2.9798</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2.9759000000000002</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2.7452999999999999</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2.7046000000000001</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="C62" s="1">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5.7443</v>
-      </c>
-      <c r="E62" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F62" s="4">
-        <v>5.6075999999999997</v>
-      </c>
-      <c r="G62" s="1">
-        <v>5.5148000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="8">
+      <c r="B73" s="8">
         <f>1/11.914*100</f>
         <v>8.3934866543562201</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C73" s="8">
         <f>1/11.574*100</f>
         <v>8.6400552963538964</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D73" s="8">
         <f>1/11.281*100</f>
         <v>8.8644623703572378</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E73" s="8">
         <f>1/10.696*100</f>
         <v>9.3492894540014948</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F73" s="8">
         <f>1/9.98*100</f>
         <v>10.020040080160319</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G73" s="8">
         <f>1/10.345*100</f>
         <v>9.6665055582406954</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="8">
-        <f>B64-B58-(B62-B60)*2</f>
-        <v>-0.93491334564378015</v>
-      </c>
-      <c r="C66" s="8">
-        <f>C64-C58-(C62-C60)*2</f>
-        <v>-0.52284470364610502</v>
-      </c>
-      <c r="D66" s="8">
-        <f>D64-D58-(D62-D60)*2</f>
-        <v>-0.19443762964276168</v>
-      </c>
-      <c r="E66" s="8">
-        <f>E64-E58-(E62-E60)*2</f>
-        <v>0.38998945400149498</v>
-      </c>
-      <c r="F66" s="8">
-        <f>F64-F58-(F62-F60)*2</f>
-        <v>1.0736400801603194</v>
-      </c>
-      <c r="G66" s="8">
-        <f>G64-G58-(G62-G60)*2</f>
-        <v>0.76410555824069526</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="1">
-        <f>B58+(B62-B60)*2+B66</f>
-        <v>8.3934866543562201</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" ref="C68:G68" si="4">C58+(C62-C60)*2+C66</f>
-        <v>8.6400552963538964</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="4"/>
-        <v>8.8644623703572378</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="4"/>
-        <v>9.349289454001493</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="4"/>
-        <v>10.020040080160321</v>
-      </c>
-      <c r="G68" s="1">
-        <f t="shared" si="4"/>
-        <v>9.6665055582406954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F73" s="4"/>
-    </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F75" s="4"/>
+    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" ref="B75:F75" si="7">B73-B67-(B71-B69)*2</f>
+        <v>-0.93491334564378015</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.52284470364610502</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="7"/>
+        <v>-0.19443762964276168</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="7"/>
+        <v>0.38998945400149498</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" si="7"/>
+        <v>1.0736400801603194</v>
+      </c>
+      <c r="G75" s="8">
+        <f>G73-G67-(G71-G69)*2</f>
+        <v>0.76410555824069526</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F77" s="4"/>
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1">
+        <f>B67+(B71-B69)*2+B75</f>
+        <v>8.3934866543562201</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ref="C77:F77" si="8">C67+(C71-C69)*2+C75</f>
+        <v>8.6400552963538964</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="8"/>
+        <v>8.8644623703572378</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="8"/>
+        <v>9.349289454001493</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="8"/>
+        <v>10.020040080160321</v>
+      </c>
+      <c r="G77" s="1">
+        <f>G67+(G71-G69)*2+G75</f>
+        <v>9.6665055582406954</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F78" s="4"/>
@@ -2396,6 +2518,33 @@
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F259" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16060" yWindow="480" windowWidth="12740" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="15180" yWindow="480" windowWidth="13620" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="价值股" sheetId="2" r:id="rId2"/>
+    <sheet name="成长股" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -150,25 +152,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>li lü</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>足够烂的垃圾债才能反应风险</t>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>la ji zhai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cai neng</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fan ying</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>feng xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,22 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创业板指数估值PE倒数（隐含回报率）</t>
-    <rPh sb="0" eb="1">
-      <t>chaung ye ban zhi shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gu zhi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dao shu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yin han hui bao l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DCF模型贴现率（公司债收益率）</t>
     <rPh sb="3" eb="4">
       <t>mo xing</t>
@@ -248,22 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创业板股权风险溢价（相对于债券）</t>
-    <rPh sb="0" eb="1">
-      <t>chuang ye ban</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gu quan feng xian yi jia</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiang dui yu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhai quan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创业板贴现率</t>
     <rPh sb="0" eb="1">
       <t>chuang ye ban</t>
@@ -274,84 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工商银行估值PE倒数（隐含回报率）</t>
-    <rPh sb="0" eb="1">
-      <t>gong shang yin hang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu zhi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao shu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yin han hui bao l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行股权风险溢价（相对于债券）</t>
-    <rPh sb="4" eb="5">
-      <t>gu quan feng xian yi jia</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiang dui yu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhai quan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行贴现率</t>
-    <rPh sb="4" eb="5">
-      <t>tie xian l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行估值PE倒数（隐含回报率）</t>
-    <rPh sb="0" eb="1">
-      <t>ping an</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu zhi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dao shu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yin han hui bao l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行股权风险溢价（相对于债券）</t>
-    <rPh sb="0" eb="1">
-      <t>ping an</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gu quan feng xian yi jia</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xiang dui yu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhai quan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行贴现率</t>
-    <rPh sb="0" eb="1">
-      <t>ping an</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tie xian l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人民币汇率</t>
     <rPh sb="0" eb="1">
       <t>ren min bi hui l</t>
@@ -370,9 +243,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五年中债中短期票据（AAA）收益率</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
+    <t>三年中债中短期票据（AAA）收益率</t>
+    <rPh sb="0" eb="1">
+      <t>san</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhong zhai</t>
@@ -389,15 +262,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好公司发行的债券</t>
-    <rPh sb="0" eb="1">
-      <t>hao gong si</t>
+    <t>三年中债中短期票据（AA+）收益率</t>
+    <rPh sb="0" eb="1">
+      <t>san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong zhai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong duan qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>piao ju</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou yi l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白马股发行的债券</t>
+    <rPh sb="0" eb="1">
+      <t>bai ma gu</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>fa xing de</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>zhai quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值偏大，具有行业优势的科技公司发行的债券</t>
+    <rPh sb="0" eb="1">
+      <t>shi zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pian da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju you hang ye you shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fa xing de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhai quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够烂的小微企业的垃圾债才能反应风险</t>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao wei qi ye</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>la ji zhai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan ying</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>feng xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用利差</t>
+    <rPh sb="0" eb="1">
+      <t>xin yong li cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中债十年国债收益率</t>
+    <rPh sb="0" eb="1">
+      <t>zhong zhai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi nian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo zhai shou yi l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察资金流动性紧松</t>
+    <rPh sb="0" eb="1">
+      <t>guan cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi jin liu dong xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P259"/>
+  <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -787,8 +759,8 @@
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.3">
@@ -816,14 +788,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>3.2917000000000001</v>
+        <v>3.2726999999999999</v>
       </c>
       <c r="C2" s="6">
-        <v>3.282</v>
+        <v>3.2948</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>9.7000000000000419E-3</v>
+        <v>-2.2100000000000009E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -849,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
@@ -860,14 +832,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.742</v>
+        <v>2.7544</v>
       </c>
       <c r="C5" s="6">
-        <v>2.7046000000000001</v>
+        <v>2.7515000000000001</v>
       </c>
       <c r="D5" s="1">
         <f>B5-C5</f>
-        <v>3.7399999999999878E-2</v>
+        <v>2.8999999999999027E-3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -890,28 +862,28 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>3.0394000000000001</v>
+        <v>3.0539000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>3.1048</v>
+        <v>3.0506000000000002</v>
       </c>
       <c r="D8" s="1">
         <f>B8-C8</f>
-        <v>-6.5399999999999903E-2</v>
+        <v>3.2999999999998586E-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
         <v>6.4371999999999998</v>
@@ -931,28 +903,28 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>5.4934000000000003</v>
+        <v>3.2039</v>
       </c>
       <c r="C11" s="1">
-        <v>5.5148000000000001</v>
+        <v>3.2105999999999999</v>
       </c>
       <c r="D11" s="1">
         <f>B11-C11</f>
-        <v>-2.1399999999999864E-2</v>
+        <v>-6.6999999999999282E-3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1">
         <v>6.4371999999999998</v>
@@ -961,7 +933,7 @@
         <v>5.8418999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,42 +943,35 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <f>B2</f>
-        <v>3.2917000000000001</v>
+        <v>5.4539</v>
       </c>
       <c r="C14" s="1">
-        <f>C2</f>
-        <v>3.282</v>
+        <v>5.4606000000000003</v>
       </c>
       <c r="D14" s="1">
         <f>B14-C14</f>
-        <v>9.7000000000000419E-3</v>
+        <v>-6.7000000000003723E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
-        <f>G2</f>
-        <v>3.6076000000000001</v>
+        <v>6.4371999999999998</v>
       </c>
       <c r="H14" s="1">
-        <f>H2</f>
-        <v>3.5767000000000002</v>
+        <v>5.8418999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,38 +988,38 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
-        <f>B11-B5</f>
-        <v>2.7514000000000003</v>
+        <f>B2</f>
+        <v>3.2726999999999999</v>
       </c>
       <c r="C17" s="1">
-        <f>C11-C5</f>
-        <v>2.8102</v>
+        <f>C2</f>
+        <v>3.2948</v>
       </c>
       <c r="D17" s="1">
         <f>B17-C17</f>
-        <v>-5.8799999999999741E-2</v>
+        <v>-2.2100000000000009E-2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="1">
-        <f>G11-G5</f>
-        <v>3.2494999999999998</v>
+        <f>G2</f>
+        <v>3.6076000000000001</v>
       </c>
       <c r="H17" s="1">
-        <f>H11-H5</f>
-        <v>2.9259999999999997</v>
+        <f>H2</f>
+        <v>3.5767000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1071,40 +1036,38 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
-        <f>B12+B15</f>
-        <v>0</v>
+        <f>B14-B5</f>
+        <v>2.6995</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <f>C14-C5</f>
+        <v>2.7091000000000003</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <f>B20-C20</f>
+        <v>-9.600000000000275E-3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="1">
-        <f>G15+G12</f>
-        <v>0</v>
+        <f>G14-G5</f>
+        <v>3.2494999999999998</v>
       </c>
       <c r="H20" s="1">
-        <f>H15+H12</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <f>H20-G20</f>
-        <v>0</v>
+        <f>H14-H5</f>
+        <v>2.9259999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,18 +1084,41 @@
         <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B17+B20*2</f>
+        <v>8.6716999999999995</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C17+C20*2</f>
+        <v>8.713000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f>G18+G15</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>H18+H15</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>H23-G23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1149,32 +1135,31 @@
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>6.9802999999999997</v>
+        <f>B23</f>
+        <v>8.6716999999999995</v>
       </c>
       <c r="C26" s="1">
-        <v>6.9869000000000003</v>
+        <f>C23</f>
+        <v>8.713000000000001</v>
       </c>
       <c r="D26" s="1">
         <f>B26-C26</f>
-        <v>-6.6000000000006054E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F27" s="4"/>
+        <v>-4.1300000000001447E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
@@ -1190,10 +1175,10 @@
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>2</v>
@@ -1201,812 +1186,433 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="9">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2.5649999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.0331000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.0231000000000003</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F32" s="4"/>
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f>B32-C32</f>
+        <v>-1.1000000000000121E-2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B34" s="5">
+    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="D35" s="1">
+        <f>B35-C35</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="5">
         <v>43833</v>
       </c>
-      <c r="C34" s="5">
-        <f>B34+7</f>
+      <c r="C40" s="5">
+        <f>B40+7</f>
         <v>43840</v>
       </c>
-      <c r="D34" s="5">
-        <f>C34+7</f>
+      <c r="D40" s="5">
+        <f>C40+7</f>
         <v>43847</v>
       </c>
-      <c r="E34" s="5">
-        <f>D34+6</f>
+      <c r="E40" s="5">
+        <f>D40+6</f>
         <v>43853</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F40" s="5">
         <v>43868</v>
       </c>
-      <c r="G34" s="5">
-        <f>F34+7</f>
+      <c r="G40" s="5">
+        <f>F40+7</f>
         <v>43875</v>
       </c>
-      <c r="H34" s="5">
-        <f>G34+7</f>
+      <c r="H40" s="5">
+        <f>G40+7</f>
         <v>43882</v>
       </c>
-      <c r="I34" s="5">
-        <f>H34+7</f>
+      <c r="I40" s="5">
+        <f>H40+7</f>
         <v>43889</v>
       </c>
-      <c r="J34" s="5">
-        <f>I34+7</f>
+      <c r="J40" s="5">
+        <f>I40+7</f>
         <v>43896</v>
       </c>
-      <c r="K34" s="5">
-        <f t="shared" ref="K34:O34" si="0">J34+7</f>
+      <c r="K40" s="5">
+        <f t="shared" ref="K40:O40" si="0">J40+7</f>
         <v>43903</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L40" s="5">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M40" s="5">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N40" s="5">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O40" s="5">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B41" s="1">
         <v>3.5865999999999998</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C41" s="1">
         <v>3.5295000000000001</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D41" s="1">
         <v>3.5299</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E41" s="1">
         <v>3.4127000000000001</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F41" s="1">
         <v>3.2218</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G41" s="1">
         <v>3.282</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="H41" s="1">
+        <v>3.2726999999999999</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B43" s="1">
         <v>2.9662000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C43" s="1">
         <v>2.9502999999999999</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D43" s="1">
         <v>2.9798</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E43" s="1">
         <v>2.9759000000000002</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F43" s="1">
         <v>2.7452999999999999</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G43" s="1">
         <v>2.7046000000000001</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5.7443</v>
-      </c>
-      <c r="E39" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F39" s="4">
-        <v>5.6075999999999997</v>
-      </c>
-      <c r="G39" s="1">
-        <v>5.5148000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="8">
-        <f>1/51.03*100</f>
-        <v>1.9596315892612188</v>
-      </c>
-      <c r="C41" s="8">
-        <f>1/53.32*100</f>
-        <v>1.8754688672168043</v>
-      </c>
-      <c r="D41" s="8">
-        <f>1/54.13*100</f>
-        <v>1.8474043968224643</v>
-      </c>
-      <c r="E41" s="8">
-        <f>1/54.52*100</f>
-        <v>1.8341892883345561</v>
-      </c>
-      <c r="F41" s="8">
-        <f>1/58.38*100</f>
-        <v>1.7129153819801302</v>
-      </c>
-      <c r="G41" s="8">
-        <f>1/58.72*100</f>
-        <v>1.7029972752043598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="8">
-        <f t="shared" ref="B43:G43" si="1">B41-B35-(B39-B37)*2</f>
-        <v>-7.368768410738781</v>
-      </c>
-      <c r="C43" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.2874311327831967</v>
-      </c>
-      <c r="D43" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.2114956031775357</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.1251107116654442</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.2334846180198697</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.1994027247956405</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
+      <c r="H43" s="1">
+        <v>2.7544</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="60" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ref="B45:G45" si="2">B35+(B39-B37)*2+B43</f>
-        <v>1.9596315892612193</v>
+        <v>5.8371000000000004</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8754688672168038</v>
+        <v>5.7670000000000003</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8474043968224638</v>
+        <v>5.7443</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8341892883345547</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7129153819801308</v>
+        <v>5.7492000000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5.6075999999999997</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7029972752043596</v>
+        <v>5.5148000000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.4539</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="8">
+        <f>B41+(B45-B43)*2</f>
+        <v>9.3284000000000002</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" ref="C47:F47" si="1">C41+(C45-C43)*2</f>
+        <v>9.1629000000000005</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="1"/>
+        <v>9.0588999999999995</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9592999999999989</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9464000000000006</v>
+      </c>
+      <c r="G47" s="8">
+        <f>G41+(G45-G43)*2</f>
+        <v>8.9024000000000001</v>
+      </c>
+      <c r="H47" s="8">
+        <f>H41+(H45-H43)*2</f>
+        <v>8.6716999999999995</v>
+      </c>
+    </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B50" s="5">
-        <v>43833</v>
-      </c>
-      <c r="C50" s="5">
-        <f>B50+7</f>
-        <v>43840</v>
-      </c>
-      <c r="D50" s="5">
-        <f>C50+7</f>
-        <v>43847</v>
-      </c>
-      <c r="E50" s="5">
-        <f>D50+6</f>
-        <v>43853</v>
-      </c>
-      <c r="F50" s="5">
-        <v>43868</v>
-      </c>
-      <c r="G50" s="5">
-        <f>F50+7</f>
-        <v>43875</v>
-      </c>
-      <c r="H50" s="5">
-        <f>G50+7</f>
-        <v>43882</v>
-      </c>
-      <c r="I50" s="5">
-        <f>H50+7</f>
-        <v>43889</v>
-      </c>
-      <c r="J50" s="5">
-        <f>I50+7</f>
-        <v>43896</v>
-      </c>
-      <c r="K50" s="5">
-        <f t="shared" ref="K50:O50" si="3">J50+7</f>
-        <v>43903</v>
-      </c>
-      <c r="L50" s="5">
-        <f t="shared" si="3"/>
-        <v>43910</v>
-      </c>
-      <c r="M50" s="5">
-        <f t="shared" si="3"/>
-        <v>43917</v>
-      </c>
-      <c r="N50" s="5">
-        <f t="shared" si="3"/>
-        <v>43924</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="3"/>
-        <v>43931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3.5865999999999998</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3.5295000000000001</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3.5299</v>
-      </c>
-      <c r="E51" s="1">
-        <v>3.4127000000000001</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3.2218</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2.9662000000000002</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2.9502999999999999</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2.9798</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2.9759000000000002</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2.7452999999999999</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2.7046000000000001</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="7">
+        <f>B47</f>
+        <v>9.3284000000000002</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" ref="C49:H49" si="2">C47</f>
+        <v>9.1629000000000005</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="2"/>
+        <v>9.0588999999999995</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9592999999999989</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9464000000000006</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>8.9024000000000001</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6716999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5.7443</v>
-      </c>
-      <c r="E55" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F55" s="4">
-        <v>5.6075999999999997</v>
-      </c>
-      <c r="G55" s="1">
-        <v>5.5148000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="8">
-        <f>1/6.892*100</f>
-        <v>14.509576320371446</v>
-      </c>
-      <c r="C57" s="8">
-        <f>1/6.8*100</f>
-        <v>14.705882352941178</v>
-      </c>
-      <c r="D57" s="8">
-        <f>1/6.696*100</f>
-        <v>14.934289127837516</v>
-      </c>
-      <c r="E57" s="8">
-        <f>1/6.581*100</f>
-        <v>15.195259079167297</v>
-      </c>
-      <c r="F57" s="8">
-        <f>1/6.259*100</f>
-        <v>15.976993129892952</v>
-      </c>
-      <c r="G57" s="8">
-        <f>1/6.248*100</f>
-        <v>16.005121638924454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="8">
-        <f t="shared" ref="B59:G59" si="4">B57-B51-(B55-B53)*2</f>
-        <v>5.1811763203714465</v>
-      </c>
-      <c r="C59" s="8">
-        <f>C57-C51-(C55-C53)*2</f>
-        <v>5.5429823529411761</v>
-      </c>
-      <c r="D59" s="8">
-        <f t="shared" si="4"/>
-        <v>5.8753891278375168</v>
-      </c>
-      <c r="E59" s="8">
-        <f t="shared" si="4"/>
-        <v>6.2359590791672961</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="shared" si="4"/>
-        <v>7.030593129892952</v>
-      </c>
-      <c r="G59" s="8">
-        <f t="shared" si="4"/>
-        <v>7.1027216389244536</v>
-      </c>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="1">
-        <f>B51+(B55-B53)*2+B59</f>
-        <v>14.509576320371448</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:G61" si="5">C51+(C55-C53)*2+C59</f>
-        <v>14.705882352941178</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="5"/>
-        <v>14.934289127837516</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="5"/>
-        <v>15.195259079167295</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="5"/>
-        <v>15.976993129892954</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="5"/>
-        <v>16.005121638924454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B66" s="5">
-        <v>43833</v>
-      </c>
-      <c r="C66" s="5">
-        <f>B66+7</f>
-        <v>43840</v>
-      </c>
-      <c r="D66" s="5">
-        <f>C66+7</f>
-        <v>43847</v>
-      </c>
-      <c r="E66" s="5">
-        <f>D66+6</f>
-        <v>43853</v>
-      </c>
-      <c r="F66" s="5">
-        <v>43868</v>
-      </c>
-      <c r="G66" s="5">
-        <f>F66+7</f>
-        <v>43875</v>
-      </c>
-      <c r="H66" s="5">
-        <f>G66+7</f>
-        <v>43882</v>
-      </c>
-      <c r="I66" s="5">
-        <f>H66+7</f>
-        <v>43889</v>
-      </c>
-      <c r="J66" s="5">
-        <f>I66+7</f>
-        <v>43896</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" ref="K66:O66" si="6">J66+7</f>
-        <v>43903</v>
-      </c>
-      <c r="L66" s="5">
-        <f t="shared" si="6"/>
-        <v>43910</v>
-      </c>
-      <c r="M66" s="5">
-        <f t="shared" si="6"/>
-        <v>43917</v>
-      </c>
-      <c r="N66" s="5">
-        <f t="shared" si="6"/>
-        <v>43924</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="6"/>
-        <v>43931</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="1">
-        <v>3.5865999999999998</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3.5295000000000001</v>
-      </c>
-      <c r="D67" s="1">
-        <v>3.5299</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3.4127000000000001</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3.2218</v>
-      </c>
-      <c r="G67" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="1">
-        <v>2.9662000000000002</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2.9502999999999999</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2.9798</v>
-      </c>
-      <c r="E69" s="1">
-        <v>2.9759000000000002</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2.7452999999999999</v>
-      </c>
-      <c r="G69" s="1">
-        <v>2.7046000000000001</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="1">
-        <v>5.8371000000000004</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="D71" s="1">
-        <v>5.7443</v>
-      </c>
-      <c r="E71" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F71" s="4">
-        <v>5.6075999999999997</v>
-      </c>
-      <c r="G71" s="1">
-        <v>5.5148000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:16" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="8">
-        <f>1/11.914*100</f>
-        <v>8.3934866543562201</v>
-      </c>
-      <c r="C73" s="8">
-        <f>1/11.574*100</f>
-        <v>8.6400552963538964</v>
-      </c>
-      <c r="D73" s="8">
-        <f>1/11.281*100</f>
-        <v>8.8644623703572378</v>
-      </c>
-      <c r="E73" s="8">
-        <f>1/10.696*100</f>
-        <v>9.3492894540014948</v>
-      </c>
-      <c r="F73" s="8">
-        <f>1/9.98*100</f>
-        <v>10.020040080160319</v>
-      </c>
-      <c r="G73" s="8">
-        <f>1/10.345*100</f>
-        <v>9.6665055582406954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="8">
-        <f t="shared" ref="B75:F75" si="7">B73-B67-(B71-B69)*2</f>
-        <v>-0.93491334564378015</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="7"/>
-        <v>-0.52284470364610502</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="7"/>
-        <v>-0.19443762964276168</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="7"/>
-        <v>0.38998945400149498</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="7"/>
-        <v>1.0736400801603194</v>
-      </c>
-      <c r="G75" s="8">
-        <f>G73-G67-(G71-G69)*2</f>
-        <v>0.76410555824069526</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="1">
-        <f>B67+(B71-B69)*2+B75</f>
-        <v>8.3934866543562201</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" ref="C77:F77" si="8">C67+(C71-C69)*2+C75</f>
-        <v>8.6400552963538964</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="8"/>
-        <v>8.8644623703572378</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="8"/>
-        <v>9.349289454001493</v>
-      </c>
-      <c r="F77" s="1">
-        <f t="shared" si="8"/>
-        <v>10.020040080160321</v>
-      </c>
-      <c r="G77" s="1">
-        <f>G67+(G71-G69)*2+G75</f>
-        <v>9.6665055582406954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.15">
@@ -2404,150 +2010,35 @@
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F212" s="4"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F213" s="4"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F214" s="4"/>
-    </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F215" s="4"/>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F218" s="4"/>
-    </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F219" s="4"/>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F220" s="4"/>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F221" s="4"/>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F223" s="4"/>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F224" s="4"/>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F225" s="4"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F226" s="4"/>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F227" s="4"/>
-    </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F228" s="4"/>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F229" s="4"/>
-    </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F230" s="4"/>
-    </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F231" s="4"/>
-    </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F232" s="4"/>
-    </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F233" s="4"/>
-    </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F234" s="4"/>
-    </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F235" s="4"/>
-    </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F236" s="4"/>
-    </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F237" s="4"/>
-    </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F238" s="4"/>
-    </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F239" s="4"/>
-    </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F240" s="4"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F241" s="4"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F242" s="4"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F243" s="4"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F244" s="4"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F245" s="4"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F246" s="4"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F247" s="4"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F248" s="4"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F249" s="4"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F250" s="4"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F251" s="4"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F252" s="4"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F253" s="4"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F254" s="4"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F255" s="4"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F256" s="4"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F257" s="4"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F258" s="4"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F259" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三年中债中短期票据（AAA）收益率</t>
     <rPh sb="0" eb="1">
       <t>san</t>
@@ -370,6 +366,54 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zi jin liu dong xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢价越低越安全</t>
+    <rPh sb="0" eb="1">
+      <t>yi jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yue di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yue an quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兴国家汇率贬值会使资金流出</t>
+    <rPh sb="0" eb="1">
+      <t>xin xing guo jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liu chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month，资金是否便宜</t>
+    <rPh sb="8" eb="9">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi fou pian yi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -788,14 +832,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
+        <v>3.2381000000000002</v>
+      </c>
+      <c r="C2" s="6">
         <v>3.2726999999999999</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3.2948</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>-2.2100000000000009E-2</v>
+        <v>-3.4599999999999742E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -817,9 +861,6 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
@@ -832,14 +873,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
+        <v>2.7254999999999998</v>
+      </c>
+      <c r="C5" s="6">
         <v>2.7544</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.7515000000000001</v>
       </c>
       <c r="D5" s="1">
         <f>B5-C5</f>
-        <v>2.8999999999999027E-3</v>
+        <v>-2.8900000000000148E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -870,20 +911,20 @@
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
+        <v>3.0518999999999998</v>
+      </c>
+      <c r="C8" s="1">
         <v>3.0539000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.0506000000000002</v>
       </c>
       <c r="D8" s="1">
         <f>B8-C8</f>
-        <v>3.2999999999998586E-3</v>
+        <v>-2.0000000000002238E-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>6.4371999999999998</v>
@@ -911,20 +952,20 @@
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
+        <v>3.1919</v>
+      </c>
+      <c r="C11" s="1">
         <v>3.2039</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.2105999999999999</v>
       </c>
       <c r="D11" s="1">
         <f>B11-C11</f>
-        <v>-6.6999999999999282E-3</v>
+        <v>-1.2000000000000011E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <v>6.4371999999999998</v>
@@ -955,17 +996,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
+        <v>5.4519000000000002</v>
+      </c>
+      <c r="C14" s="1">
         <v>5.4539</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.4606000000000003</v>
       </c>
       <c r="D14" s="1">
         <f>B14-C14</f>
-        <v>-6.7000000000003723E-3</v>
+        <v>-1.9999999999997797E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1">
         <v>6.4371999999999998</v>
@@ -984,9 +1025,6 @@
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,15 +1038,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>3.2726999999999999</v>
+        <v>3.2381000000000002</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>3.2948</v>
+        <v>3.2726999999999999</v>
       </c>
       <c r="D17" s="1">
         <f>B17-C17</f>
-        <v>-2.2100000000000009E-2</v>
+        <v>-3.4599999999999742E-2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1032,9 +1070,6 @@
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,15 +1083,15 @@
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>2.6995</v>
+        <v>2.7264000000000004</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>2.7091000000000003</v>
+        <v>2.6995</v>
       </c>
       <c r="D20" s="1">
         <f>B20-C20</f>
-        <v>-9.600000000000275E-3</v>
+        <v>2.6900000000000368E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1080,9 +1115,6 @@
       <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,14 +1131,18 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>8.6716999999999995</v>
+        <v>8.690900000000001</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>8.713000000000001</v>
+        <v>8.6716999999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <f>B23-C23</f>
+        <v>1.9200000000001438E-2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G23" s="1">
         <f>G18+G15</f>
@@ -1131,9 +1167,6 @@
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,15 +1183,18 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>8.6716999999999995</v>
+        <v>8.690900000000001</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>8.713000000000001</v>
+        <v>8.6716999999999995</v>
       </c>
       <c r="D26" s="1">
         <f>B26-C26</f>
-        <v>-4.1300000000001447E-2</v>
+        <v>1.9200000000001438E-2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1171,9 +1207,6 @@
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,19 +1217,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="1">
+        <v>7.0369999999999999</v>
+      </c>
+      <c r="C29" s="1">
         <v>7.0331000000000001</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7.0231000000000003</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>9.9999999999997868E-3</v>
+        <v>3.8999999999997925E-3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1209,9 +1245,6 @@
       <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,22 +1255,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="9">
+        <v>2.476</v>
+      </c>
+      <c r="C32" s="9">
         <v>2.4889999999999999</v>
-      </c>
-      <c r="C32" s="9">
-        <v>2.5</v>
       </c>
       <c r="D32" s="1">
         <f>B32-C32</f>
-        <v>-1.1000000000000121E-2</v>
+        <v>-1.2999999999999901E-2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
@@ -1253,9 +1286,6 @@
       <c r="D34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,20 +1298,20 @@
     </row>
     <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9">
+        <v>2.887</v>
+      </c>
+      <c r="C35" s="9">
         <v>2.9289999999999998</v>
-      </c>
-      <c r="C35" s="9">
-        <v>2.9329999999999998</v>
       </c>
       <c r="D35" s="1">
         <f>B35-C35</f>
-        <v>-4.0000000000000036E-3</v>
+        <v>-4.1999999999999815E-2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
@@ -1314,23 +1344,23 @@
         <v>43868</v>
       </c>
       <c r="G40" s="5">
-        <f>F40+7</f>
+        <f t="shared" ref="G40:O40" si="0">F40+7</f>
         <v>43875</v>
       </c>
       <c r="H40" s="5">
-        <f>G40+7</f>
+        <f t="shared" si="0"/>
         <v>43882</v>
       </c>
       <c r="I40" s="5">
-        <f>H40+7</f>
+        <f t="shared" si="0"/>
         <v>43889</v>
       </c>
       <c r="J40" s="5">
-        <f>I40+7</f>
+        <f t="shared" si="0"/>
         <v>43896</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" ref="K40:O40" si="0">J40+7</f>
+        <f t="shared" si="0"/>
         <v>43903</v>
       </c>
       <c r="L40" s="5">
@@ -1455,14 +1485,14 @@
     </row>
     <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="8">
-        <f>B41+(B45-B43)*2</f>
+        <f t="shared" ref="B47:H47" si="1">B41+(B45-B43)*2</f>
         <v>9.3284000000000002</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" ref="C47:F47" si="1">C41+(C45-C43)*2</f>
+        <f t="shared" si="1"/>
         <v>9.1629000000000005</v>
       </c>
       <c r="D47" s="8">
@@ -1478,11 +1508,11 @@
         <v>8.9464000000000006</v>
       </c>
       <c r="G47" s="8">
-        <f>G41+(G45-G43)*2</f>
+        <f t="shared" si="1"/>
         <v>8.9024000000000001</v>
       </c>
       <c r="H47" s="8">
-        <f>H41+(H45-H43)*2</f>
+        <f t="shared" si="1"/>
         <v>8.6716999999999995</v>
       </c>
     </row>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="480" windowWidth="13620" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="15180" yWindow="460" windowWidth="13620" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -415,6 +415,24 @@
     <rPh sb="10" eb="11">
       <t>shi fou pian yi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR007，资金是否便宜</t>
+    <rPh sb="6" eb="7">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi fou pian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month shibor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,6 +472,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -488,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +538,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -790,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P212"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -832,14 +858,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>3.2381000000000002</v>
+        <v>3.0270999999999999</v>
       </c>
       <c r="C2" s="6">
-        <v>3.2726999999999999</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>-3.4599999999999742E-2</v>
+        <v>-0.10789999999999988</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -873,14 +899,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.7254999999999998</v>
+        <v>2.4859</v>
       </c>
       <c r="C5" s="6">
-        <v>2.7544</v>
+        <v>2.57</v>
       </c>
       <c r="D5" s="1">
         <f>B5-C5</f>
-        <v>-2.8900000000000148E-2</v>
+        <v>-8.4099999999999842E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -914,14 +940,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>3.0518999999999998</v>
+        <v>2.9268000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0539000000000001</v>
+        <v>2.9710000000000001</v>
       </c>
       <c r="D8" s="1">
         <f>B8-C8</f>
-        <v>-2.0000000000002238E-3</v>
+        <v>-4.4200000000000017E-2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -955,14 +981,14 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>3.1919</v>
+        <v>3.0468000000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>3.2039</v>
+        <v>3.0910000000000002</v>
       </c>
       <c r="D11" s="1">
         <f>B11-C11</f>
-        <v>-1.2000000000000011E-2</v>
+        <v>-4.4200000000000017E-2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -996,14 +1022,14 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>5.4519000000000002</v>
+        <v>5.3268000000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>5.4539</v>
+        <v>5.3710000000000004</v>
       </c>
       <c r="D14" s="1">
         <f>B14-C14</f>
-        <v>-1.9999999999997797E-3</v>
+        <v>-4.4200000000000017E-2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1038,15 +1064,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>3.2381000000000002</v>
+        <v>3.0270999999999999</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>3.2726999999999999</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="D17" s="1">
         <f>B17-C17</f>
-        <v>-3.4599999999999742E-2</v>
+        <v>-0.10789999999999988</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1083,15 +1109,15 @@
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>2.7264000000000004</v>
+        <v>2.8409000000000004</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>2.6995</v>
+        <v>2.8010000000000006</v>
       </c>
       <c r="D20" s="1">
         <f>B20-C20</f>
-        <v>2.6900000000000368E-2</v>
+        <v>3.9899999999999824E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1131,15 +1157,15 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>8.690900000000001</v>
+        <v>8.7088999999999999</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>8.6716999999999995</v>
+        <v>8.7370000000000019</v>
       </c>
       <c r="D23" s="1">
         <f>B23-C23</f>
-        <v>1.9200000000001438E-2</v>
+        <v>-2.8100000000002012E-2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1183,15 +1209,15 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>8.690900000000001</v>
+        <v>8.7088999999999999</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>8.6716999999999995</v>
+        <v>8.7370000000000019</v>
       </c>
       <c r="D26" s="1">
         <f>B26-C26</f>
-        <v>1.9200000000001438E-2</v>
+        <v>-2.8100000000002012E-2</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
@@ -1221,15 +1247,15 @@
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="1">
-        <v>7.0369999999999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7.0331000000000001</v>
+      <c r="B29" s="10">
+        <v>6.9389000000000003</v>
+      </c>
+      <c r="C29" s="10">
+        <v>6.9260000000000002</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>3.8999999999997925E-3</v>
+        <v>1.2900000000000134E-2</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1259,11 +1285,11 @@
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="9">
-        <v>2.476</v>
-      </c>
-      <c r="C32" s="9">
-        <v>2.4889999999999999</v>
+      <c r="B32" s="10">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2.238</v>
       </c>
       <c r="D32" s="1">
         <f>B32-C32</f>
@@ -1273,177 +1299,183 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2.21</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1.85</v>
+      </c>
+      <c r="D34" s="1">
+        <f>B34-C34</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B35"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9">
-        <v>2.887</v>
-      </c>
-      <c r="C35" s="9">
-        <v>2.9289999999999998</v>
-      </c>
-      <c r="D35" s="1">
-        <f>B35-C35</f>
-        <v>-4.1999999999999815E-2</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="B37" s="9">
+        <v>2.5205000000000002</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="D37" s="1">
+        <f>B37-C37</f>
+        <v>-0.10749999999999993</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F39" s="4"/>
-    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B40" s="5">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B42" s="5">
         <v>43833</v>
       </c>
-      <c r="C40" s="5">
-        <f>B40+7</f>
+      <c r="C42" s="5">
+        <f>B42+7</f>
         <v>43840</v>
       </c>
-      <c r="D40" s="5">
-        <f>C40+7</f>
+      <c r="D42" s="5">
+        <f>C42+7</f>
         <v>43847</v>
       </c>
-      <c r="E40" s="5">
-        <f>D40+6</f>
+      <c r="E42" s="5">
+        <f>D42+6</f>
         <v>43853</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F42" s="5">
         <v>43868</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" ref="G40:O40" si="0">F40+7</f>
+      <c r="G42" s="5">
+        <f t="shared" ref="G42:O42" si="0">F42+7</f>
         <v>43875</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H42" s="5">
         <f t="shared" si="0"/>
         <v>43882</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I42" s="5">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J42" s="5">
         <f t="shared" si="0"/>
         <v>43896</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K42" s="5">
         <f t="shared" si="0"/>
         <v>43903</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L42" s="5">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M42" s="5">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N42" s="5">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O42" s="5">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.5865999999999998</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3.5295000000000001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.5299</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3.4127000000000001</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3.2218</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3.282</v>
-      </c>
-      <c r="H41" s="1">
-        <v>3.2726999999999999</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F42" s="1"/>
-    </row>
     <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>2.9662000000000002</v>
+        <v>3.5865999999999998</v>
       </c>
       <c r="C43" s="1">
-        <v>2.9502999999999999</v>
+        <v>3.5295000000000001</v>
       </c>
       <c r="D43" s="1">
-        <v>2.9798</v>
+        <v>3.5299</v>
       </c>
       <c r="E43" s="1">
-        <v>2.9759000000000002</v>
+        <v>3.4127000000000001</v>
       </c>
       <c r="F43" s="1">
-        <v>2.7452999999999999</v>
+        <v>3.2218</v>
       </c>
       <c r="G43" s="1">
-        <v>2.7046000000000001</v>
+        <v>3.282</v>
       </c>
       <c r="H43" s="1">
-        <v>2.7544</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+        <v>3.2726999999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3.1989000000000001</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3.1349999999999998</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -1452,149 +1484,264 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>5.8371000000000004</v>
+        <v>2.9662000000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>5.7670000000000003</v>
+        <v>2.9502999999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>5.7443</v>
+        <v>2.9798</v>
       </c>
       <c r="E45" s="1">
-        <v>5.7492000000000001</v>
-      </c>
-      <c r="F45" s="4">
-        <v>5.6075999999999997</v>
+        <v>2.9759000000000002</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.7452999999999999</v>
       </c>
       <c r="G45" s="1">
-        <v>5.5148000000000001</v>
+        <v>2.7046000000000001</v>
       </c>
       <c r="H45" s="1">
-        <v>5.4539</v>
-      </c>
+        <v>2.7544</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2.6768999999999998</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.8371000000000004</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.7443</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5.7492000000000001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5.6075999999999997</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.5148000000000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5.4539</v>
+      </c>
+      <c r="I47" s="1">
+        <v>5.4154</v>
+      </c>
+      <c r="J47" s="1">
+        <v>5.3710000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="8">
-        <f t="shared" ref="B47:H47" si="1">B41+(B45-B43)*2</f>
+      <c r="B49" s="8">
+        <f t="shared" ref="B49:J49" si="1">B43+(B47-B45)*2</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C49" s="8">
         <f t="shared" si="1"/>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D49" s="8">
         <f t="shared" si="1"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E49" s="8">
         <f t="shared" si="1"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F49" s="8">
         <f t="shared" si="1"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G49" s="8">
         <f t="shared" si="1"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H49" s="8">
         <f t="shared" si="1"/>
         <v>8.6716999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="I49" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6759000000000004</v>
+      </c>
+      <c r="J49" s="1">
+        <f>J43+(J47-J45)*2</f>
+        <v>8.7370000000000019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="7">
-        <f>B47</f>
+      <c r="B51" s="7">
+        <f>B49</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" ref="C49:H49" si="2">C47</f>
+      <c r="C51" s="2">
+        <f t="shared" ref="C51:J51" si="2">C49</f>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D51" s="2">
         <f t="shared" si="2"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="2"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F51" s="2">
         <f t="shared" si="2"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G51" s="2">
         <f t="shared" si="2"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H51" s="2">
         <f t="shared" si="2"/>
         <v>8.6716999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6759000000000004</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7370000000000019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2.258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2.2313000000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.15">
@@ -2040,6 +2187,12 @@
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F214" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -858,14 +858,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>3.0270999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="C2" s="6">
-        <v>3.1349999999999998</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="D2" s="1">
         <f>B2-C2</f>
-        <v>-0.10789999999999988</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -899,14 +899,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.4859</v>
+        <v>2.6299000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.57</v>
+        <v>2.5954999999999999</v>
       </c>
       <c r="D5" s="1">
         <f>B5-C5</f>
-        <v>-8.4099999999999842E-2</v>
+        <v>3.4400000000000208E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -940,14 +940,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>2.9268000000000001</v>
+        <v>3.028</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9710000000000001</v>
+        <v>2.9870999999999999</v>
       </c>
       <c r="D8" s="1">
         <f>B8-C8</f>
-        <v>-4.4200000000000017E-2</v>
+        <v>4.0900000000000158E-2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -981,14 +981,14 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>3.0468000000000002</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0910000000000002</v>
+        <v>3.1171000000000002</v>
       </c>
       <c r="D11" s="1">
         <f>B11-C11</f>
-        <v>-4.4200000000000017E-2</v>
+        <v>4.0899999999999714E-2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -1022,14 +1022,14 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>5.3268000000000004</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>5.3710000000000004</v>
+        <v>5.3871000000000002</v>
       </c>
       <c r="D14" s="1">
         <f>B14-C14</f>
-        <v>-4.4200000000000017E-2</v>
+        <v>4.0899999999999714E-2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1064,15 +1064,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>3.0270999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>3.1349999999999998</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="D17" s="1">
         <f>B17-C17</f>
-        <v>-0.10789999999999988</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1109,15 +1109,15 @@
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>2.8409000000000004</v>
+        <v>2.7980999999999998</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>2.8010000000000006</v>
+        <v>2.7916000000000003</v>
       </c>
       <c r="D20" s="1">
         <f>B20-C20</f>
-        <v>3.9899999999999824E-2</v>
+        <v>6.4999999999995062E-3</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1157,15 +1157,15 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>8.7088999999999999</v>
+        <v>8.6562000000000001</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>8.7370000000000019</v>
+        <v>8.6182000000000016</v>
       </c>
       <c r="D23" s="1">
         <f>B23-C23</f>
-        <v>-2.8100000000002012E-2</v>
+        <v>3.7999999999998479E-2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>27</v>
@@ -1209,15 +1209,15 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>8.7088999999999999</v>
+        <v>8.6562000000000001</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>8.7370000000000019</v>
+        <v>8.6182000000000016</v>
       </c>
       <c r="D26" s="1">
         <f>B26-C26</f>
-        <v>-2.8100000000002012E-2</v>
+        <v>3.7999999999998479E-2</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
@@ -1248,14 +1248,14 @@
         <v>17</v>
       </c>
       <c r="B29" s="10">
-        <v>6.9389000000000003</v>
+        <v>7.0033000000000003</v>
       </c>
       <c r="C29" s="10">
-        <v>6.9260000000000002</v>
+        <v>6.9641000000000002</v>
       </c>
       <c r="D29" s="1">
         <f>B29-C29</f>
-        <v>1.2900000000000134E-2</v>
+        <v>3.9200000000000124E-2</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1286,14 +1286,14 @@
         <v>18</v>
       </c>
       <c r="B32" s="10">
-        <v>2.2250000000000001</v>
+        <v>2.202</v>
       </c>
       <c r="C32" s="10">
-        <v>2.238</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="D32" s="1">
         <f>B32-C32</f>
-        <v>-1.2999999999999901E-2</v>
+        <v>-2.0999999999999908E-2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>29</v>
@@ -1324,14 +1324,14 @@
         <v>18</v>
       </c>
       <c r="B34" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C34" s="10">
         <v>2.21</v>
-      </c>
-      <c r="C34" s="10">
-        <v>1.85</v>
       </c>
       <c r="D34" s="1">
         <f>B34-C34</f>
-        <v>0.35999999999999988</v>
+        <v>-0.10999999999999988</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
@@ -1366,14 +1366,14 @@
         <v>25</v>
       </c>
       <c r="B37" s="9">
-        <v>2.5205000000000002</v>
+        <v>2.6758999999999999</v>
       </c>
       <c r="C37" s="9">
-        <v>2.6280000000000001</v>
+        <v>2.6379000000000001</v>
       </c>
       <c r="D37" s="1">
         <f>B37-C37</f>
-        <v>-0.10749999999999993</v>
+        <v>3.7999999999999812E-2</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>26</v>
@@ -1476,7 +1476,9 @@
       <c r="J43" s="1">
         <v>3.1349999999999998</v>
       </c>
-      <c r="K43" s="6"/>
+      <c r="K43" s="1">
+        <v>3.06</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -1517,7 +1519,9 @@
       <c r="J45" s="1">
         <v>2.57</v>
       </c>
-      <c r="K45" s="6"/>
+      <c r="K45" s="1">
+        <v>2.6299000000000001</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
@@ -1558,11 +1562,14 @@
       <c r="J47" s="1">
         <v>5.3710000000000004</v>
       </c>
+      <c r="K47" s="1">
+        <v>5.4279999999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
@@ -1602,11 +1609,15 @@
         <f>J43+(J47-J45)*2</f>
         <v>8.7370000000000019</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="1">
+        <f>K43+(K47-K45)*2</f>
+        <v>8.6562000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>9.3284000000000002</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" ref="C51:J51" si="2">C49</f>
+        <f t="shared" ref="C51:K51" si="2">C49</f>
         <v>9.1629000000000005</v>
       </c>
       <c r="D51" s="2">
@@ -1646,11 +1657,15 @@
         <f t="shared" si="2"/>
         <v>8.7370000000000019</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6562000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
@@ -1681,11 +1696,14 @@
       <c r="J53" s="1">
         <v>2.258</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="1">
+        <v>2.202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>32</v>
       </c>
@@ -1716,32 +1734,35 @@
       <c r="J55" s="1">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.15">

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -347,29 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中债十年国债收益率</t>
-    <rPh sb="0" eb="1">
-      <t>zhong zhai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi nian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo zhai shou yi l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察资金流动性紧松</t>
-    <rPh sb="0" eb="1">
-      <t>guan cha</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi jin liu dong xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>溢价越低越安全</t>
     <rPh sb="0" eb="1">
       <t>yi jia</t>
@@ -408,16 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-Month，资金是否便宜</t>
-    <rPh sb="8" eb="9">
-      <t>zi jin</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi fou pian yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DR007，资金是否便宜</t>
     <rPh sb="6" eb="7">
       <t>zi jin</t>
@@ -433,6 +400,79 @@
   </si>
   <si>
     <t>DR007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资余额</t>
+    <rPh sb="0" eb="1">
+      <t>rong zi yu e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散户风险偏好</t>
+    <rPh sb="0" eb="1">
+      <t>san hu feng xian pian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北上资金</t>
+    <rPh sb="0" eb="1">
+      <t>bei shang zi jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国外机构风险偏好</t>
+    <rPh sb="0" eb="1">
+      <t>guo wai ji gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month shibor，资金是否便宜</t>
+    <rPh sb="15" eb="16">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi fou pian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month libor，资金是否便宜</t>
+    <rPh sb="14" eb="15">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi fou pian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险偏好</t>
+    <rPh sb="0" eb="1">
+      <t>feng xian pian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOER-美国超额存款准备金率</t>
+    <rPh sb="5" eb="6">
+      <t>mei guo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chao e cun kuan zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-Month libor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,17 +508,35 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF009900"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -513,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,6 +596,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -816,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -858,14 +919,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="C2" s="6">
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="D2" s="1">
+        <v>3.0813000000000001</v>
+      </c>
+      <c r="D2" s="8">
         <f>B2-C2</f>
-        <v>2.4999999999999911E-2</v>
+        <v>-3.1300000000000328E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -876,6 +937,9 @@
       <c r="H2" s="1">
         <v>3.5767000000000002</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -884,7 +948,7 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -899,14 +963,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.6299000000000001</v>
+        <v>2.5975000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.5954999999999999</v>
-      </c>
-      <c r="D5" s="1">
+        <v>2.6120999999999999</v>
+      </c>
+      <c r="D5" s="8">
         <f>B5-C5</f>
-        <v>3.4400000000000208E-2</v>
+        <v>-1.4599999999999724E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -917,6 +981,9 @@
       <c r="H5" s="1">
         <v>2.9159000000000002</v>
       </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -925,7 +992,7 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -940,14 +1007,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>3.028</v>
+        <v>3.0510000000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9870999999999999</v>
-      </c>
-      <c r="D8" s="1">
+        <v>3.0884999999999998</v>
+      </c>
+      <c r="D8" s="8">
         <f>B8-C8</f>
-        <v>4.0900000000000158E-2</v>
+        <v>-3.7499999999999645E-2</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -958,6 +1025,9 @@
       <c r="H8" s="1">
         <v>5.8418999999999999</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
@@ -966,7 +1036,7 @@
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -981,14 +1051,14 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>3.1579999999999999</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>3.1171000000000002</v>
-      </c>
-      <c r="D11" s="1">
+        <v>3.2385000000000002</v>
+      </c>
+      <c r="D11" s="8">
         <f>B11-C11</f>
-        <v>4.0899999999999714E-2</v>
+        <v>-1.7500000000000071E-2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
@@ -999,6 +1069,9 @@
       <c r="H11" s="1">
         <v>5.8418999999999999</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -1007,7 +1080,7 @@
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1022,14 +1095,14 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>5.4279999999999999</v>
+        <v>5.5410000000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>5.3871000000000002</v>
-      </c>
-      <c r="D14" s="1">
+        <v>5.5484999999999998</v>
+      </c>
+      <c r="D14" s="8">
         <f>B14-C14</f>
-        <v>4.0899999999999714E-2</v>
+        <v>-7.499999999999396E-3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1040,6 +1113,9 @@
       <c r="H14" s="1">
         <v>5.8418999999999999</v>
       </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
@@ -1048,7 +1124,7 @@
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1064,15 +1140,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="D17" s="1">
+        <v>3.0813000000000001</v>
+      </c>
+      <c r="D17" s="8">
         <f>B17-C17</f>
-        <v>2.4999999999999911E-2</v>
+        <v>-3.1300000000000328E-2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1086,6 +1162,9 @@
         <v>3.5767000000000002</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D18" s="8"/>
+    </row>
     <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>0</v>
@@ -1093,7 +1172,7 @@
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1109,15 +1188,15 @@
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>2.7980999999999998</v>
+        <v>2.9435000000000002</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>2.7916000000000003</v>
-      </c>
-      <c r="D20" s="1">
+        <v>2.9363999999999999</v>
+      </c>
+      <c r="D20" s="8">
         <f>B20-C20</f>
-        <v>6.4999999999995062E-3</v>
+        <v>7.1000000000003283E-3</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1131,6 +1210,9 @@
         <v>2.9259999999999997</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D21" s="8"/>
+    </row>
     <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -1138,7 +1220,7 @@
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1157,18 +1239,18 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>8.6562000000000001</v>
+        <v>8.9370000000000012</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>8.6182000000000016</v>
-      </c>
-      <c r="D23" s="1">
+        <v>8.9541000000000004</v>
+      </c>
+      <c r="D23" s="8">
         <f>B23-C23</f>
-        <v>3.7999999999998479E-2</v>
+        <v>-1.7099999999999227E-2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1">
         <f>G18+G15</f>
@@ -1183,6 +1265,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D24" s="8"/>
+    </row>
     <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>0</v>
@@ -1190,7 +1275,7 @@
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1209,19 +1294,22 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>8.6562000000000001</v>
+        <v>8.9370000000000012</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>8.6182000000000016</v>
-      </c>
-      <c r="D26" s="1">
+        <v>8.9541000000000004</v>
+      </c>
+      <c r="D26" s="8">
         <f>B26-C26</f>
-        <v>3.7999999999998479E-2</v>
+        <v>-1.7099999999999227E-2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
@@ -1230,7 +1318,7 @@
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1247,19 +1335,22 @@
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="10">
-        <v>7.0033000000000003</v>
-      </c>
-      <c r="C29" s="10">
-        <v>6.9641000000000002</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="B29" s="9">
+        <v>7.1052</v>
+      </c>
+      <c r="C29" s="9">
+        <v>7.0522</v>
+      </c>
+      <c r="D29" s="8">
         <f>B29-C29</f>
-        <v>3.9200000000000124E-2</v>
+        <v>5.2999999999999936E-2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -1268,7 +1359,7 @@
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1281,32 +1372,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="10">
-        <v>2.202</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2.2229999999999999</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="B32" s="9">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="D32" s="8">
         <f>B32-C32</f>
-        <v>-2.0999999999999908E-2</v>
+        <v>-1.6999999999999904E-2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -1319,36 +1410,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2.21</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="B34" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D34" s="8">
         <f>B34-C34</f>
-        <v>-0.10999999999999988</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B35"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1361,456 +1451,797 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="9">
-        <v>2.6758999999999999</v>
-      </c>
-      <c r="C37" s="9">
-        <v>2.6379000000000001</v>
-      </c>
-      <c r="D37" s="1">
+        <v>18</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1.19513</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1.11575</v>
+      </c>
+      <c r="D37" s="8">
         <f>B37-C37</f>
-        <v>3.7999999999999812E-2</v>
+        <v>7.9380000000000006E-2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B42" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="8">
+        <f>B40-C40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="9">
+        <f>B37-B40</f>
+        <v>1.0951299999999999</v>
+      </c>
+      <c r="C43" s="9">
+        <f>C37-C40</f>
+        <v>1.0157499999999999</v>
+      </c>
+      <c r="D43" s="8">
+        <f>B43-C43</f>
+        <v>7.9380000000000006E-2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="10">
+        <v>10944</v>
+      </c>
+      <c r="C46" s="10">
+        <v>10904</v>
+      </c>
+      <c r="D46" s="8">
+        <f>B46-C46</f>
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B47"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="13">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="C49" s="11">
+        <v>-94.67</v>
+      </c>
+      <c r="D49" s="8">
+        <f>B49-C49</f>
+        <v>128.69</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B54" s="5">
         <v>43833</v>
       </c>
-      <c r="C42" s="5">
-        <f>B42+7</f>
+      <c r="C54" s="5">
+        <f>B54+7</f>
         <v>43840</v>
       </c>
-      <c r="D42" s="5">
-        <f>C42+7</f>
+      <c r="D54" s="5">
+        <f>C54+7</f>
         <v>43847</v>
       </c>
-      <c r="E42" s="5">
-        <f>D42+6</f>
+      <c r="E54" s="5">
+        <f>D54+6</f>
         <v>43853</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F54" s="5">
         <v>43868</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" ref="G42:O42" si="0">F42+7</f>
+      <c r="G54" s="5">
+        <f t="shared" ref="G54:O54" si="0">F54+7</f>
         <v>43875</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H54" s="5">
         <f t="shared" si="0"/>
         <v>43882</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I54" s="5">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J54" s="5">
         <f t="shared" si="0"/>
         <v>43896</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K54" s="5">
         <f t="shared" si="0"/>
         <v>43903</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L54" s="5">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M54" s="5">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N54" s="5">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O54" s="5">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B55" s="1">
         <v>3.5865999999999998</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C55" s="1">
         <v>3.5295000000000001</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D55" s="1">
         <v>3.5299</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E55" s="1">
         <v>3.4127000000000001</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F55" s="1">
         <v>3.2218</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G55" s="1">
         <v>3.282</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H55" s="1">
         <v>3.2726999999999999</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I55" s="1">
         <v>3.1989000000000001</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J55" s="1">
         <v>3.1349999999999998</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K55" s="1">
         <v>3.06</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="L55" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B57" s="1">
         <v>2.9662000000000002</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C57" s="1">
         <v>2.9502999999999999</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D57" s="1">
         <v>2.9798</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E57" s="1">
         <v>2.9759000000000002</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F57" s="1">
         <v>2.7452999999999999</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G57" s="1">
         <v>2.7046000000000001</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H57" s="1">
         <v>2.7544</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I57" s="1">
         <v>2.6768999999999998</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J57" s="1">
         <v>2.57</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K57" s="1">
         <v>2.6299000000000001</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="L57" s="1">
+        <v>2.5975000000000001</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B59" s="1">
         <v>5.8371000000000004</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C59" s="1">
         <v>5.7670000000000003</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D59" s="1">
         <v>5.7443</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E59" s="1">
         <v>5.7492000000000001</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F59" s="4">
         <v>5.6075999999999997</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G59" s="1">
         <v>5.5148000000000001</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H59" s="1">
         <v>5.4539</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I59" s="1">
         <v>5.4154</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J59" s="1">
         <v>5.3710000000000004</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K59" s="1">
         <v>5.4279999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+      <c r="L59" s="1">
+        <v>5.5410000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="8">
-        <f t="shared" ref="B49:J49" si="1">B43+(B47-B45)*2</f>
+      <c r="B61" s="8">
+        <f t="shared" ref="B61:J61" si="1">B55+(B59-B57)*2</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C61" s="8">
         <f t="shared" si="1"/>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D61" s="8">
         <f t="shared" si="1"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E61" s="8">
         <f t="shared" si="1"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F61" s="8">
         <f t="shared" si="1"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G61" s="8">
         <f t="shared" si="1"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H61" s="8">
         <f t="shared" si="1"/>
         <v>8.6716999999999995</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="1"/>
         <v>8.6759000000000004</v>
       </c>
-      <c r="J49" s="1">
-        <f>J43+(J47-J45)*2</f>
+      <c r="J61" s="1">
+        <f>J55+(J59-J57)*2</f>
         <v>8.7370000000000019</v>
       </c>
-      <c r="K49" s="1">
-        <f>K43+(K47-K45)*2</f>
+      <c r="K61" s="1">
+        <f>K55+(K59-K57)*2</f>
         <v>8.6562000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="L61" s="1">
+        <f>L55+(L59-L57)*2</f>
+        <v>8.9370000000000012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7">
-        <f>B49</f>
+      <c r="B63" s="7">
+        <f>B61</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" ref="C51:K51" si="2">C49</f>
+      <c r="C63" s="2">
+        <f t="shared" ref="C63:J63" si="2">C61</f>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E63" s="2">
         <f t="shared" si="2"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F63" s="2">
         <f t="shared" si="2"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G63" s="2">
         <f t="shared" si="2"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H63" s="2">
         <f t="shared" si="2"/>
         <v>8.6716999999999995</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I63" s="2">
         <f t="shared" si="2"/>
         <v>8.6759000000000004</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J63" s="2">
         <f t="shared" si="2"/>
         <v>8.7370000000000019</v>
       </c>
-      <c r="K51" s="2">
-        <f t="shared" si="2"/>
+      <c r="K63" s="2">
+        <f>K61</f>
         <v>8.6562000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="L63" s="1">
+        <f>L61</f>
+        <v>8.9370000000000012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="1">
         <v>2.96</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C65" s="1">
         <v>2.8639999999999999</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D65" s="1">
         <v>2.8679999999999999</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E65" s="1">
         <v>2.8580000000000001</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F65" s="4">
         <v>2.7530000000000001</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G65" s="1">
         <v>2.5649999999999999</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H65" s="1">
         <v>2.4889999999999999</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I65" s="1">
         <v>2.4289999999999998</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J65" s="1">
         <v>2.258</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K65" s="1">
         <v>2.202</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
+      <c r="L65" s="1">
+        <v>2.0870000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.2313000000000001</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I67" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="1">
+        <v>10262</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10457</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10538</v>
+      </c>
+      <c r="E69" s="1">
+        <v>10370</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10359</v>
+      </c>
+      <c r="G69" s="1">
+        <v>10510</v>
+      </c>
+      <c r="H69" s="1">
+        <v>10975</v>
+      </c>
+      <c r="I69" s="1">
+        <v>11023</v>
+      </c>
+      <c r="J69" s="1">
+        <v>11271</v>
+      </c>
+      <c r="K69" s="1">
+        <v>11152</v>
+      </c>
+      <c r="L69" s="1">
+        <v>10944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="1">
-        <v>2.2313000000000001</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2.62</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2.54</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="I55" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="B71" s="1">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1">
+        <v>49.42</v>
+      </c>
+      <c r="D71" s="1">
+        <v>55.68</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-94.31</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-6.03</v>
+      </c>
+      <c r="G71" s="1">
+        <v>70.08</v>
+      </c>
+      <c r="H71" s="1">
+        <v>18.54</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-24.26</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="K71" s="1">
+        <v>-131.41999999999999</v>
+      </c>
+      <c r="L71" s="1">
+        <v>34.020000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="D73" s="1">
         <v>1.82</v>
       </c>
-      <c r="K55" s="1">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="E73" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0.84313000000000005</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.84313000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="1">
+        <f>B73-B75</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" ref="C77:K77" si="3">C73-C75</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999849E-2</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.14000000000000012</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.20400000000000007</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.25687000000000004</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" ref="L77" si="4">L73-L75</f>
+        <v>-0.25687000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.15">
@@ -2214,6 +2645,42 @@
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F226" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -232,13 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资金利率</t>
-    <rPh sb="0" eb="1">
-      <t>zi jin li l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三年中债中短期票据（AAA）收益率</t>
     <rPh sb="0" eb="1">
       <t>san</t>
@@ -473,6 +466,88 @@
   </si>
   <si>
     <t>IOER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国高收益债BBB</t>
+    <rPh sb="0" eb="1">
+      <t>mei guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao shou yi zhai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行间借款利率</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin hang jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行间回购利率</t>
+    <rPh sb="0" eb="1">
+      <t>zhong guo yin hang jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦银行间借款利率</t>
+    <rPh sb="0" eb="1">
+      <t>lun dun yin hang jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国银行间存款利率</t>
+    <rPh sb="0" eb="1">
+      <t>mei guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin hang jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cun kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国资金风险偏好</t>
+    <rPh sb="0" eb="1">
+      <t>mei guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>feng xian pian hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国高收益债指数</t>
+    <rPh sb="0" eb="1">
+      <t>mei guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao shou yi zhai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P226"/>
+  <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -919,14 +994,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>3.05</v>
+        <v>2.9901</v>
       </c>
       <c r="C2" s="6">
-        <v>3.0813000000000001</v>
+        <v>2.9901</v>
       </c>
       <c r="D2" s="8">
         <f>B2-C2</f>
-        <v>-3.1300000000000328E-2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -963,14 +1038,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.5975000000000001</v>
+        <v>2.4228999999999998</v>
       </c>
       <c r="C5" s="6">
-        <v>2.6120999999999999</v>
+        <v>2.3925000000000001</v>
       </c>
       <c r="D5" s="8">
         <f>B5-C5</f>
-        <v>-1.4599999999999724E-2</v>
+        <v>3.0399999999999761E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1004,20 +1079,20 @@
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>3.0510000000000002</v>
+        <v>2.8997000000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0884999999999998</v>
+        <v>2.9095</v>
       </c>
       <c r="D8" s="8">
         <f>B8-C8</f>
-        <v>-3.7499999999999645E-2</v>
+        <v>-9.7999999999998089E-3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>6.4371999999999998</v>
@@ -1048,20 +1123,20 @@
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>3.2210000000000001</v>
+        <v>3.1097000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>3.2385000000000002</v>
+        <v>3.1095000000000002</v>
       </c>
       <c r="D11" s="8">
         <f>B11-C11</f>
-        <v>-1.7500000000000071E-2</v>
+        <v>1.9999999999997797E-4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>6.4371999999999998</v>
@@ -1095,17 +1170,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>5.5410000000000004</v>
+        <v>5.4696999999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>5.5484999999999998</v>
+        <v>5.4794999999999998</v>
       </c>
       <c r="D14" s="8">
         <f>B14-C14</f>
-        <v>-7.499999999999396E-3</v>
+        <v>-9.800000000000253E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1">
         <v>6.4371999999999998</v>
@@ -1140,15 +1215,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>3.05</v>
+        <v>2.9901</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>3.0813000000000001</v>
+        <v>2.9901</v>
       </c>
       <c r="D17" s="8">
         <f>B17-C17</f>
-        <v>-3.1300000000000328E-2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1188,15 +1263,15 @@
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>2.9435000000000002</v>
+        <v>3.0467999999999997</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>2.9363999999999999</v>
+        <v>3.0869999999999997</v>
       </c>
       <c r="D20" s="8">
         <f>B20-C20</f>
-        <v>7.1000000000003283E-3</v>
+        <v>-4.0200000000000014E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1239,18 +1314,18 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>8.9370000000000012</v>
+        <v>9.0837000000000003</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>8.9541000000000004</v>
+        <v>9.1640999999999995</v>
       </c>
       <c r="D23" s="8">
         <f>B23-C23</f>
-        <v>-1.7099999999999227E-2</v>
+        <v>-8.0399999999999139E-2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1">
         <f>G18+G15</f>
@@ -1294,18 +1369,18 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>8.9370000000000012</v>
+        <v>9.0837000000000003</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>8.9541000000000004</v>
+        <v>9.1640999999999995</v>
       </c>
       <c r="D26" s="8">
         <f>B26-C26</f>
-        <v>-1.7099999999999227E-2</v>
+        <v>-8.0399999999999139E-2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1336,17 +1411,17 @@
         <v>17</v>
       </c>
       <c r="B29" s="9">
-        <v>7.1052</v>
+        <v>7.0427</v>
       </c>
       <c r="C29" s="9">
-        <v>7.0522</v>
+        <v>7.0692000000000004</v>
       </c>
       <c r="D29" s="8">
         <f>B29-C29</f>
-        <v>5.2999999999999936E-2</v>
+        <v>-2.6500000000000412E-2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1374,20 +1449,20 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9">
-        <v>2.0870000000000002</v>
+        <v>1.966</v>
       </c>
       <c r="C32" s="9">
-        <v>2.1040000000000001</v>
+        <v>1.9770000000000001</v>
       </c>
       <c r="D32" s="8">
         <f>B32-C32</f>
-        <v>-1.6999999999999904E-2</v>
+        <v>-1.1000000000000121E-2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1412,20 +1487,20 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B34" s="9">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C34" s="9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D34" s="8">
         <f>B34-C34</f>
         <v>-0.10000000000000009</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1453,20 +1528,20 @@
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B37" s="12">
-        <v>1.19513</v>
+        <v>1.4501299999999999</v>
       </c>
       <c r="C37" s="12">
-        <v>1.11575</v>
+        <v>1.37463</v>
       </c>
       <c r="D37" s="8">
         <f>B37-C37</f>
-        <v>7.9380000000000006E-2</v>
+        <v>7.5499999999999901E-2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1492,9 +1567,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B40" s="9">
         <v>0.1</v>
@@ -1507,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1533,30 +1608,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B43" s="9">
         <f>B37-B40</f>
-        <v>1.0951299999999999</v>
+        <v>1.3501299999999998</v>
       </c>
       <c r="C43" s="9">
         <f>C37-C40</f>
-        <v>1.0157499999999999</v>
+        <v>1.2746299999999999</v>
       </c>
       <c r="D43" s="8">
         <f>B43-C43</f>
-        <v>7.9380000000000006E-2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>7.5499999999999901E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44"/>
       <c r="D44" s="8"/>
-      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
@@ -1578,22 +1648,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="10">
-        <v>10944</v>
-      </c>
-      <c r="C46" s="10">
-        <v>10904</v>
+        <v>39</v>
+      </c>
+      <c r="B46" s="9">
+        <v>4.24</v>
+      </c>
+      <c r="C46" s="9">
+        <v>4.4800000000000004</v>
       </c>
       <c r="D46" s="8">
         <f>B46-C46</f>
-        <v>40</v>
+        <v>-0.24000000000000021</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1621,675 +1691,784 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="13">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="C49" s="11">
-        <v>-94.67</v>
+        <v>29</v>
+      </c>
+      <c r="B49" s="10">
+        <v>10770</v>
+      </c>
+      <c r="C49" s="10">
+        <v>10808</v>
       </c>
       <c r="D49" s="8">
         <f>B49-C49</f>
-        <v>128.69</v>
+        <v>-38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B50"/>
+      <c r="D50" s="8"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F52" s="4"/>
+    <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="13">
+        <v>47.28</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-1.69</v>
+      </c>
+      <c r="D52" s="8">
+        <f>B52-C52</f>
+        <v>48.97</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B54" s="5">
+    <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B57" s="5">
         <v>43833</v>
       </c>
-      <c r="C54" s="5">
-        <f>B54+7</f>
+      <c r="C57" s="5">
+        <f>B57+7</f>
         <v>43840</v>
       </c>
-      <c r="D54" s="5">
-        <f>C54+7</f>
+      <c r="D57" s="5">
+        <f>C57+7</f>
         <v>43847</v>
       </c>
-      <c r="E54" s="5">
-        <f>D54+6</f>
+      <c r="E57" s="5">
+        <f>D57+6</f>
         <v>43853</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F57" s="5">
         <v>43868</v>
       </c>
-      <c r="G54" s="5">
-        <f t="shared" ref="G54:O54" si="0">F54+7</f>
+      <c r="G57" s="5">
+        <f t="shared" ref="G57:O57" si="0">F57+7</f>
         <v>43875</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H57" s="5">
         <f t="shared" si="0"/>
         <v>43882</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I57" s="5">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J57" s="5">
         <f t="shared" si="0"/>
         <v>43896</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K57" s="5">
         <f t="shared" si="0"/>
         <v>43903</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L57" s="5">
         <f t="shared" si="0"/>
         <v>43910</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M57" s="5">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N57" s="5">
         <f t="shared" si="0"/>
         <v>43924</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O57" s="5">
         <f t="shared" si="0"/>
         <v>43931</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B58" s="1">
         <v>3.5865999999999998</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C58" s="1">
         <v>3.5295000000000001</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D58" s="1">
         <v>3.5299</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E58" s="1">
         <v>3.4127000000000001</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F58" s="1">
         <v>3.2218</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G58" s="1">
         <v>3.282</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H58" s="1">
         <v>3.2726999999999999</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I58" s="1">
         <v>3.1989000000000001</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J58" s="1">
         <v>3.1349999999999998</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K58" s="1">
         <v>3.06</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L58" s="1">
         <v>3.05</v>
       </c>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="M58" s="1">
+        <v>2.9901</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B60" s="1">
         <v>2.9662000000000002</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C60" s="1">
         <v>2.9502999999999999</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D60" s="1">
         <v>2.9798</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E60" s="1">
         <v>2.9759000000000002</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F60" s="1">
         <v>2.7452999999999999</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G60" s="1">
         <v>2.7046000000000001</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H60" s="1">
         <v>2.7544</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I60" s="1">
         <v>2.6768999999999998</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J60" s="1">
         <v>2.57</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K60" s="1">
         <v>2.6299000000000001</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L60" s="1">
         <v>2.5975000000000001</v>
       </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="M60" s="1">
+        <v>2.4228999999999998</v>
+      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B62" s="1">
         <v>5.8371000000000004</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C62" s="1">
         <v>5.7670000000000003</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D62" s="1">
         <v>5.7443</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E62" s="1">
         <v>5.7492000000000001</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F62" s="4">
         <v>5.6075999999999997</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G62" s="1">
         <v>5.5148000000000001</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H62" s="1">
         <v>5.4539</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I62" s="1">
         <v>5.4154</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J62" s="1">
         <v>5.3710000000000004</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K62" s="1">
         <v>5.4279999999999999</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L62" s="1">
         <v>5.5410000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="8">
-        <f t="shared" ref="B61:J61" si="1">B55+(B59-B57)*2</f>
+      <c r="M62" s="1">
+        <v>5.4696999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="8">
+        <f t="shared" ref="B64:I64" si="1">B58+(B62-B60)*2</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C64" s="8">
         <f t="shared" si="1"/>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="1"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E64" s="8">
         <f t="shared" si="1"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F64" s="8">
         <f t="shared" si="1"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G64" s="8">
         <f t="shared" si="1"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H64" s="8">
         <f t="shared" si="1"/>
         <v>8.6716999999999995</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I64" s="1">
         <f t="shared" si="1"/>
         <v>8.6759000000000004</v>
       </c>
-      <c r="J61" s="1">
-        <f>J55+(J59-J57)*2</f>
+      <c r="J64" s="1">
+        <f>J58+(J62-J60)*2</f>
         <v>8.7370000000000019</v>
       </c>
-      <c r="K61" s="1">
-        <f>K55+(K59-K57)*2</f>
+      <c r="K64" s="1">
+        <f>K58+(K62-K60)*2</f>
         <v>8.6562000000000001</v>
       </c>
-      <c r="L61" s="1">
-        <f>L55+(L59-L57)*2</f>
+      <c r="L64" s="1">
+        <f>L58+(L62-L60)*2</f>
         <v>8.9370000000000012</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="M64" s="1">
+        <f>M58+(M62-M60)*2</f>
+        <v>9.0837000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="7">
-        <f>B61</f>
+      <c r="B66" s="7">
+        <f>B64</f>
         <v>9.3284000000000002</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" ref="C63:J63" si="2">C61</f>
+      <c r="C66" s="2">
+        <f t="shared" ref="C66:J66" si="2">C64</f>
         <v>9.1629000000000005</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D66" s="2">
         <f t="shared" si="2"/>
         <v>9.0588999999999995</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E66" s="2">
         <f t="shared" si="2"/>
         <v>8.9592999999999989</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F66" s="2">
         <f t="shared" si="2"/>
         <v>8.9464000000000006</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G66" s="2">
         <f t="shared" si="2"/>
         <v>8.9024000000000001</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H66" s="2">
         <f t="shared" si="2"/>
         <v>8.6716999999999995</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I66" s="2">
         <f t="shared" si="2"/>
         <v>8.6759000000000004</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J66" s="2">
         <f t="shared" si="2"/>
         <v>8.7370000000000019</v>
       </c>
-      <c r="K63" s="2">
-        <f>K61</f>
+      <c r="K66" s="2">
+        <f>K64</f>
         <v>8.6562000000000001</v>
       </c>
-      <c r="L63" s="1">
-        <f>L61</f>
+      <c r="L66" s="2">
+        <f>L64</f>
         <v>8.9370000000000012</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+      <c r="M66" s="2">
+        <f>M64</f>
+        <v>9.0837000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="J68" s="1">
+        <v>2.258</v>
+      </c>
+      <c r="K68" s="1">
+        <v>2.202</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2.8679999999999999</v>
-      </c>
-      <c r="E65" s="1">
-        <v>2.8580000000000001</v>
-      </c>
-      <c r="F65" s="4">
-        <v>2.7530000000000001</v>
-      </c>
-      <c r="G65" s="1">
-        <v>2.5649999999999999</v>
-      </c>
-      <c r="H65" s="1">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="I65" s="1">
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="J65" s="1">
-        <v>2.258</v>
-      </c>
-      <c r="K65" s="1">
-        <v>2.202</v>
-      </c>
-      <c r="L65" s="1">
-        <v>2.0870000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+      <c r="B70" s="1">
+        <v>2.2313000000000001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="1">
-        <v>2.2313000000000001</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2.62</v>
-      </c>
-      <c r="E67" s="1">
-        <v>2.54</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="G67" s="1">
-        <v>2</v>
-      </c>
-      <c r="H67" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="I67" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="J67" s="1">
+      <c r="B72" s="1">
+        <v>10262</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10457</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10538</v>
+      </c>
+      <c r="E72" s="1">
+        <v>10370</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10359</v>
+      </c>
+      <c r="G72" s="1">
+        <v>10510</v>
+      </c>
+      <c r="H72" s="1">
+        <v>10975</v>
+      </c>
+      <c r="I72" s="1">
+        <v>11023</v>
+      </c>
+      <c r="J72" s="1">
+        <v>11271</v>
+      </c>
+      <c r="K72" s="1">
+        <v>11152</v>
+      </c>
+      <c r="L72" s="1">
+        <v>10944</v>
+      </c>
+      <c r="M72" s="1">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1">
+        <v>46</v>
+      </c>
+      <c r="C74" s="1">
+        <v>49.42</v>
+      </c>
+      <c r="D74" s="1">
+        <v>55.68</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-94.31</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-6.03</v>
+      </c>
+      <c r="G74" s="1">
+        <v>70.08</v>
+      </c>
+      <c r="H74" s="1">
+        <v>18.54</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-24.26</v>
+      </c>
+      <c r="J74" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="K74" s="1">
+        <v>-131.41999999999999</v>
+      </c>
+      <c r="L74" s="1">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="M74" s="1">
+        <v>47.28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.15">
+      <c r="A76" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="D76" s="1">
         <v>1.82</v>
       </c>
-      <c r="K67" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="L67" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="1">
-        <v>10262</v>
-      </c>
-      <c r="C69" s="1">
-        <v>10457</v>
-      </c>
-      <c r="D69" s="1">
-        <v>10538</v>
-      </c>
-      <c r="E69" s="1">
-        <v>10370</v>
-      </c>
-      <c r="F69" s="1">
-        <v>10359</v>
-      </c>
-      <c r="G69" s="1">
-        <v>10510</v>
-      </c>
-      <c r="H69" s="1">
-        <v>10975</v>
-      </c>
-      <c r="I69" s="1">
-        <v>11023</v>
-      </c>
-      <c r="J69" s="1">
-        <v>11271</v>
-      </c>
-      <c r="K69" s="1">
-        <v>11152</v>
-      </c>
-      <c r="L69" s="1">
-        <v>10944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="1">
-        <v>46</v>
-      </c>
-      <c r="C71" s="1">
-        <v>49.42</v>
-      </c>
-      <c r="D71" s="1">
-        <v>55.68</v>
-      </c>
-      <c r="E71" s="1">
-        <v>-94.31</v>
-      </c>
-      <c r="F71" s="1">
-        <v>-6.03</v>
-      </c>
-      <c r="G71" s="1">
-        <v>70.08</v>
-      </c>
-      <c r="H71" s="1">
-        <v>18.54</v>
-      </c>
-      <c r="I71" s="1">
-        <v>-24.26</v>
-      </c>
-      <c r="J71" s="1">
-        <v>-7.58</v>
-      </c>
-      <c r="K71" s="1">
-        <v>-131.41999999999999</v>
-      </c>
-      <c r="L71" s="1">
-        <v>34.020000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="E76" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0.84313000000000005</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1.2041299999999999</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1.4501299999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="1">
-        <v>1.87</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="F73" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="I73" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="K73" s="1">
-        <v>0.84313000000000005</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0.84313000000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="B78" s="1">
         <v>1.55</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C78" s="1">
         <v>1.55</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D78" s="1">
         <v>1.55</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E78" s="1">
         <v>1.55</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F78" s="1">
         <v>1.6</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G78" s="1">
         <v>1.6</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H78" s="1">
         <v>1.6</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I78" s="1">
         <v>1.6</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J78" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K78" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L75" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="1">
-        <f>B73-B75</f>
+      <c r="L78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="1">
+        <f>B76-B78</f>
         <v>0.32000000000000006</v>
       </c>
-      <c r="C77" s="1">
-        <f t="shared" ref="C77:K77" si="3">C73-C75</f>
+      <c r="C80" s="1">
+        <f t="shared" ref="C80:K80" si="3">C76-C78</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D80" s="1">
         <f t="shared" si="3"/>
         <v>0.27</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E80" s="1">
         <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F80" s="1">
         <f t="shared" si="3"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G80" s="1">
         <f t="shared" si="3"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H80" s="1">
         <f t="shared" si="3"/>
         <v>7.9999999999999849E-2</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I80" s="1">
         <f t="shared" si="3"/>
         <v>-0.14000000000000012</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J80" s="1">
         <f t="shared" si="3"/>
         <v>-0.20400000000000007</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K80" s="1">
         <f t="shared" si="3"/>
         <v>-0.25687000000000004</v>
       </c>
-      <c r="L77" s="1">
-        <f t="shared" ref="L77" si="4">L73-L75</f>
-        <v>-0.25687000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="L80" s="1">
+        <f t="shared" ref="L80:M82" si="4">L76-L78</f>
+        <v>1.1041299999999998</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3501299999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="L82" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M82" s="1">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.15">
@@ -2681,6 +2860,15 @@
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F229" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="460" windowWidth="13620" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="15180" yWindow="480" windowWidth="13620" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -199,22 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司债券风险溢价（公司债信用利差）</t>
-    <rPh sb="0" eb="1">
-      <t>gong si zhai quan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>feng xian yi jia</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gong si zhai</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xin yong li cha</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创业板贴现率</t>
     <rPh sb="0" eb="1">
       <t>chuang ye ban</t>
@@ -547,6 +531,22 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>zhi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA-公司债券风险溢价（公司债信用利差）</t>
+    <rPh sb="3" eb="4">
+      <t>gong si zhai quan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>feng xian yi jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong si zhai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin yong li cha</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,14 +601,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF009900"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
@@ -646,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,7 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -954,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -994,14 +985,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="6">
-        <v>2.9901</v>
+        <v>2.9201000000000001</v>
       </c>
       <c r="C2" s="6">
-        <v>2.9901</v>
+        <v>2.9476</v>
       </c>
       <c r="D2" s="8">
         <f>B2-C2</f>
-        <v>0</v>
+        <v>-2.7499999999999858E-2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1038,14 +1029,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>2.4228999999999998</v>
+        <v>2.2753000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.3925000000000001</v>
+        <v>2.3193000000000001</v>
       </c>
       <c r="D5" s="8">
         <f>B5-C5</f>
-        <v>3.0399999999999761E-2</v>
+        <v>-4.4000000000000039E-2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1079,20 +1070,20 @@
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>2.8997000000000002</v>
+        <v>2.8774000000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>2.9095</v>
+        <v>2.9028</v>
       </c>
       <c r="D8" s="8">
         <f>B8-C8</f>
-        <v>-9.7999999999998089E-3</v>
+        <v>-2.5399999999999867E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>6.4371999999999998</v>
@@ -1123,20 +1114,20 @@
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>3.1097000000000001</v>
+        <v>3.0973999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>3.1095000000000002</v>
+        <v>3.1128</v>
       </c>
       <c r="D11" s="8">
         <f>B11-C11</f>
-        <v>1.9999999999997797E-4</v>
+        <v>-1.540000000000008E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>6.4371999999999998</v>
@@ -1170,17 +1161,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>5.4696999999999996</v>
+        <v>5.4874000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>5.4794999999999998</v>
+        <v>5.4828000000000001</v>
       </c>
       <c r="D14" s="8">
         <f>B14-C14</f>
-        <v>-9.800000000000253E-3</v>
+        <v>4.5999999999999375E-3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
         <v>6.4371999999999998</v>
@@ -1215,15 +1206,15 @@
       </c>
       <c r="B17" s="1">
         <f>B2</f>
-        <v>2.9901</v>
+        <v>2.9201000000000001</v>
       </c>
       <c r="C17" s="1">
         <f>C2</f>
-        <v>2.9901</v>
+        <v>2.9476</v>
       </c>
       <c r="D17" s="8">
         <f>B17-C17</f>
-        <v>0</v>
+        <v>-2.7499999999999858E-2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -1259,19 +1250,19 @@
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <f>B14-B5</f>
-        <v>3.0467999999999997</v>
+        <v>3.2121</v>
       </c>
       <c r="C20" s="1">
         <f>C14-C5</f>
-        <v>3.0869999999999997</v>
+        <v>3.1635</v>
       </c>
       <c r="D20" s="8">
         <f>B20-C20</f>
-        <v>-4.0200000000000014E-2</v>
+        <v>4.8599999999999977E-2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1314,18 +1305,18 @@
       </c>
       <c r="B23" s="1">
         <f>B17+B20*2</f>
-        <v>9.0837000000000003</v>
+        <v>9.3443000000000005</v>
       </c>
       <c r="C23" s="1">
         <f>C17+C20*2</f>
-        <v>9.1640999999999995</v>
+        <v>9.2745999999999995</v>
       </c>
       <c r="D23" s="8">
         <f>B23-C23</f>
-        <v>-8.0399999999999139E-2</v>
+        <v>6.9700000000000983E-2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1">
         <f>G18+G15</f>
@@ -1369,18 +1360,18 @@
       </c>
       <c r="B26" s="1">
         <f>B23</f>
-        <v>9.0837000000000003</v>
+        <v>9.3443000000000005</v>
       </c>
       <c r="C26" s="1">
         <f>C23</f>
-        <v>9.1640999999999995</v>
+        <v>9.2745999999999995</v>
       </c>
       <c r="D26" s="8">
         <f>B26-C26</f>
-        <v>-8.0399999999999139E-2</v>
+        <v>6.9700000000000983E-2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1408,20 +1399,20 @@
     </row>
     <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="9">
-        <v>7.0427</v>
+        <v>7.0770999999999997</v>
       </c>
       <c r="C29" s="9">
-        <v>7.0692000000000004</v>
+        <v>7.0850999999999997</v>
       </c>
       <c r="D29" s="8">
         <f>B29-C29</f>
-        <v>-2.6500000000000412E-2</v>
+        <v>-8.0000000000000071E-3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1449,20 +1440,20 @@
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="9">
-        <v>1.966</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="C32" s="9">
-        <v>1.9770000000000001</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="D32" s="8">
         <f>B32-C32</f>
-        <v>-1.1000000000000121E-2</v>
+        <v>-1.5000000000000124E-2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -1487,20 +1478,20 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="C34" s="9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <f>B34-C34</f>
-        <v>-0.10000000000000009</v>
+        <v>-0.12000000000000011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1528,20 +1519,20 @@
     </row>
     <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="12">
-        <v>1.4501299999999999</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1.37463</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.4504999999999999</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.4333800000000001</v>
       </c>
       <c r="D37" s="8">
         <f>B37-C37</f>
-        <v>7.5499999999999901E-2</v>
+        <v>1.7119999999999802E-2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1569,7 +1560,7 @@
     </row>
     <row r="40" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="9">
         <v>0.1</v>
@@ -1582,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1610,19 +1601,19 @@
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9">
         <f>B37-B40</f>
-        <v>1.3501299999999998</v>
+        <v>1.3504999999999998</v>
       </c>
       <c r="C43" s="9">
         <f>C37-C40</f>
-        <v>1.2746299999999999</v>
+        <v>1.33338</v>
       </c>
       <c r="D43" s="8">
         <f>B43-C43</f>
-        <v>7.5499999999999901E-2</v>
+        <v>1.7119999999999802E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1650,20 +1641,20 @@
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="9">
-        <v>4.24</v>
+        <v>3.96</v>
       </c>
       <c r="C46" s="9">
-        <v>4.4800000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="D46" s="8">
         <f>B46-C46</f>
-        <v>-0.24000000000000021</v>
+        <v>-8.9999999999999858E-2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1693,20 +1684,20 @@
     </row>
     <row r="49" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" s="10">
-        <v>10770</v>
+        <v>10651</v>
       </c>
       <c r="C49" s="10">
-        <v>10808</v>
+        <v>10673</v>
       </c>
       <c r="D49" s="8">
         <f>B49-C49</f>
-        <v>-38</v>
+        <v>-22</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -1736,20 +1727,20 @@
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="13">
-        <v>47.28</v>
-      </c>
-      <c r="C52" s="11">
-        <v>-1.69</v>
+        <v>30</v>
+      </c>
+      <c r="B52" s="12">
+        <v>54.53</v>
+      </c>
+      <c r="C52" s="12">
+        <v>30.66</v>
       </c>
       <c r="D52" s="8">
         <f>B52-C52</f>
-        <v>48.97</v>
+        <v>23.87</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
@@ -1958,7 +1949,7 @@
     </row>
     <row r="64" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="8">
         <f t="shared" ref="B64:I64" si="1">B58+(B62-B60)*2</f>
@@ -2014,7 +2005,7 @@
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="7">
         <f>B64</f>
@@ -2070,7 +2061,7 @@
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68" s="1">
         <v>2.96</v>
@@ -2114,7 +2105,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1">
         <v>2.2313000000000001</v>
@@ -2158,7 +2149,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1">
         <v>10262</v>
@@ -2202,7 +2193,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="1">
         <v>46</v>
@@ -2246,7 +2237,7 @@
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="1">
         <v>1.87</v>
@@ -2290,7 +2281,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="1">
         <v>1.55</v>
@@ -2334,7 +2325,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="1">
         <f>B76-B78</f>
@@ -2377,7 +2368,7 @@
         <v>-0.25687000000000004</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" ref="L80:M82" si="4">L76-L78</f>
+        <f t="shared" ref="L80:M80" si="4">L76-L78</f>
         <v>1.1041299999999998</v>
       </c>
       <c r="M80" s="1">
@@ -2390,7 +2381,7 @@
     </row>
     <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1">
         <v>1.32</v>
@@ -2426,7 +2417,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="M82" s="1">
-        <v>4.24</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="361">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -3038,6 +3038,27 @@
     <t>年度涨幅%</t>
     <rPh sb="0" eb="1">
       <t>nian du zhang fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款</t>
+    <rPh sb="0" eb="1">
+      <t>yin hang cun kuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <rPh sb="0" eb="1">
+      <t>zhai quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <rPh sb="0" eb="1">
+      <t>gu p</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3257,7 +3278,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3465,14 +3486,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3483,10 +3505,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3504,7 +3532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -3784,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB302"/>
+  <dimension ref="A1:AH308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3799,21 +3826,26 @@
     <col min="6" max="6" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10.83203125" style="1"/>
+    <col min="16" max="18" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="10.83203125" style="1"/>
     <col min="23" max="25" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -3837,14 +3869,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>3.13</v>
+        <v>3.4201999999999999</v>
       </c>
       <c r="C3" s="6">
-        <v>3.1225000000000001</v>
+        <v>3.4352</v>
       </c>
       <c r="D3" s="8">
         <f>B3-C3</f>
-        <v>7.4999999999998401E-3</v>
+        <v>-1.5000000000000124E-2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>301</v>
@@ -3871,14 +3903,14 @@
         <v>259</v>
       </c>
       <c r="B6" s="6">
-        <v>2.9752000000000001</v>
+        <v>3.2702</v>
       </c>
       <c r="C6" s="6">
-        <v>2.9603000000000002</v>
+        <v>3.34</v>
       </c>
       <c r="D6" s="8">
         <f>B6-C6</f>
-        <v>1.4899999999999913E-2</v>
+        <v>-6.9799999999999862E-2</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>301</v>
@@ -3904,14 +3936,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>2.7408000000000001</v>
+        <v>3.0404</v>
       </c>
       <c r="C9" s="6">
-        <v>2.7774999999999999</v>
+        <v>3.1261000000000001</v>
       </c>
       <c r="D9" s="8">
         <f>B9-C9</f>
-        <v>-3.6699999999999733E-2</v>
+        <v>-8.5700000000000109E-2</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>301</v>
@@ -3938,14 +3970,14 @@
         <v>239</v>
       </c>
       <c r="B12" s="6">
-        <v>2.2368999999999999</v>
+        <v>2.5748000000000002</v>
       </c>
       <c r="C12" s="6">
-        <v>2.1974</v>
+        <v>2.5937000000000001</v>
       </c>
       <c r="D12" s="8">
         <f>B12-C12</f>
-        <v>3.9499999999999869E-2</v>
+        <v>-1.8899999999999917E-2</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>301</v>
@@ -3973,14 +4005,14 @@
         <v>240</v>
       </c>
       <c r="B15" s="6">
-        <v>1.8160000000000001</v>
+        <v>2.2338</v>
       </c>
       <c r="C15" s="6">
-        <v>1.8763000000000001</v>
+        <v>2.2732000000000001</v>
       </c>
       <c r="D15" s="8">
         <f>B15-C15</f>
-        <v>-6.030000000000002E-2</v>
+        <v>-3.9400000000000102E-2</v>
       </c>
       <c r="E15" s="69" t="s">
         <v>301</v>
@@ -4009,15 +4041,15 @@
       </c>
       <c r="B18" s="6">
         <f>B12-B15</f>
-        <v>0.42089999999999983</v>
+        <v>0.34100000000000019</v>
       </c>
       <c r="C18" s="6">
         <f>C12-C15</f>
-        <v>0.32109999999999994</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="D18" s="8">
         <f>B18-C18</f>
-        <v>9.9799999999999889E-2</v>
+        <v>2.0500000000000185E-2</v>
       </c>
       <c r="E18" s="57" t="s">
         <v>258</v>
@@ -4046,15 +4078,15 @@
       </c>
       <c r="B21" s="6">
         <f>B3-B15</f>
-        <v>1.3139999999999998</v>
+        <v>1.1863999999999999</v>
       </c>
       <c r="C21" s="6">
         <f>C3-C15</f>
-        <v>1.2462</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="D21" s="8">
         <f>B21-C21</f>
-        <v>6.779999999999986E-2</v>
+        <v>2.4399999999999977E-2</v>
       </c>
       <c r="E21" s="57" t="s">
         <v>245</v>
@@ -4082,14 +4114,14 @@
         <v>350</v>
       </c>
       <c r="B24" s="6">
-        <v>119.99809999999999</v>
+        <v>119.1082</v>
       </c>
       <c r="C24" s="6">
-        <v>119.9196</v>
+        <v>119.0291</v>
       </c>
       <c r="D24" s="8">
         <f>B24-C24</f>
-        <v>7.8499999999991132E-2</v>
+        <v>7.909999999999684E-2</v>
       </c>
       <c r="E24" s="76" t="s">
         <v>301</v>
@@ -4117,14 +4149,14 @@
         <v>351</v>
       </c>
       <c r="B27" s="6">
-        <v>94.865399999999994</v>
+        <v>94.3643</v>
       </c>
       <c r="C27" s="6">
-        <v>94.856200000000001</v>
+        <v>94.299800000000005</v>
       </c>
       <c r="D27" s="8">
         <f>B27-C27</f>
-        <v>9.1999999999927695E-3</v>
+        <v>6.4499999999995339E-2</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>301</v>
@@ -4150,14 +4182,14 @@
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>5.9112</v>
-      </c>
-      <c r="C30" s="76">
-        <v>5.9128999999999996</v>
+        <v>6.2861000000000002</v>
+      </c>
+      <c r="C30" s="77">
+        <v>6.3384999999999998</v>
       </c>
       <c r="D30" s="8">
         <f>B30-C30</f>
-        <v>-1.6999999999995907E-3</v>
+        <v>-5.2399999999999558E-2</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
@@ -4182,14 +4214,14 @@
         <v>308</v>
       </c>
       <c r="B33" s="68">
-        <v>1.012</v>
+        <v>1.9564999999999999</v>
       </c>
       <c r="C33" s="68">
-        <v>1.0960000000000001</v>
+        <v>2.2465000000000002</v>
       </c>
       <c r="D33" s="8">
         <f>B33-C33</f>
-        <v>-8.4000000000000075E-2</v>
+        <v>-0.29000000000000026</v>
       </c>
       <c r="E33" s="74" t="s">
         <v>310</v>
@@ -4201,14 +4233,14 @@
         <v>307</v>
       </c>
       <c r="B34" s="68">
-        <v>2.1269999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="C34" s="68">
-        <v>2.129</v>
+        <v>2.286</v>
       </c>
       <c r="D34" s="8">
         <f>B34-C34</f>
-        <v>-2.0000000000002238E-3</v>
+        <v>0.11799999999999988</v>
       </c>
       <c r="E34" s="74" t="s">
         <v>15</v>
@@ -4236,14 +4268,14 @@
         <v>305</v>
       </c>
       <c r="B37" s="9">
-        <v>5.5</v>
+        <v>1.66</v>
       </c>
       <c r="C37" s="9">
-        <v>3.35</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="D37" s="8">
         <f>B37-C37</f>
-        <v>2.15</v>
+        <v>-0.45500000000000029</v>
       </c>
       <c r="E37" s="74" t="s">
         <v>311</v>
@@ -4255,14 +4287,14 @@
         <v>309</v>
       </c>
       <c r="B38" s="68">
-        <v>10490</v>
+        <v>8443</v>
       </c>
       <c r="C38" s="68">
-        <v>8806</v>
+        <v>8481</v>
       </c>
       <c r="D38" s="8">
-        <f>10490</f>
-        <v>10490</v>
+        <f>8443</f>
+        <v>8443</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -4271,14 +4303,14 @@
         <v>304</v>
       </c>
       <c r="B39" s="9">
-        <v>1.0106999999999999</v>
+        <v>1.9340999999999999</v>
       </c>
       <c r="C39" s="9">
-        <v>1.05</v>
+        <v>2.2806000000000002</v>
       </c>
       <c r="D39" s="8">
         <f>B39-C39</f>
-        <v>-3.9300000000000113E-2</v>
+        <v>-0.34650000000000025</v>
       </c>
       <c r="E39" s="74" t="s">
         <v>8</v>
@@ -4290,14 +4322,14 @@
         <v>309</v>
       </c>
       <c r="B40" s="68">
-        <v>15480</v>
+        <v>17813</v>
       </c>
       <c r="C40" s="68">
-        <v>13301</v>
+        <v>14744</v>
       </c>
       <c r="D40" s="8">
-        <f>13301+15480</f>
-        <v>28781</v>
+        <f>17813</f>
+        <v>17813</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -4307,15 +4339,15 @@
       </c>
       <c r="B41" s="68">
         <f>B38+B40</f>
-        <v>25970</v>
+        <v>26256</v>
       </c>
       <c r="C41" s="68">
         <f>C38+C40</f>
-        <v>22107</v>
+        <v>23225</v>
       </c>
       <c r="D41" s="8">
         <f>D38+D40</f>
-        <v>39271</v>
+        <v>26256</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -4340,14 +4372,14 @@
         <v>306</v>
       </c>
       <c r="B44" s="9">
-        <v>3.5049999999999999</v>
+        <v>2.085</v>
       </c>
       <c r="C44" s="9">
-        <v>3.72</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D44" s="8">
         <f>B44-C44</f>
-        <v>-0.2150000000000003</v>
+        <v>-0.15500000000000025</v>
       </c>
       <c r="E44" s="74" t="s">
         <v>8</v>
@@ -4359,14 +4391,14 @@
         <v>309</v>
       </c>
       <c r="B45" s="68">
-        <v>2513</v>
+        <v>1849</v>
       </c>
       <c r="C45" s="68">
-        <v>1568</v>
+        <v>1090</v>
       </c>
       <c r="D45" s="8">
-        <f>2513</f>
-        <v>2513</v>
+        <f>1849</f>
+        <v>1849</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -4375,14 +4407,14 @@
         <v>303</v>
       </c>
       <c r="B46" s="9">
-        <v>2.1840000000000002</v>
+        <v>2.1522999999999999</v>
       </c>
       <c r="C46" s="9">
-        <v>2.0699999999999998</v>
+        <v>2.2606999999999999</v>
       </c>
       <c r="D46" s="8">
         <f>B46-C46</f>
-        <v>0.11400000000000032</v>
+        <v>-0.10840000000000005</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -4393,14 +4425,14 @@
         <v>309</v>
       </c>
       <c r="B47" s="68">
-        <v>1160</v>
+        <v>778</v>
       </c>
       <c r="C47" s="68">
-        <v>1114</v>
+        <v>1233</v>
       </c>
       <c r="D47" s="8">
-        <f>1114+1160</f>
-        <v>2274</v>
+        <f>778</f>
+        <v>778</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -4410,23 +4442,23 @@
       </c>
       <c r="B48" s="68">
         <f>B45+B47</f>
-        <v>3673</v>
+        <v>2627</v>
       </c>
       <c r="C48" s="68">
         <f>C45+C47</f>
-        <v>2682</v>
+        <v>2323</v>
       </c>
       <c r="D48" s="8">
         <f>D45+D47</f>
-        <v>4787</v>
+        <v>2627</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D49" s="8"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:28" s="57" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" s="57" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="57" t="s">
         <v>0</v>
       </c>
@@ -4438,31 +4470,31 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:28" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B51" s="9">
-        <v>2.3839000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="C51" s="9">
-        <v>2.3803999999999998</v>
+        <v>2.6404999999999998</v>
       </c>
       <c r="D51" s="8">
         <f>B51-C51</f>
-        <v>3.5000000000002807E-3</v>
+        <v>8.9500000000000135E-2</v>
       </c>
       <c r="E51" s="57" t="s">
         <v>247</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B52"/>
       <c r="D52" s="8"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -4473,30 +4505,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" ht="30" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="92">
-        <v>11416</v>
-      </c>
-      <c r="C54" s="92">
-        <v>11468</v>
+      <c r="B54" s="79">
+        <v>13888</v>
+      </c>
+      <c r="C54" s="79">
+        <v>13888</v>
       </c>
       <c r="D54" s="8">
         <f>B54-C54</f>
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B55"/>
       <c r="D55" s="8"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>216</v>
       </c>
@@ -4507,27 +4539,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34" ht="30" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="10">
-        <f>2.76</f>
-        <v>2.76</v>
+        <f>33.01+-54.37+4.55+-150.17+96.57</f>
+        <v>-70.41</v>
       </c>
       <c r="C57" s="10">
-        <f>38+32.95+37.9</f>
-        <v>108.85</v>
+        <f>33.01+-54.37+4.55+-150.17+96.57</f>
+        <v>-70.41</v>
       </c>
       <c r="D57" s="8">
         <f>B57-C57</f>
-        <v>-106.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="69" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4535,17 +4567,17 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A59" s="79" t="s">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A59" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:34" ht="19" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>43833</v>
       </c>
@@ -4641,14 +4673,28 @@
         <v>44001</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" ref="Z60" si="3">Y60+7</f>
+        <f t="shared" ref="Z60:AC60" si="3">Y60+7</f>
         <v>44008</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AA60" s="5">
+        <f t="shared" si="3"/>
+        <v>44015</v>
+      </c>
+      <c r="AB60" s="5">
+        <f t="shared" si="3"/>
+        <v>44022</v>
+      </c>
+      <c r="AC60" s="5">
+        <f t="shared" si="3"/>
+        <v>44029</v>
+      </c>
+      <c r="AD60" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" ht="30" x14ac:dyDescent="0.3">
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+    </row>
+    <row r="61" spans="1:34" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -4727,17 +4773,33 @@
       <c r="Z61" s="76">
         <v>3.14</v>
       </c>
-      <c r="AA61" s="75"/>
-      <c r="AB61" s="6"/>
-    </row>
-    <row r="62" spans="1:28" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA61" s="77">
+        <v>3.1701000000000001</v>
+      </c>
+      <c r="AB61" s="77">
+        <v>3.4251</v>
+      </c>
+      <c r="AC61" s="77">
+        <v>3.4352</v>
+      </c>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="77"/>
+    </row>
+    <row r="62" spans="1:34" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="V62" s="69"/>
       <c r="W62" s="74"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
-    </row>
-    <row r="63" spans="1:28" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA62" s="77"/>
+      <c r="AB62" s="77"/>
+      <c r="AC62" s="77"/>
+      <c r="AG62" s="77"/>
+      <c r="AH62" s="77"/>
+    </row>
+    <row r="63" spans="1:34" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>259</v>
       </c>
@@ -4816,9 +4878,20 @@
       <c r="Z63" s="76">
         <v>3.0049999999999999</v>
       </c>
-      <c r="AA63" s="75"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA63" s="77">
+        <v>2.9908000000000001</v>
+      </c>
+      <c r="AB63" s="77">
+        <v>3.3561999999999999</v>
+      </c>
+      <c r="AC63" s="77">
+        <v>3.34</v>
+      </c>
+      <c r="AD63" s="75"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="6"/>
+    </row>
+    <row r="64" spans="1:34" ht="19" x14ac:dyDescent="0.3">
       <c r="F64" s="1"/>
       <c r="S64" s="57"/>
       <c r="T64" s="57"/>
@@ -4828,9 +4901,14 @@
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
-      <c r="AB64" s="66"/>
-    </row>
-    <row r="65" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA64" s="77"/>
+      <c r="AB64" s="77"/>
+      <c r="AC64" s="77"/>
+      <c r="AE64" s="66"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="77"/>
+    </row>
+    <row r="65" spans="1:34" ht="30" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -4909,19 +4987,35 @@
       <c r="Z65" s="76">
         <v>2.7616000000000001</v>
       </c>
-      <c r="AA65" s="75"/>
-      <c r="AB65" s="66"/>
-    </row>
-    <row r="66" spans="1:28" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AA65" s="77">
+        <v>2.7511000000000001</v>
+      </c>
+      <c r="AB65" s="77">
+        <v>3.1459000000000001</v>
+      </c>
+      <c r="AC65" s="77">
+        <v>3.1261000000000001</v>
+      </c>
+      <c r="AD65" s="75"/>
+      <c r="AE65" s="66"/>
+      <c r="AG65" s="77"/>
+      <c r="AH65" s="77"/>
+    </row>
+    <row r="66" spans="1:34" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U66" s="66"/>
       <c r="V66" s="69"/>
       <c r="W66" s="74"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
-      <c r="AB66" s="6"/>
-    </row>
-    <row r="67" spans="1:28" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA66" s="77"/>
+      <c r="AB66" s="77"/>
+      <c r="AC66" s="77"/>
+      <c r="AE66" s="6"/>
+      <c r="AG66" s="77"/>
+      <c r="AH66" s="6"/>
+    </row>
+    <row r="67" spans="1:34" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>239</v>
       </c>
@@ -5000,19 +5094,35 @@
       <c r="Z67" s="76">
         <v>2.2938000000000001</v>
       </c>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="66"/>
-    </row>
-    <row r="68" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA67" s="77">
+        <v>2.1924000000000001</v>
+      </c>
+      <c r="AB67" s="77">
+        <v>2.5554000000000001</v>
+      </c>
+      <c r="AC67" s="77">
+        <v>2.5937000000000001</v>
+      </c>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="66"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="77"/>
+    </row>
+    <row r="68" spans="1:34" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U68" s="66"/>
       <c r="V68" s="69"/>
       <c r="W68" s="74"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
-      <c r="AB68" s="66"/>
-    </row>
-    <row r="69" spans="1:28" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="AA68" s="77"/>
+      <c r="AB68" s="77"/>
+      <c r="AC68" s="77"/>
+      <c r="AE68" s="66"/>
+      <c r="AG68" s="77"/>
+      <c r="AH68" s="77"/>
+    </row>
+    <row r="69" spans="1:34" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>240</v>
       </c>
@@ -5091,19 +5201,35 @@
       <c r="Z69" s="76">
         <v>1.8911</v>
       </c>
-      <c r="AA69" s="75"/>
-      <c r="AB69" s="6"/>
-    </row>
-    <row r="70" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA69" s="77">
+        <v>1.7061999999999999</v>
+      </c>
+      <c r="AB69" s="77">
+        <v>2.1255999999999999</v>
+      </c>
+      <c r="AC69" s="77">
+        <v>2.2732000000000001</v>
+      </c>
+      <c r="AD69" s="75"/>
+      <c r="AE69" s="6"/>
+      <c r="AG69" s="77"/>
+      <c r="AH69" s="6"/>
+    </row>
+    <row r="70" spans="1:34" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U70" s="66"/>
       <c r="V70" s="69"/>
       <c r="W70" s="74"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
-      <c r="AB70" s="66"/>
-    </row>
-    <row r="71" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA70" s="77"/>
+      <c r="AB70" s="77"/>
+      <c r="AC70" s="77"/>
+      <c r="AE70" s="66"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="77"/>
+    </row>
+    <row r="71" spans="1:34" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>242</v>
       </c>
@@ -5207,18 +5333,37 @@
         <f t="shared" si="7"/>
         <v>0.40270000000000006</v>
       </c>
-      <c r="AB71" s="66"/>
-    </row>
-    <row r="72" spans="1:28" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AA71" s="77">
+        <f t="shared" ref="AA71:AB71" si="8">AA67-AA69</f>
+        <v>0.48620000000000019</v>
+      </c>
+      <c r="AB71" s="77">
+        <f t="shared" si="8"/>
+        <v>0.42980000000000018</v>
+      </c>
+      <c r="AC71" s="77">
+        <f t="shared" ref="AC71" si="9">AC67-AC69</f>
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="AE71" s="66"/>
+      <c r="AG71" s="77"/>
+      <c r="AH71" s="77"/>
+    </row>
+    <row r="72" spans="1:34" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U72" s="66"/>
       <c r="V72" s="69"/>
       <c r="W72" s="74"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
-      <c r="AB72" s="6"/>
-    </row>
-    <row r="73" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA72" s="77"/>
+      <c r="AB72" s="77"/>
+      <c r="AC72" s="77"/>
+      <c r="AE72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+    </row>
+    <row r="73" spans="1:34" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>243</v>
       </c>
@@ -5231,103 +5376,120 @@
         <v>1.4555000000000002</v>
       </c>
       <c r="D73" s="57">
-        <f t="shared" ref="D73:S73" si="8">D61-D69</f>
+        <f t="shared" ref="D73:S73" si="10">D61-D69</f>
         <v>1.4091</v>
       </c>
       <c r="E73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3753000000000002</v>
       </c>
       <c r="F73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5334000000000001</v>
       </c>
       <c r="G73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5715000000000001</v>
       </c>
       <c r="H73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3771</v>
       </c>
       <c r="I73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2644</v>
       </c>
       <c r="J73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2894999999999999</v>
       </c>
       <c r="K73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3159000000000001</v>
       </c>
       <c r="L73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4547999999999999</v>
       </c>
       <c r="M73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4555</v>
       </c>
       <c r="N73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5447</v>
       </c>
       <c r="O73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6721999999999999</v>
       </c>
       <c r="P73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8176999999999999</v>
       </c>
       <c r="Q73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8538000000000001</v>
       </c>
       <c r="R73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8397999999999999</v>
       </c>
       <c r="S73" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9512</v>
       </c>
       <c r="T73" s="57">
-        <f t="shared" ref="T73:U73" si="9">T61-T69</f>
+        <f t="shared" ref="T73:U73" si="11">T61-T69</f>
         <v>1.8478000000000001</v>
       </c>
       <c r="U73" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6620999999999999</v>
       </c>
       <c r="V73" s="69">
-        <f t="shared" ref="V73:X73" si="10">V61-V69</f>
+        <f t="shared" ref="V73:X73" si="12">V61-V69</f>
         <v>1.4726999999999999</v>
       </c>
       <c r="W73" s="74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2914999999999999</v>
       </c>
       <c r="X73" s="76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1973999999999998</v>
       </c>
       <c r="Y73" s="76">
-        <f t="shared" ref="Y73:Z73" si="11">Y61-Y69</f>
+        <f t="shared" ref="Y73:Z73" si="13">Y61-Y69</f>
         <v>1.1497999999999999</v>
       </c>
       <c r="Z73" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2489000000000001</v>
       </c>
-      <c r="AB73" s="66"/>
-    </row>
-    <row r="74" spans="1:28" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
-      <c r="AB74" s="6"/>
-    </row>
-    <row r="75" spans="1:28" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA73" s="77">
+        <f t="shared" ref="AA73:AB73" si="14">AA61-AA69</f>
+        <v>1.4639000000000002</v>
+      </c>
+      <c r="AB73" s="77">
+        <f t="shared" si="14"/>
+        <v>1.2995000000000001</v>
+      </c>
+      <c r="AC73" s="77">
+        <f t="shared" ref="AC73" si="15">AC61-AC69</f>
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="AE73" s="66"/>
+      <c r="AG73" s="77"/>
+    </row>
+    <row r="74" spans="1:34" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AA74" s="77"/>
+      <c r="AB74" s="77"/>
+      <c r="AC74" s="77"/>
+      <c r="AE74" s="6"/>
+      <c r="AG74" s="77"/>
+    </row>
+    <row r="75" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>350</v>
       </c>
@@ -5406,15 +5568,31 @@
       <c r="Z75" s="76">
         <v>119.9196</v>
       </c>
-      <c r="AA75" s="75">
-        <f>(Z75-B75)/B75</f>
-        <v>1.0189537528430704E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
-      <c r="AB76" s="6"/>
-    </row>
-    <row r="77" spans="1:28" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA75" s="77">
+        <v>119.86539999999999</v>
+      </c>
+      <c r="AB75" s="77">
+        <v>118.3725</v>
+      </c>
+      <c r="AC75" s="77">
+        <v>119.0291</v>
+      </c>
+      <c r="AD75" s="75">
+        <f>(AC75-B75)/B75</f>
+        <v>2.6880633476539968E-3</v>
+      </c>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+    </row>
+    <row r="76" spans="1:34" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AA76" s="77"/>
+      <c r="AB76" s="77"/>
+      <c r="AC76" s="77"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="77"/>
+      <c r="AG76" s="77"/>
+    </row>
+    <row r="77" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>351</v>
       </c>
@@ -5493,12 +5671,23 @@
       <c r="Z77" s="76">
         <v>94.856200000000001</v>
       </c>
-      <c r="AA77" s="75">
-        <f>(Z77-B77)/B77</f>
-        <v>-1.5515201529205697E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA77" s="77">
+        <v>94.920299999999997</v>
+      </c>
+      <c r="AB77" s="77">
+        <v>94.468599999999995</v>
+      </c>
+      <c r="AC77" s="77">
+        <v>94.299800000000005</v>
+      </c>
+      <c r="AD77" s="78">
+        <f>(AC77-B77)/B77</f>
+        <v>-7.4081403231035566E-3</v>
+      </c>
+      <c r="AF77" s="77"/>
+      <c r="AG77" s="77"/>
+    </row>
+    <row r="78" spans="1:34" ht="19" x14ac:dyDescent="0.3">
       <c r="F78" s="4"/>
       <c r="S78" s="57"/>
       <c r="T78" s="57"/>
@@ -5508,9 +5697,14 @@
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
-      <c r="AB78" s="66"/>
-    </row>
-    <row r="79" spans="1:28" ht="60" x14ac:dyDescent="0.15">
+      <c r="AA78" s="77"/>
+      <c r="AB78" s="77"/>
+      <c r="AC78" s="77"/>
+      <c r="AE78" s="66"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="77"/>
+    </row>
+    <row r="79" spans="1:34" ht="60" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
@@ -5589,20 +5783,36 @@
       <c r="Z79" s="76">
         <v>5.9128999999999996</v>
       </c>
-      <c r="AA79" s="75">
-        <f>(Z79-B79)/B79</f>
-        <v>1.2985900532798684E-2</v>
-      </c>
-      <c r="AB79" s="66"/>
-    </row>
-    <row r="80" spans="1:28" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA79" s="77">
+        <v>5.8811999999999998</v>
+      </c>
+      <c r="AB79" s="77">
+        <v>6.2164999999999999</v>
+      </c>
+      <c r="AC79" s="77">
+        <v>6.3384999999999998</v>
+      </c>
+      <c r="AD79" s="78">
+        <f>(AC79-B79)/B79</f>
+        <v>8.5898819619331407E-2</v>
+      </c>
+      <c r="AE79" s="66"/>
+      <c r="AF79" s="77"/>
+      <c r="AG79" s="77"/>
+    </row>
+    <row r="80" spans="1:34" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F80" s="4"/>
       <c r="W80" s="74"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
-    </row>
-    <row r="81" spans="1:27" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA80" s="77"/>
+      <c r="AB80" s="77"/>
+      <c r="AC80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+    </row>
+    <row r="81" spans="1:33" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>349</v>
       </c>
@@ -5681,15 +5891,31 @@
       <c r="Z81" s="76">
         <v>521.38</v>
       </c>
-      <c r="AA81" s="75">
-        <f>(Z81-B81)/B81</f>
-        <v>-8.0117856701776624E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA81" s="77">
+        <v>532.14</v>
+      </c>
+      <c r="AB81" s="77">
+        <v>541.77</v>
+      </c>
+      <c r="AC81" s="77">
+        <v>548.04999999999995</v>
+      </c>
+      <c r="AD81" s="78">
+        <f>(AC81-B81)/B81</f>
+        <v>-3.3063392085252052E-2</v>
+      </c>
+      <c r="AF81" s="77"/>
+      <c r="AG81" s="77"/>
+    </row>
+    <row r="82" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA82" s="77"/>
+      <c r="AB82" s="77"/>
+      <c r="AC82" s="77"/>
+      <c r="AF82" s="77"/>
+      <c r="AG82" s="77"/>
+    </row>
+    <row r="83" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>344</v>
       </c>
@@ -5768,15 +5994,31 @@
       <c r="Z83" s="76">
         <v>2943.47</v>
       </c>
-      <c r="AA83" s="75">
-        <f>(Z83-B83)/B83</f>
-        <v>-4.3793936873838764E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA83" s="77">
+        <v>3159.16</v>
+      </c>
+      <c r="AB83" s="77">
+        <v>3351</v>
+      </c>
+      <c r="AC83" s="77">
+        <v>3185</v>
+      </c>
+      <c r="AD83" s="78">
+        <f>(AC83-B83)/B83</f>
+        <v>3.4668711098405539E-2</v>
+      </c>
+      <c r="AF83" s="77"/>
+      <c r="AG83" s="77"/>
+    </row>
+    <row r="84" spans="1:33" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:27" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA84" s="77"/>
+      <c r="AB84" s="77"/>
+      <c r="AC84" s="77"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+    </row>
+    <row r="85" spans="1:33" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>343</v>
       </c>
@@ -5855,15 +6097,30 @@
       <c r="Z85" s="76">
         <v>4138.99</v>
       </c>
-      <c r="AA85" s="75">
-        <f>(Z85-B85)/B85</f>
-        <v>-1.4427124924910127E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA85" s="77">
+        <v>4419.6000000000004</v>
+      </c>
+      <c r="AB85" s="77">
+        <v>4753</v>
+      </c>
+      <c r="AC85" s="77">
+        <v>4544</v>
+      </c>
+      <c r="AD85" s="78">
+        <f>(AC85-B85)/B85</f>
+        <v>9.6268489277365032E-2</v>
+      </c>
+      <c r="AF85" s="68"/>
+      <c r="AG85" s="68"/>
+    </row>
+    <row r="86" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA86" s="77"/>
+      <c r="AB86" s="77"/>
+      <c r="AC86" s="77"/>
+      <c r="AG86" s="77"/>
+    </row>
+    <row r="87" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>342</v>
       </c>
@@ -5942,15 +6199,29 @@
       <c r="Z87" s="76">
         <v>2382.4699999999998</v>
       </c>
-      <c r="AA87" s="75">
-        <f>(Z87-B87)/B87</f>
-        <v>0.29763454447415855</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA87" s="77">
+        <v>2462.56</v>
+      </c>
+      <c r="AB87" s="77">
+        <v>2778</v>
+      </c>
+      <c r="AC87" s="77">
+        <v>2662</v>
+      </c>
+      <c r="AD87" s="78">
+        <f>(AC87-B87)/B87</f>
+        <v>0.44988317057096638</v>
+      </c>
+      <c r="AG87" s="77"/>
+    </row>
+    <row r="88" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:27" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA88" s="77"/>
+      <c r="AB88" s="77"/>
+      <c r="AC88" s="77"/>
+      <c r="AG88" s="9"/>
+    </row>
+    <row r="89" spans="1:33" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>347</v>
       </c>
@@ -6029,15 +6300,29 @@
       <c r="Z89" s="76">
         <v>3050.33</v>
       </c>
-      <c r="AA89" s="75">
-        <f>(Z89-B89)/B89</f>
-        <v>-5.704128475818044E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA89" s="77">
+        <v>3130.01</v>
+      </c>
+      <c r="AB89" s="77">
+        <v>3185</v>
+      </c>
+      <c r="AC89" s="77">
+        <v>3224</v>
+      </c>
+      <c r="AD89" s="78">
+        <f>(AC89-B89)/B89</f>
+        <v>-3.3540967896501877E-3</v>
+      </c>
+      <c r="AG89" s="68"/>
+    </row>
+    <row r="90" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:27" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA90" s="77"/>
+      <c r="AB90" s="77"/>
+      <c r="AC90" s="77"/>
+      <c r="AG90" s="9"/>
+    </row>
+    <row r="91" spans="1:33" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>348</v>
       </c>
@@ -6116,19 +6401,33 @@
       <c r="Z91" s="76">
         <v>9909.17</v>
       </c>
-      <c r="AA91" s="75">
-        <f>(Z91-B91)/B91</f>
-        <v>9.8483832311432346E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA91" s="77">
+        <v>10207.629999999999</v>
+      </c>
+      <c r="AB91" s="77">
+        <v>10617</v>
+      </c>
+      <c r="AC91" s="77">
+        <v>10503</v>
+      </c>
+      <c r="AD91" s="78">
+        <f>(AC91-B91)/B91</f>
+        <v>0.16431302427619809</v>
+      </c>
+      <c r="AG91" s="68"/>
+    </row>
+    <row r="92" spans="1:33" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F92" s="4"/>
       <c r="W92" s="74"/>
       <c r="X92" s="76"/>
       <c r="Y92" s="76"/>
       <c r="Z92" s="76"/>
-    </row>
-    <row r="93" spans="1:27" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA92" s="77"/>
+      <c r="AB92" s="77"/>
+      <c r="AC92" s="77"/>
+      <c r="AG92" s="68"/>
+    </row>
+    <row r="93" spans="1:33" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>302</v>
       </c>
@@ -6207,15 +6506,27 @@
       <c r="Z93" s="76">
         <v>1436.06</v>
       </c>
-      <c r="AA93" s="75">
-        <f>(Z93-B93)/B93</f>
-        <v>-6.262402088772849E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA93" s="77">
+        <v>1436.09</v>
+      </c>
+      <c r="AB93" s="77">
+        <v>1444</v>
+      </c>
+      <c r="AC93" s="77">
+        <v>1460</v>
+      </c>
+      <c r="AD93" s="78">
+        <f>(AC93-B93)/B93</f>
+        <v>-4.6997389033942558E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:27" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA94" s="77"/>
+      <c r="AB94" s="77"/>
+      <c r="AC94" s="77"/>
+    </row>
+    <row r="95" spans="1:33" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>354</v>
       </c>
@@ -6294,15 +6605,27 @@
       <c r="Z95" s="76">
         <v>2190.31</v>
       </c>
-      <c r="AA95" s="75">
-        <f>(Z95-B95)/B95</f>
-        <v>-6.8587344786528309E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA95" s="77">
+        <v>2191.85</v>
+      </c>
+      <c r="AB95" s="77">
+        <v>2211</v>
+      </c>
+      <c r="AC95" s="77">
+        <v>2235</v>
+      </c>
+      <c r="AD95" s="78">
+        <f>(AC95-B95)/B95</f>
+        <v>-4.9583262459601936E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:28" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA96" s="77"/>
+      <c r="AB96" s="77"/>
+      <c r="AC96" s="77"/>
+    </row>
+    <row r="97" spans="1:32" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>345</v>
       </c>
@@ -6381,15 +6704,27 @@
       <c r="Z97" s="76">
         <v>746.31</v>
       </c>
-      <c r="AA97" s="75">
-        <f>(Z97-B97)/B97</f>
-        <v>-4.7891816036231522E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA97" s="77">
+        <v>756.54</v>
+      </c>
+      <c r="AB97" s="77">
+        <v>756</v>
+      </c>
+      <c r="AC97" s="77">
+        <v>764</v>
+      </c>
+      <c r="AD97" s="78">
+        <f>(AC97-B97)/B97</f>
+        <v>-2.5323722651017441E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:28" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA98" s="77"/>
+      <c r="AB98" s="77"/>
+      <c r="AC98" s="77"/>
+    </row>
+    <row r="99" spans="1:32" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>356</v>
       </c>
@@ -6468,15 +6803,27 @@
       <c r="Z99" s="76">
         <v>362.56</v>
       </c>
-      <c r="AA99" s="75">
-        <f>(Z99-B99)/B99</f>
-        <v>-9.5973070689440235E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA99" s="77">
+        <v>360.55</v>
+      </c>
+      <c r="AB99" s="77">
+        <v>363</v>
+      </c>
+      <c r="AC99" s="77">
+        <v>365</v>
+      </c>
+      <c r="AD99" s="78">
+        <f>(AC99-B99)/B99</f>
+        <v>-8.9889041266675004E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:28" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="77"/>
+    </row>
+    <row r="101" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>352</v>
       </c>
@@ -6555,15 +6902,27 @@
       <c r="Z101" s="76">
         <v>37.89</v>
       </c>
-      <c r="AA101" s="75">
-        <f>(Z101-B101)/B101</f>
-        <v>-0.39895304568527917</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA101" s="77">
+        <v>39.9</v>
+      </c>
+      <c r="AB101" s="77">
+        <v>40</v>
+      </c>
+      <c r="AC101" s="77">
+        <v>43</v>
+      </c>
+      <c r="AD101" s="78">
+        <f>(AC101-B101)/B101</f>
+        <v>-0.31789340101522839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:28" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA102" s="77"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="77"/>
+    </row>
+    <row r="103" spans="1:32" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>353</v>
       </c>
@@ -6642,12 +7001,21 @@
       <c r="Z103" s="76">
         <v>1771.8</v>
       </c>
-      <c r="AA103" s="75">
-        <f>(Z103-B103)/B103</f>
-        <v>0.13927469135802462</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA103" s="77">
+        <v>1785.5</v>
+      </c>
+      <c r="AB103" s="77">
+        <v>1801</v>
+      </c>
+      <c r="AC103" s="77">
+        <v>1812</v>
+      </c>
+      <c r="AD103" s="78">
+        <f>(AC103-B103)/B103</f>
+        <v>0.16512345679012341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F104" s="4"/>
       <c r="S104" s="57"/>
       <c r="T104" s="57"/>
@@ -6657,9 +7025,12 @@
       <c r="X104" s="76"/>
       <c r="Y104" s="76"/>
       <c r="Z104" s="76"/>
-      <c r="AB104" s="66"/>
-    </row>
-    <row r="105" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA104" s="77"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="77"/>
+      <c r="AE104" s="66"/>
+    </row>
+    <row r="105" spans="1:32" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>313</v>
       </c>
@@ -6738,8 +7109,18 @@
       <c r="Z105" s="76">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA105" s="77">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="AB105" s="77">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="AC105" s="77">
+        <v>2.2465000000000002</v>
+      </c>
+      <c r="AF105" s="68"/>
+    </row>
+    <row r="106" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>9</v>
       </c>
@@ -6818,9 +7199,19 @@
       <c r="Z106" s="76">
         <v>2.121</v>
       </c>
-      <c r="AB106" s="66"/>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA106" s="77">
+        <v>2.105</v>
+      </c>
+      <c r="AB106" s="77">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="AC106" s="77">
+        <v>2.286</v>
+      </c>
+      <c r="AE106" s="66"/>
+      <c r="AF106" s="68"/>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F107" s="4"/>
       <c r="S107" s="57"/>
       <c r="T107" s="57"/>
@@ -6830,9 +7221,13 @@
       <c r="X107" s="76"/>
       <c r="Y107" s="76"/>
       <c r="Z107" s="76"/>
-      <c r="AB107" s="66"/>
-    </row>
-    <row r="108" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA107" s="77"/>
+      <c r="AB107" s="77"/>
+      <c r="AC107" s="77"/>
+      <c r="AE107" s="66"/>
+      <c r="AF107" s="77"/>
+    </row>
+    <row r="108" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>315</v>
       </c>
@@ -6911,8 +7306,18 @@
       <c r="Z108" s="76">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA108" s="77">
+        <v>1.885</v>
+      </c>
+      <c r="AB108" s="77">
+        <v>2.085</v>
+      </c>
+      <c r="AC108" s="77">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="AF108" s="77"/>
+    </row>
+    <row r="109" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>309</v>
       </c>
@@ -6995,8 +7400,20 @@
         <f>8687+8623+8806</f>
         <v>26116</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA109" s="77">
+        <v>44631</v>
+      </c>
+      <c r="AB109" s="77">
+        <f>7999+8053+8007+8077+7908</f>
+        <v>40044</v>
+      </c>
+      <c r="AC109" s="77">
+        <f>8182+8068+8215+8481+8366</f>
+        <v>41312</v>
+      </c>
+      <c r="AF109" s="9"/>
+    </row>
+    <row r="110" spans="1:32" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>314</v>
       </c>
@@ -7075,8 +7492,18 @@
       <c r="Z110" s="76">
         <v>1.4776</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA110" s="77">
+        <v>1.3595999999999999</v>
+      </c>
+      <c r="AB110" s="77">
+        <v>2.1665000000000001</v>
+      </c>
+      <c r="AC110" s="77">
+        <v>2.2806000000000002</v>
+      </c>
+      <c r="AF110" s="68"/>
+    </row>
+    <row r="111" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>309</v>
       </c>
@@ -7159,119 +7586,149 @@
         <f>18206+17083+13190</f>
         <v>48479</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA111" s="77">
+        <f>13301+15480+8384+16435+18255+18506</f>
+        <v>90361</v>
+      </c>
+      <c r="AB111" s="77">
+        <f>21505+21370+20742+19889+18162</f>
+        <v>101668</v>
+      </c>
+      <c r="AC111" s="77">
+        <f>18590+19818+18241+14744+15632</f>
+        <v>87025</v>
+      </c>
+      <c r="AF111" s="9"/>
+    </row>
+    <row r="112" spans="1:32" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B112" s="74">
-        <f>B111+B109</f>
+        <f t="shared" ref="B112:AC112" si="16">B111+B109</f>
         <v>111092</v>
       </c>
       <c r="C112" s="74">
-        <f>C111+C109</f>
+        <f t="shared" si="16"/>
         <v>230475</v>
       </c>
       <c r="D112" s="74">
-        <f>D111+D109</f>
+        <f t="shared" si="16"/>
         <v>44442</v>
       </c>
       <c r="E112" s="74">
-        <f>E111+E109</f>
+        <f t="shared" si="16"/>
         <v>84941</v>
       </c>
       <c r="F112" s="74">
-        <f>F111+F109</f>
+        <f t="shared" si="16"/>
         <v>80355</v>
       </c>
       <c r="G112" s="74">
-        <f>G111+G109</f>
+        <f t="shared" si="16"/>
         <v>119476</v>
       </c>
       <c r="H112" s="74">
-        <f>H111+H109</f>
+        <f t="shared" si="16"/>
         <v>157703</v>
       </c>
       <c r="I112" s="74">
-        <f>I111+I109</f>
+        <f t="shared" si="16"/>
         <v>175759</v>
       </c>
       <c r="J112" s="74">
-        <f>J111+J109</f>
+        <f t="shared" si="16"/>
         <v>203749</v>
       </c>
       <c r="K112" s="74">
-        <f>K111+K109</f>
+        <f t="shared" si="16"/>
         <v>206278</v>
       </c>
       <c r="L112" s="74">
-        <f>L111+L109</f>
+        <f t="shared" si="16"/>
         <v>228106</v>
       </c>
       <c r="M112" s="74">
-        <f>M111+M109</f>
+        <f t="shared" si="16"/>
         <v>245648</v>
       </c>
       <c r="N112" s="74">
-        <f>N111+N109</f>
+        <f t="shared" si="16"/>
         <v>219537</v>
       </c>
       <c r="O112" s="74">
-        <f>O111+O109</f>
+        <f t="shared" si="16"/>
         <v>215202</v>
       </c>
       <c r="P112" s="74">
-        <f>P111+P109</f>
+        <f t="shared" si="16"/>
         <v>251159</v>
       </c>
       <c r="Q112" s="74">
-        <f>Q111+Q109</f>
+        <f t="shared" si="16"/>
         <v>37222</v>
       </c>
       <c r="R112" s="74">
-        <f>R111+R109</f>
+        <f t="shared" si="16"/>
         <v>171232</v>
       </c>
       <c r="S112" s="74">
-        <f>S111+S109</f>
+        <f t="shared" si="16"/>
         <v>113947</v>
       </c>
       <c r="T112" s="74">
-        <f>T111+T109</f>
+        <f t="shared" si="16"/>
         <v>274748</v>
       </c>
       <c r="U112" s="74">
-        <f>U111+U109</f>
+        <f t="shared" si="16"/>
         <v>178819</v>
       </c>
       <c r="V112" s="74">
-        <f>V111+V109</f>
+        <f t="shared" si="16"/>
         <v>125117</v>
       </c>
       <c r="W112" s="74">
-        <f>W111+W109</f>
+        <f t="shared" si="16"/>
         <v>131622</v>
       </c>
       <c r="X112" s="76">
-        <f>X111+X109</f>
+        <f t="shared" si="16"/>
         <v>136581</v>
       </c>
       <c r="Y112" s="76">
-        <f>Y111+Y109</f>
+        <f t="shared" si="16"/>
         <v>135380</v>
       </c>
       <c r="Z112" s="76">
-        <f>Z111+Z109</f>
+        <f t="shared" si="16"/>
         <v>74595</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA112" s="77">
+        <f t="shared" si="16"/>
+        <v>134992</v>
+      </c>
+      <c r="AB112" s="77">
+        <f t="shared" si="16"/>
+        <v>141712</v>
+      </c>
+      <c r="AC112" s="77">
+        <f t="shared" si="16"/>
+        <v>128337</v>
+      </c>
+      <c r="AF112" s="68"/>
+    </row>
+    <row r="113" spans="1:32" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F113" s="4"/>
       <c r="X113" s="76"/>
       <c r="Y113" s="76"/>
       <c r="Z113" s="76"/>
-    </row>
-    <row r="114" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA113" s="77"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="77"/>
+      <c r="AF113" s="68"/>
+    </row>
+    <row r="114" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>316</v>
       </c>
@@ -7350,8 +7807,18 @@
       <c r="Z114" s="76">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA114" s="77">
+        <v>1.95</v>
+      </c>
+      <c r="AB114" s="77">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="AC114" s="77">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AF114" s="77"/>
+    </row>
+    <row r="115" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>309</v>
       </c>
@@ -7434,8 +7901,20 @@
         <f>1238+981+1568</f>
         <v>3787</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA115" s="77">
+        <v>7177</v>
+      </c>
+      <c r="AB115" s="77">
+        <f>1899+1036+1568+964+704</f>
+        <v>6171</v>
+      </c>
+      <c r="AC115" s="77">
+        <f>1856+1199+1424+1090+913</f>
+        <v>6482</v>
+      </c>
+      <c r="AF115" s="77"/>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>10</v>
       </c>
@@ -7514,9 +7993,19 @@
       <c r="Z116" s="76">
         <v>2.1334</v>
       </c>
-      <c r="AB116" s="66"/>
-    </row>
-    <row r="117" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA116" s="77">
+        <v>1.8259000000000001</v>
+      </c>
+      <c r="AB116" s="77">
+        <v>2.2073999999999998</v>
+      </c>
+      <c r="AC116" s="77">
+        <v>2.2606999999999999</v>
+      </c>
+      <c r="AE116" s="66"/>
+      <c r="AF116" s="9"/>
+    </row>
+    <row r="117" spans="1:32" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>309</v>
       </c>
@@ -7599,113 +8088,138 @@
         <f>443+177+1855</f>
         <v>2475</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA117" s="77">
+        <v>3137</v>
+      </c>
+      <c r="AB117" s="77">
+        <f>751+741+672+664+1107</f>
+        <v>3935</v>
+      </c>
+      <c r="AC117" s="77">
+        <f>795+700+889+1233+1551</f>
+        <v>5168</v>
+      </c>
+      <c r="AF117" s="68"/>
+    </row>
+    <row r="118" spans="1:32" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B118" s="74">
-        <f>B117+B115</f>
+        <f t="shared" ref="B118:AC118" si="17">B117+B115</f>
         <v>19898</v>
       </c>
       <c r="C118" s="74">
-        <f>C117+C115</f>
+        <f t="shared" si="17"/>
         <v>23194</v>
       </c>
       <c r="D118" s="74">
-        <f>D117+D115</f>
+        <f t="shared" si="17"/>
         <v>4418</v>
       </c>
       <c r="E118" s="74">
-        <f>E117+E115</f>
+        <f t="shared" si="17"/>
         <v>10258</v>
       </c>
       <c r="F118" s="74">
-        <f>F117+F115</f>
+        <f t="shared" si="17"/>
         <v>35289</v>
       </c>
       <c r="G118" s="74">
-        <f>G117+G115</f>
+        <f t="shared" si="17"/>
         <v>24503</v>
       </c>
       <c r="H118" s="74">
-        <f>H117+H115</f>
+        <f t="shared" si="17"/>
         <v>23455</v>
       </c>
       <c r="I118" s="74">
-        <f>I117+I115</f>
+        <f t="shared" si="17"/>
         <v>28403</v>
       </c>
       <c r="J118" s="74">
-        <f>J117+J115</f>
+        <f t="shared" si="17"/>
         <v>24122</v>
       </c>
       <c r="K118" s="74">
-        <f>K117+K115</f>
+        <f t="shared" si="17"/>
         <v>24605</v>
       </c>
       <c r="L118" s="74">
-        <f>L117+L115</f>
+        <f t="shared" si="17"/>
         <v>22787</v>
       </c>
       <c r="M118" s="74">
-        <f>M117+M115</f>
+        <f t="shared" si="17"/>
         <v>27156</v>
       </c>
       <c r="N118" s="74">
-        <f>N117+N115</f>
+        <f t="shared" si="17"/>
         <v>26633</v>
       </c>
       <c r="O118" s="74">
-        <f>O117+O115</f>
+        <f t="shared" si="17"/>
         <v>21040</v>
       </c>
       <c r="P118" s="74">
-        <f>P117+P115</f>
+        <f t="shared" si="17"/>
         <v>20428</v>
       </c>
       <c r="Q118" s="74">
-        <f>Q117+Q115</f>
+        <f t="shared" si="17"/>
         <v>6196</v>
       </c>
       <c r="R118" s="74">
-        <f>R117+R115</f>
+        <f t="shared" si="17"/>
         <v>23380</v>
       </c>
       <c r="S118" s="74">
-        <f>S117+S115</f>
+        <f t="shared" si="17"/>
         <v>26407</v>
       </c>
       <c r="T118" s="74">
-        <f>T117+T115</f>
+        <f t="shared" si="17"/>
         <v>21962</v>
       </c>
       <c r="U118" s="74">
-        <f>U117+U115</f>
+        <f t="shared" si="17"/>
         <v>11237</v>
       </c>
       <c r="V118" s="74">
-        <f>V117+V115</f>
+        <f t="shared" si="17"/>
         <v>10644</v>
       </c>
       <c r="W118" s="74">
-        <f>W117+W115</f>
+        <f t="shared" si="17"/>
         <v>13560</v>
       </c>
       <c r="X118" s="76">
-        <f>X117+X115</f>
+        <f t="shared" si="17"/>
         <v>9419</v>
       </c>
       <c r="Y118" s="76">
-        <f>Y117+Y115</f>
+        <f t="shared" si="17"/>
         <v>9821</v>
       </c>
       <c r="Z118" s="76">
-        <f>Z117+Z115</f>
+        <f t="shared" si="17"/>
         <v>6262</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AA118" s="77">
+        <f t="shared" si="17"/>
+        <v>10314</v>
+      </c>
+      <c r="AB118" s="77">
+        <f t="shared" si="17"/>
+        <v>10106</v>
+      </c>
+      <c r="AC118" s="77">
+        <f t="shared" si="17"/>
+        <v>11650</v>
+      </c>
+      <c r="AF118" s="9"/>
+    </row>
+    <row r="119" spans="1:32" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F119" s="4"/>
       <c r="U119" s="66"/>
       <c r="V119" s="69"/>
@@ -7713,9 +8227,13 @@
       <c r="X119" s="76"/>
       <c r="Y119" s="76"/>
       <c r="Z119" s="76"/>
-      <c r="AB119" s="66"/>
-    </row>
-    <row r="120" spans="1:28" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="AA119" s="77"/>
+      <c r="AB119" s="77"/>
+      <c r="AC119" s="77"/>
+      <c r="AE119" s="66"/>
+      <c r="AF119" s="68"/>
+    </row>
+    <row r="120" spans="1:32" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>246</v>
       </c>
@@ -7794,9 +8312,19 @@
       <c r="Z120" s="76">
         <v>2.4</v>
       </c>
-      <c r="AB120" s="66"/>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA120" s="77">
+        <v>2.3849</v>
+      </c>
+      <c r="AB120" s="77">
+        <v>2.5987</v>
+      </c>
+      <c r="AC120" s="77">
+        <v>2.6404999999999998</v>
+      </c>
+      <c r="AE120" s="9"/>
+      <c r="AF120" s="68"/>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F121" s="1"/>
       <c r="S121" s="57"/>
       <c r="T121" s="57"/>
@@ -7806,9 +8334,13 @@
       <c r="X121" s="76"/>
       <c r="Y121" s="76"/>
       <c r="Z121" s="76"/>
-      <c r="AB121" s="66"/>
-    </row>
-    <row r="122" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA121" s="77"/>
+      <c r="AB121" s="77"/>
+      <c r="AC121" s="77"/>
+      <c r="AE121"/>
+      <c r="AF121" s="77"/>
+    </row>
+    <row r="122" spans="1:32" ht="30" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>17</v>
       </c>
@@ -7887,9 +8419,19 @@
       <c r="Z122" s="76">
         <v>0.2969</v>
       </c>
-      <c r="AB122" s="66"/>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA122" s="77">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="AB122" s="77">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="AC122" s="77">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="AE122" s="77"/>
+      <c r="AF122" s="9"/>
+    </row>
+    <row r="123" spans="1:32" ht="23" x14ac:dyDescent="0.35">
       <c r="F123" s="4"/>
       <c r="S123" s="57"/>
       <c r="T123" s="66"/>
@@ -7899,9 +8441,13 @@
       <c r="X123" s="76"/>
       <c r="Y123" s="76"/>
       <c r="Z123" s="76"/>
-      <c r="AB123" s="9"/>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA123" s="77"/>
+      <c r="AB123" s="77"/>
+      <c r="AC123" s="77"/>
+      <c r="AE123" s="79"/>
+      <c r="AF123"/>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>18</v>
       </c>
@@ -7980,9 +8526,19 @@
       <c r="Z124" s="76">
         <v>0.1</v>
       </c>
-      <c r="AB124" s="66"/>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA124" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="AB124" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="AC124" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="AE124"/>
+      <c r="AF124" s="77"/>
+    </row>
+    <row r="125" spans="1:32" ht="23" x14ac:dyDescent="0.35">
       <c r="F125" s="4"/>
       <c r="S125" s="57"/>
       <c r="T125" s="66"/>
@@ -7992,9 +8548,13 @@
       <c r="X125" s="76"/>
       <c r="Y125" s="76"/>
       <c r="Z125" s="76"/>
-      <c r="AB125" s="66"/>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA125" s="77"/>
+      <c r="AB125" s="77"/>
+      <c r="AC125" s="77"/>
+      <c r="AE125" s="77"/>
+      <c r="AF125" s="79"/>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>16</v>
       </c>
@@ -8003,104 +8563,117 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" ref="C126:K126" si="12">C122-C124</f>
+        <f t="shared" ref="C126:K126" si="18">C122-C124</f>
         <v>0.29000000000000004</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.27</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.24</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.12999999999999989</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7.9999999999999849E-2</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.14000000000000012</v>
       </c>
       <c r="J126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.20400000000000007</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.25687000000000004</v>
       </c>
       <c r="L126" s="1">
-        <f t="shared" ref="L126:M126" si="13">L122-L124</f>
+        <f t="shared" ref="L126:M126" si="19">L122-L124</f>
         <v>1.1041299999999998</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.3501299999999998</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" ref="N126:O126" si="14">N122-N124</f>
+        <f t="shared" ref="N126:O126" si="20">N122-N124</f>
         <v>1.28738</v>
       </c>
       <c r="O126" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.28738</v>
       </c>
       <c r="P126" s="1">
-        <f t="shared" ref="P126:Q126" si="15">P122-P124</f>
+        <f t="shared" ref="P126:Q126" si="21">P122-P124</f>
         <v>1.0089999999999999</v>
       </c>
       <c r="Q126" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.0089999999999999</v>
       </c>
       <c r="R126" s="1">
-        <f t="shared" ref="R126:S126" si="16">R122-R124</f>
+        <f t="shared" ref="R126:S126" si="22">R122-R124</f>
         <v>0.44088000000000005</v>
       </c>
       <c r="S126" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.33350000000000002</v>
       </c>
       <c r="T126" s="66">
-        <f t="shared" ref="T126:U126" si="17">T122-T124</f>
+        <f t="shared" ref="T126:U126" si="23">T122-T124</f>
         <v>0.28049999999999997</v>
       </c>
       <c r="U126" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.25949999999999995</v>
       </c>
       <c r="V126" s="69">
-        <f t="shared" ref="V126:W126" si="18">V122-V124</f>
+        <f t="shared" ref="V126:W126" si="24">V122-V124</f>
         <v>0.24399999999999997</v>
       </c>
       <c r="W126" s="74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.21759999999999999</v>
       </c>
       <c r="X126" s="76">
-        <f t="shared" ref="X126:Y126" si="19">X122-X124</f>
+        <f t="shared" ref="X126:Y126" si="25">X122-X124</f>
         <v>0.22090000000000001</v>
       </c>
       <c r="Y126" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.22090000000000001</v>
       </c>
       <c r="Z126" s="76">
-        <f t="shared" ref="Z126" si="20">Z122-Z124</f>
+        <f t="shared" ref="Z126:AA126" si="26">Z122-Z124</f>
         <v>0.19689999999999999</v>
       </c>
-      <c r="AB126" s="9"/>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="AA126" s="77">
+        <f t="shared" si="26"/>
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="AB126" s="77">
+        <f t="shared" ref="AB126:AC126" si="27">AB122-AB124</f>
+        <v>0.16629999999999998</v>
+      </c>
+      <c r="AC126" s="77">
+        <f t="shared" si="27"/>
+        <v>0.17179999999999998</v>
+      </c>
+      <c r="AE126" s="10"/>
+      <c r="AF126"/>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.15">
       <c r="F127" s="4"/>
       <c r="S127" s="57"/>
       <c r="T127" s="66"/>
@@ -8110,9 +8683,13 @@
       <c r="X127" s="76"/>
       <c r="Y127" s="76"/>
       <c r="Z127" s="76"/>
-      <c r="AB127" s="66"/>
-    </row>
-    <row r="128" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="AA127" s="77"/>
+      <c r="AB127" s="77"/>
+      <c r="AC127" s="77"/>
+      <c r="AE127" s="66"/>
+      <c r="AF127" s="77"/>
+    </row>
+    <row r="128" spans="1:32" ht="30" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>19</v>
       </c>
@@ -8191,9 +8768,19 @@
       <c r="Z128" s="76">
         <v>2.02</v>
       </c>
-      <c r="AB128" s="66"/>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA128" s="77">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AB128" s="77">
+        <v>1.98</v>
+      </c>
+      <c r="AC128" s="77">
+        <v>1.93</v>
+      </c>
+      <c r="AE128" s="66"/>
+      <c r="AF128" s="10"/>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F129" s="4"/>
       <c r="S129" s="57"/>
       <c r="T129" s="57"/>
@@ -8203,8 +8790,11 @@
       <c r="X129" s="76"/>
       <c r="Y129" s="76"/>
       <c r="Z129" s="76"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA129" s="77"/>
+      <c r="AB129" s="77"/>
+      <c r="AC129" s="77"/>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>20</v>
       </c>
@@ -8283,8 +8873,17 @@
       <c r="Z130" s="76">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA130" s="77">
+        <v>6</v>
+      </c>
+      <c r="AB130" s="77">
+        <v>7</v>
+      </c>
+      <c r="AC130" s="77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F131" s="1"/>
       <c r="S131" s="57"/>
       <c r="T131" s="57"/>
@@ -8294,8 +8893,11 @@
       <c r="X131" s="76"/>
       <c r="Y131" s="76"/>
       <c r="Z131" s="76"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA131" s="77"/>
+      <c r="AB131" s="77"/>
+      <c r="AC131" s="77"/>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>11</v>
       </c>
@@ -8374,8 +8976,17 @@
       <c r="Z132" s="76">
         <v>11468</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA132" s="77">
+        <v>11762</v>
+      </c>
+      <c r="AB132" s="77">
+        <v>13265</v>
+      </c>
+      <c r="AC132" s="77">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F133" s="1"/>
       <c r="S133" s="57"/>
       <c r="T133" s="57"/>
@@ -8385,8 +8996,11 @@
       <c r="X133" s="76"/>
       <c r="Y133" s="76"/>
       <c r="Z133" s="76"/>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA133" s="77"/>
+      <c r="AB133" s="77"/>
+      <c r="AC133" s="77"/>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>13</v>
       </c>
@@ -8473,20 +9087,32 @@
         <f>38+32.95+37.9</f>
         <v>108.85</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A136" s="79" t="s">
+      <c r="AA134" s="77">
+        <f>195.9+2.76+155</f>
+        <v>353.65999999999997</v>
+      </c>
+      <c r="AB134" s="77">
+        <f>-19.88+105.28+164.36+118.88</f>
+        <v>368.64</v>
+      </c>
+      <c r="AC134" s="77">
+        <f>33.01+-54.37+4.55+-150.17+96.57</f>
+        <v>-70.41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" s="69" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A136" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="B136" s="79"/>
-      <c r="C136" s="79"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="79"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
       <c r="F136" s="4"/>
       <c r="T136" s="57"/>
     </row>
-    <row r="137" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:29" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="71" t="s">
         <v>267</v>
       </c>
@@ -8560,7 +9186,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:26" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:29" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A138" s="72" t="s">
         <v>296</v>
       </c>
@@ -8612,11 +9238,14 @@
       <c r="Q138" s="22">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R138" s="22">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="1:26" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:29" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A140" s="72" t="s">
         <v>292</v>
       </c>
@@ -8668,11 +9297,14 @@
       <c r="Q140" s="22">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R140" s="22">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="1:26" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:29" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A142" s="72" t="s">
         <v>293</v>
       </c>
@@ -8724,48 +9356,51 @@
       <c r="Q142" s="22">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R142" s="22">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:26" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:29" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B144" s="78">
+      <c r="B144" s="80">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78">
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80">
         <v>2.18E-2</v>
       </c>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="78">
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="I144" s="78"/>
-      <c r="J144" s="78"/>
-      <c r="K144" s="78">
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="80">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L144" s="78"/>
-      <c r="M144" s="78"/>
-      <c r="N144" s="78">
+      <c r="L144" s="80"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O144" s="78"/>
-      <c r="P144" s="78"/>
-      <c r="Q144" s="77"/>
-      <c r="R144" s="77"/>
-      <c r="S144" s="77"/>
-      <c r="T144" s="77"/>
-      <c r="U144" s="77"/>
-      <c r="V144" s="77"/>
-      <c r="W144" s="77"/>
-      <c r="X144" s="77"/>
-      <c r="Y144" s="77"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="82"/>
+      <c r="R144" s="82"/>
+      <c r="S144" s="82"/>
+      <c r="T144" s="82"/>
+      <c r="U144" s="82"/>
+      <c r="V144" s="82"/>
+      <c r="W144" s="82"/>
+      <c r="X144" s="82"/>
+      <c r="Y144" s="82"/>
     </row>
     <row r="145" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F145" s="4"/>
@@ -8774,40 +9409,40 @@
       <c r="A146" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B146" s="78">
+      <c r="B146" s="80">
         <v>2.12E-2</v>
       </c>
-      <c r="C146" s="78"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="78">
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78">
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="I146" s="78"/>
-      <c r="J146" s="78"/>
-      <c r="K146" s="78">
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
+      <c r="K146" s="80">
         <v>2.12E-2</v>
       </c>
-      <c r="L146" s="78"/>
-      <c r="M146" s="78"/>
-      <c r="N146" s="78">
+      <c r="L146" s="80"/>
+      <c r="M146" s="80"/>
+      <c r="N146" s="80">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="O146" s="78"/>
-      <c r="P146" s="78"/>
-      <c r="Q146" s="77"/>
-      <c r="R146" s="77"/>
-      <c r="S146" s="77"/>
-      <c r="T146" s="77"/>
-      <c r="U146" s="77"/>
-      <c r="V146" s="77"/>
-      <c r="W146" s="77"/>
-      <c r="X146" s="77"/>
-      <c r="Y146" s="77"/>
+      <c r="O146" s="80"/>
+      <c r="P146" s="80"/>
+      <c r="Q146" s="82"/>
+      <c r="R146" s="82"/>
+      <c r="S146" s="82"/>
+      <c r="T146" s="82"/>
+      <c r="U146" s="82"/>
+      <c r="V146" s="82"/>
+      <c r="W146" s="82"/>
+      <c r="X146" s="82"/>
+      <c r="Y146" s="82"/>
     </row>
     <row r="147" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F147" s="4"/>
@@ -8816,40 +9451,40 @@
       <c r="A148" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B148" s="78">
+      <c r="B148" s="80">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78">
+      <c r="C148" s="80"/>
+      <c r="D148" s="80"/>
+      <c r="E148" s="80">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="78">
+      <c r="F148" s="80"/>
+      <c r="G148" s="80"/>
+      <c r="H148" s="80">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="I148" s="78"/>
-      <c r="J148" s="78"/>
-      <c r="K148" s="78">
+      <c r="I148" s="80"/>
+      <c r="J148" s="80"/>
+      <c r="K148" s="80">
         <v>2.12E-2</v>
       </c>
-      <c r="L148" s="78"/>
-      <c r="M148" s="78"/>
-      <c r="N148" s="78">
+      <c r="L148" s="80"/>
+      <c r="M148" s="80"/>
+      <c r="N148" s="80">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="O148" s="78"/>
-      <c r="P148" s="78"/>
-      <c r="Q148" s="77"/>
-      <c r="R148" s="77"/>
-      <c r="S148" s="77"/>
-      <c r="T148" s="77"/>
-      <c r="U148" s="77"/>
-      <c r="V148" s="77"/>
-      <c r="W148" s="77"/>
-      <c r="X148" s="77"/>
-      <c r="Y148" s="77"/>
+      <c r="O148" s="80"/>
+      <c r="P148" s="80"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="82"/>
+      <c r="V148" s="82"/>
+      <c r="W148" s="82"/>
+      <c r="X148" s="82"/>
+      <c r="Y148" s="82"/>
     </row>
     <row r="149" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F149" s="4"/>
@@ -8858,40 +9493,40 @@
       <c r="A150" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="78">
+      <c r="B150" s="80">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78">
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78">
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="I150" s="78"/>
-      <c r="J150" s="78"/>
-      <c r="K150" s="78">
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+      <c r="K150" s="80">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="L150" s="78"/>
-      <c r="M150" s="78"/>
-      <c r="N150" s="78">
+      <c r="L150" s="80"/>
+      <c r="M150" s="80"/>
+      <c r="N150" s="80">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="O150" s="78"/>
-      <c r="P150" s="78"/>
-      <c r="Q150" s="77"/>
-      <c r="R150" s="77"/>
-      <c r="S150" s="77"/>
-      <c r="T150" s="77"/>
-      <c r="U150" s="77"/>
-      <c r="V150" s="77"/>
-      <c r="W150" s="77"/>
-      <c r="X150" s="77"/>
-      <c r="Y150" s="77"/>
+      <c r="O150" s="80"/>
+      <c r="P150" s="80"/>
+      <c r="Q150" s="82"/>
+      <c r="R150" s="82"/>
+      <c r="S150" s="82"/>
+      <c r="T150" s="82"/>
+      <c r="U150" s="82"/>
+      <c r="V150" s="82"/>
+      <c r="W150" s="82"/>
+      <c r="X150" s="82"/>
+      <c r="Y150" s="82"/>
     </row>
     <row r="151" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4"/>
@@ -8900,40 +9535,40 @@
       <c r="A152" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B152" s="78">
+      <c r="B152" s="80">
         <v>1.32E-2</v>
       </c>
-      <c r="C152" s="78"/>
-      <c r="D152" s="78"/>
-      <c r="E152" s="78">
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80">
         <v>1.26E-2</v>
       </c>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
-      <c r="H152" s="78">
+      <c r="F152" s="80"/>
+      <c r="G152" s="80"/>
+      <c r="H152" s="80">
         <v>1.32E-2</v>
       </c>
-      <c r="I152" s="78"/>
-      <c r="J152" s="78"/>
-      <c r="K152" s="78">
+      <c r="I152" s="80"/>
+      <c r="J152" s="80"/>
+      <c r="K152" s="80">
         <v>1.38E-2</v>
       </c>
-      <c r="L152" s="78"/>
-      <c r="M152" s="78"/>
-      <c r="N152" s="78">
+      <c r="L152" s="80"/>
+      <c r="M152" s="80"/>
+      <c r="N152" s="80">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="O152" s="78"/>
-      <c r="P152" s="78"/>
-      <c r="Q152" s="77"/>
-      <c r="R152" s="77"/>
-      <c r="S152" s="77"/>
-      <c r="T152" s="77"/>
-      <c r="U152" s="77"/>
-      <c r="V152" s="77"/>
-      <c r="W152" s="77"/>
-      <c r="X152" s="77"/>
-      <c r="Y152" s="77"/>
+      <c r="O152" s="80"/>
+      <c r="P152" s="80"/>
+      <c r="Q152" s="82"/>
+      <c r="R152" s="82"/>
+      <c r="S152" s="82"/>
+      <c r="T152" s="82"/>
+      <c r="U152" s="82"/>
+      <c r="V152" s="82"/>
+      <c r="W152" s="82"/>
+      <c r="X152" s="82"/>
+      <c r="Y152" s="82"/>
     </row>
     <row r="153" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4"/>
@@ -8942,40 +9577,40 @@
       <c r="A154" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="78">
+      <c r="B154" s="80">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="C154" s="78"/>
-      <c r="D154" s="78"/>
-      <c r="E154" s="78">
+      <c r="C154" s="80"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="80">
         <v>1.67E-2</v>
       </c>
-      <c r="F154" s="78"/>
-      <c r="G154" s="78"/>
-      <c r="H154" s="78">
+      <c r="F154" s="80"/>
+      <c r="G154" s="80"/>
+      <c r="H154" s="80">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="I154" s="78"/>
-      <c r="J154" s="78"/>
-      <c r="K154" s="78">
+      <c r="I154" s="80"/>
+      <c r="J154" s="80"/>
+      <c r="K154" s="80">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="L154" s="78"/>
-      <c r="M154" s="78"/>
-      <c r="N154" s="78">
+      <c r="L154" s="80"/>
+      <c r="M154" s="80"/>
+      <c r="N154" s="80">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="O154" s="78"/>
-      <c r="P154" s="78"/>
-      <c r="Q154" s="77"/>
-      <c r="R154" s="77"/>
-      <c r="S154" s="77"/>
-      <c r="T154" s="77"/>
-      <c r="U154" s="77"/>
-      <c r="V154" s="77"/>
-      <c r="W154" s="77"/>
-      <c r="X154" s="77"/>
-      <c r="Y154" s="77"/>
+      <c r="O154" s="80"/>
+      <c r="P154" s="80"/>
+      <c r="Q154" s="82"/>
+      <c r="R154" s="82"/>
+      <c r="S154" s="82"/>
+      <c r="T154" s="82"/>
+      <c r="U154" s="82"/>
+      <c r="V154" s="82"/>
+      <c r="W154" s="82"/>
+      <c r="X154" s="82"/>
+      <c r="Y154" s="82"/>
     </row>
     <row r="155" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4"/>
@@ -8984,40 +9619,40 @@
       <c r="A156" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B156" s="78">
+      <c r="B156" s="80">
         <v>1.9217</v>
       </c>
-      <c r="C156" s="78"/>
-      <c r="D156" s="78"/>
-      <c r="E156" s="78">
+      <c r="C156" s="80"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="80">
         <v>1.9060999999999999</v>
       </c>
-      <c r="F156" s="78"/>
-      <c r="G156" s="78"/>
-      <c r="H156" s="78">
+      <c r="F156" s="80"/>
+      <c r="G156" s="80"/>
+      <c r="H156" s="80">
         <v>1.8763000000000001</v>
       </c>
-      <c r="I156" s="78"/>
-      <c r="J156" s="78"/>
-      <c r="K156" s="78">
+      <c r="I156" s="80"/>
+      <c r="J156" s="80"/>
+      <c r="K156" s="80">
         <v>1.8608</v>
       </c>
-      <c r="L156" s="78"/>
-      <c r="M156" s="78"/>
-      <c r="N156" s="78">
+      <c r="L156" s="80"/>
+      <c r="M156" s="80"/>
+      <c r="N156" s="80">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="O156" s="78"/>
-      <c r="P156" s="78"/>
-      <c r="Q156" s="77"/>
-      <c r="R156" s="77"/>
-      <c r="S156" s="77"/>
-      <c r="T156" s="77"/>
-      <c r="U156" s="77"/>
-      <c r="V156" s="77"/>
-      <c r="W156" s="77"/>
-      <c r="X156" s="77"/>
-      <c r="Y156" s="77"/>
+      <c r="O156" s="80"/>
+      <c r="P156" s="80"/>
+      <c r="Q156" s="82"/>
+      <c r="R156" s="82"/>
+      <c r="S156" s="82"/>
+      <c r="T156" s="82"/>
+      <c r="U156" s="82"/>
+      <c r="V156" s="82"/>
+      <c r="W156" s="82"/>
+      <c r="X156" s="82"/>
+      <c r="Y156" s="82"/>
     </row>
     <row r="157" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4"/>
@@ -9026,40 +9661,40 @@
       <c r="A158" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B158" s="78">
+      <c r="B158" s="80">
         <v>2.4043999999999999</v>
       </c>
-      <c r="C158" s="78"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="78">
+      <c r="C158" s="80"/>
+      <c r="D158" s="80"/>
+      <c r="E158" s="80">
         <v>2.5068999999999999</v>
       </c>
-      <c r="F158" s="78"/>
-      <c r="G158" s="78"/>
-      <c r="H158" s="78">
+      <c r="F158" s="80"/>
+      <c r="G158" s="80"/>
+      <c r="H158" s="80">
         <v>2.4020000000000001</v>
       </c>
-      <c r="I158" s="78"/>
-      <c r="J158" s="78"/>
-      <c r="K158" s="78">
+      <c r="I158" s="80"/>
+      <c r="J158" s="80"/>
+      <c r="K158" s="80">
         <v>2.3433000000000002</v>
       </c>
-      <c r="L158" s="78"/>
-      <c r="M158" s="78"/>
-      <c r="N158" s="78">
+      <c r="L158" s="80"/>
+      <c r="M158" s="80"/>
+      <c r="N158" s="80">
         <v>2.3170000000000002</v>
       </c>
-      <c r="O158" s="78"/>
-      <c r="P158" s="78"/>
-      <c r="Q158" s="77"/>
-      <c r="R158" s="77"/>
-      <c r="S158" s="77"/>
-      <c r="T158" s="77"/>
-      <c r="U158" s="77"/>
-      <c r="V158" s="77"/>
-      <c r="W158" s="77"/>
-      <c r="X158" s="77"/>
-      <c r="Y158" s="77"/>
+      <c r="O158" s="80"/>
+      <c r="P158" s="80"/>
+      <c r="Q158" s="82"/>
+      <c r="R158" s="82"/>
+      <c r="S158" s="82"/>
+      <c r="T158" s="82"/>
+      <c r="U158" s="82"/>
+      <c r="V158" s="82"/>
+      <c r="W158" s="82"/>
+      <c r="X158" s="82"/>
+      <c r="Y158" s="82"/>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F159" s="4"/>
@@ -9069,40 +9704,40 @@
       <c r="A160" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B160" s="78">
+      <c r="B160" s="80">
         <v>1.9218</v>
       </c>
-      <c r="C160" s="78"/>
-      <c r="D160" s="78"/>
-      <c r="E160" s="78">
+      <c r="C160" s="80"/>
+      <c r="D160" s="80"/>
+      <c r="E160" s="80">
         <v>1.9300999999999999</v>
       </c>
-      <c r="F160" s="78"/>
-      <c r="G160" s="78"/>
-      <c r="H160" s="78">
+      <c r="F160" s="80"/>
+      <c r="G160" s="80"/>
+      <c r="H160" s="80">
         <v>1.9877</v>
       </c>
-      <c r="I160" s="78"/>
-      <c r="J160" s="78"/>
-      <c r="K160" s="78">
+      <c r="I160" s="80"/>
+      <c r="J160" s="80"/>
+      <c r="K160" s="80">
         <v>1.9297</v>
       </c>
-      <c r="L160" s="78"/>
-      <c r="M160" s="78"/>
-      <c r="N160" s="78">
+      <c r="L160" s="80"/>
+      <c r="M160" s="80"/>
+      <c r="N160" s="80">
         <v>1.9988999999999999</v>
       </c>
-      <c r="O160" s="78"/>
-      <c r="P160" s="78"/>
-      <c r="Q160" s="77"/>
-      <c r="R160" s="77"/>
-      <c r="S160" s="77"/>
-      <c r="T160" s="77"/>
-      <c r="U160" s="77"/>
-      <c r="V160" s="77"/>
-      <c r="W160" s="77"/>
-      <c r="X160" s="77"/>
-      <c r="Y160" s="77"/>
+      <c r="O160" s="80"/>
+      <c r="P160" s="80"/>
+      <c r="Q160" s="82"/>
+      <c r="R160" s="82"/>
+      <c r="S160" s="82"/>
+      <c r="T160" s="82"/>
+      <c r="U160" s="82"/>
+      <c r="V160" s="82"/>
+      <c r="W160" s="82"/>
+      <c r="X160" s="82"/>
+      <c r="Y160" s="82"/>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F161" s="4"/>
@@ -9160,7 +9795,9 @@
       <c r="Q162" s="73">
         <v>19886.439999999999</v>
       </c>
-      <c r="R162" s="73"/>
+      <c r="R162" s="73">
+        <v>23064</v>
+      </c>
       <c r="S162" s="73"/>
       <c r="T162" s="73"/>
       <c r="U162" s="73"/>
@@ -9224,7 +9861,9 @@
       <c r="Q164" s="73">
         <v>4109.29</v>
       </c>
-      <c r="R164" s="73"/>
+      <c r="R164" s="73">
+        <v>5149</v>
+      </c>
       <c r="S164" s="73"/>
       <c r="T164" s="73"/>
       <c r="U164" s="73"/>
@@ -9233,1531 +9872,1796 @@
       <c r="X164" s="73"/>
       <c r="Y164" s="73"/>
     </row>
-    <row r="165" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A166" s="7" t="s">
+    <row r="166" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="B166" s="73">
+        <v>24948</v>
+      </c>
+      <c r="C166" s="73">
+        <v>25238</v>
+      </c>
+      <c r="D166" s="73">
+        <v>26189</v>
+      </c>
+      <c r="E166" s="73">
+        <v>25331</v>
+      </c>
+      <c r="F166" s="73">
+        <v>25558</v>
+      </c>
+      <c r="G166" s="73">
+        <v>26335</v>
+      </c>
+      <c r="H166" s="73">
+        <v>24931</v>
+      </c>
+      <c r="I166" s="73">
+        <v>25132</v>
+      </c>
+      <c r="J166" s="73">
+        <v>25213</v>
+      </c>
+      <c r="K166" s="73">
+        <v>24458</v>
+      </c>
+      <c r="L166" s="73">
+        <v>24164</v>
+      </c>
+      <c r="M166" s="73">
+        <v>25227</v>
+      </c>
+      <c r="N166" s="73">
+        <v>26232</v>
+      </c>
+      <c r="O166" s="73">
+        <v>26551</v>
+      </c>
+      <c r="P166" s="73">
+        <v>28621</v>
+      </c>
+      <c r="Q166" s="73">
+        <v>28036</v>
+      </c>
+      <c r="R166" s="73">
+        <v>27841</v>
+      </c>
+      <c r="S166" s="73"/>
+      <c r="T166" s="73"/>
+      <c r="U166" s="73"/>
+      <c r="V166" s="73"/>
+      <c r="W166" s="73"/>
+      <c r="X166" s="73"/>
+      <c r="Y166" s="73"/>
+    </row>
+    <row r="167" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="4"/>
+      <c r="R167" s="78">
+        <f>(R166-B166)/B166</f>
+        <v>0.11596119929453262</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" s="73">
+        <v>56881</v>
+      </c>
+      <c r="C168" s="73">
+        <v>56818</v>
+      </c>
+      <c r="D168" s="73">
+        <v>56722</v>
+      </c>
+      <c r="E168" s="73">
+        <v>57466</v>
+      </c>
+      <c r="F168" s="73">
+        <v>58012</v>
+      </c>
+      <c r="G168" s="73">
+        <v>59830</v>
+      </c>
+      <c r="H168" s="73">
+        <v>60377</v>
+      </c>
+      <c r="I168" s="73">
+        <v>61158</v>
+      </c>
+      <c r="J168" s="73">
+        <v>61427</v>
+      </c>
+      <c r="K168" s="73">
+        <v>62057</v>
+      </c>
+      <c r="L168" s="73">
+        <v>63090</v>
+      </c>
+      <c r="M168" s="73">
+        <v>64032</v>
+      </c>
+      <c r="N168" s="73">
+        <v>65890</v>
+      </c>
+      <c r="O168" s="73">
+        <v>66395</v>
+      </c>
+      <c r="P168" s="73">
+        <v>66765</v>
+      </c>
+      <c r="Q168" s="73">
+        <v>67139</v>
+      </c>
+      <c r="R168" s="73">
+        <v>68201</v>
+      </c>
+      <c r="S168" s="73"/>
+      <c r="T168" s="73"/>
+      <c r="U168" s="73"/>
+      <c r="V168" s="73"/>
+      <c r="W168" s="73"/>
+      <c r="X168" s="73"/>
+      <c r="Y168" s="73"/>
+    </row>
+    <row r="169" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F169" s="4"/>
+      <c r="R169" s="78">
+        <f>(R168-B168)/B168</f>
+        <v>0.19901197236335508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" s="73">
+        <v>19950</v>
+      </c>
+      <c r="C170" s="73">
+        <v>20987</v>
+      </c>
+      <c r="D170" s="73">
+        <v>21126</v>
+      </c>
+      <c r="E170" s="73">
+        <v>21370</v>
+      </c>
+      <c r="F170" s="73">
+        <v>21209</v>
+      </c>
+      <c r="G170" s="73">
+        <v>21904</v>
+      </c>
+      <c r="H170" s="73">
+        <v>22087</v>
+      </c>
+      <c r="I170" s="73">
+        <v>22330</v>
+      </c>
+      <c r="J170" s="73">
+        <v>22377</v>
+      </c>
+      <c r="K170" s="73">
+        <v>22536</v>
+      </c>
+      <c r="L170" s="73">
+        <v>22546</v>
+      </c>
+      <c r="M170" s="73">
+        <v>24365</v>
+      </c>
+      <c r="N170" s="73">
+        <v>24301</v>
+      </c>
+      <c r="O170" s="73">
+        <v>24822</v>
+      </c>
+      <c r="P170" s="73">
+        <v>24897</v>
+      </c>
+      <c r="Q170" s="73">
+        <v>26654</v>
+      </c>
+      <c r="R170" s="73">
+        <v>26104</v>
+      </c>
+      <c r="S170" s="73"/>
+      <c r="T170" s="73"/>
+      <c r="U170" s="73"/>
+      <c r="V170" s="73"/>
+      <c r="W170" s="73"/>
+      <c r="X170" s="73"/>
+      <c r="Y170" s="73"/>
+    </row>
+    <row r="171" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F171" s="4"/>
+      <c r="R171" s="78">
+        <f>(R170-B170)/B170</f>
+        <v>0.30847117794486217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A172" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F166" s="4"/>
-      <c r="T166" s="57"/>
-      <c r="U166" s="66"/>
-    </row>
-    <row r="167" spans="1:25" s="70" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="71" t="s">
+      <c r="F172" s="4"/>
+      <c r="T172" s="57"/>
+      <c r="U172" s="66"/>
+    </row>
+    <row r="173" spans="1:25" s="70" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="C168" s="71" t="s">
+      <c r="C174" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="D168" s="71" t="s">
+      <c r="D174" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="E168" s="71" t="s">
+      <c r="E174" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="F168" s="71" t="s">
+      <c r="F174" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="G168" s="71" t="s">
+      <c r="G174" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="H168" s="71" t="s">
+      <c r="H174" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="I168" s="71" t="s">
+      <c r="I174" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="J168" s="71" t="s">
+      <c r="J174" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="K168" s="71" t="s">
+      <c r="K174" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="L168" s="71" t="s">
+      <c r="L174" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="M168" s="71" t="s">
+      <c r="M174" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="N168" s="71" t="s">
+      <c r="N174" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="O168" s="71" t="s">
+      <c r="O174" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="P168" s="71" t="s">
+      <c r="P174" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="Q168" s="71" t="s">
+      <c r="Q174" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="R168" s="71" t="s">
+      <c r="R174" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="S168" s="71" t="s">
+      <c r="S174" s="71" t="s">
         <v>283</v>
       </c>
-      <c r="T168" s="71" t="s">
+      <c r="T174" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="U168" s="71" t="s">
+      <c r="U174" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="V168" s="71" t="s">
+      <c r="V174" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="W168" s="71" t="s">
+      <c r="W174" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="X168" s="71" t="s">
+      <c r="X174" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="Y168" s="71" t="s">
+      <c r="Y174" s="71" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
+    <row r="175" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B169" s="70">
+      <c r="B175" s="70">
         <v>14710</v>
       </c>
-      <c r="C169" s="76">
+      <c r="C175" s="76">
         <v>14724</v>
       </c>
-      <c r="D169" s="76">
+      <c r="D175" s="76">
         <v>14759</v>
       </c>
-      <c r="E169" s="76">
+      <c r="E175" s="76">
         <v>14800</v>
       </c>
-      <c r="F169" s="76">
+      <c r="F175" s="76">
         <v>14836</v>
       </c>
-      <c r="G169" s="76">
+      <c r="G175" s="76">
         <v>14891</v>
       </c>
-      <c r="H169" s="76">
+      <c r="H175" s="76">
         <v>14948</v>
       </c>
-      <c r="I169" s="76">
+      <c r="I175" s="76">
         <v>15004</v>
       </c>
-      <c r="J169" s="76">
+      <c r="J175" s="76">
         <v>15051</v>
       </c>
-      <c r="K169" s="76">
+      <c r="K175" s="76">
         <v>15073</v>
       </c>
-      <c r="L169" s="76">
+      <c r="L175" s="76">
         <v>15105</v>
       </c>
-      <c r="M169" s="76">
+      <c r="M175" s="76">
         <v>15168</v>
       </c>
-      <c r="N169" s="76">
+      <c r="N175" s="76">
         <v>15209</v>
       </c>
-      <c r="O169" s="76">
+      <c r="O175" s="76">
         <v>15173</v>
       </c>
-      <c r="P169" s="76">
+      <c r="P175" s="76">
         <v>15195</v>
       </c>
-      <c r="Q169" s="76">
+      <c r="Q175" s="76">
         <v>15233</v>
       </c>
-      <c r="R169" s="76">
+      <c r="R175" s="76">
         <v>15280</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="2" t="s">
+      <c r="S175" s="77">
+        <v>15461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F170" s="4"/>
-    </row>
-    <row r="171" spans="1:25" ht="30" x14ac:dyDescent="0.15">
-      <c r="A171" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B171" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C171" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="D171" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E171" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F171" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="G171" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="H171" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="I171" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="J171" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="K171" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="L171" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="M171" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N171" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O171" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P171" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q171" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="R171" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="T171" s="57"/>
-    </row>
-    <row r="172" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A172" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="B172" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="C172" s="74">
-        <v>-0.2</v>
-      </c>
-      <c r="D172" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="E172" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="F172" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G172" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="H172" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="I172" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="J172" s="74">
-        <v>0</v>
-      </c>
-      <c r="K172" s="74">
-        <v>-0.2</v>
-      </c>
-      <c r="L172" s="74">
-        <v>1.7</v>
-      </c>
-      <c r="M172" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="N172" s="74">
-        <v>0</v>
-      </c>
-      <c r="O172" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="P172" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q172" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="R172" s="74">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" ht="30" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B173" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D173" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E173" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F173" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="G173" s="1">
-        <v>2</v>
-      </c>
-      <c r="H173" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="I173" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J173" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="K173" s="1">
-        <v>3</v>
-      </c>
-      <c r="L173" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="M173" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N173" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="O173" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P173" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="Q173" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="R173" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="T173" s="57"/>
-    </row>
-    <row r="174" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A174" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="B174" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="C174" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="D174" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="E174" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="F174" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="G174" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="H174" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="I174" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="J174" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="K174" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="L174" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="M174" s="74">
-        <v>0</v>
-      </c>
-      <c r="N174" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="O174" s="74">
-        <v>0</v>
-      </c>
-      <c r="P174" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="Q174" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="R174" s="74">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" ht="30" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B175" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C175" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="D175" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="E175" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="F175" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="G175" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H175" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I175" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="J175" s="1">
-        <v>9</v>
-      </c>
-      <c r="K175" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L175" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="M175" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="N175" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="O175" s="1">
-        <v>3</v>
-      </c>
-      <c r="P175" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="Q175" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="R175" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="T175" s="57"/>
-    </row>
-    <row r="176" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A176" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="B176" s="74">
-        <v>0.9</v>
-      </c>
-      <c r="C176" s="74">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D176" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="E176" s="74">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F176" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G176" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="H176" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="I176" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="J176" s="74">
-        <v>0</v>
-      </c>
-      <c r="K176" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="L176" s="74">
-        <v>-0.5</v>
-      </c>
-      <c r="M176" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="N176" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="O176" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="P176" s="74">
-        <v>-0.5</v>
-      </c>
-      <c r="Q176" s="74">
-        <v>0</v>
-      </c>
-      <c r="R176" s="74">
-        <v>0.3</v>
-      </c>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:20" ht="30" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B177" s="1">
-        <v>-0.1</v>
+        <v>2.8</v>
       </c>
       <c r="C177" s="1">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="D177" s="1">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="E177" s="1">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="F177" s="4">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="G177" s="1">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H177" s="1">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="I177" s="1">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="J177" s="1">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="K177" s="1">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="L177" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="M177" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N177" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O177" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P177" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q177" s="1">
         <v>3.3</v>
       </c>
-      <c r="M177" s="1">
+      <c r="R177" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S177" s="77">
         <v>3.6</v>
-      </c>
-      <c r="N177" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="O177" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="P177" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="Q177" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="R177" s="1">
-        <v>4.9000000000000004</v>
       </c>
       <c r="T177" s="57"/>
     </row>
     <row r="178" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A178" s="74" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B178" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="C178" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="D178" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="E178" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G178" s="74">
         <v>-0.1</v>
       </c>
-      <c r="C178" s="74">
+      <c r="H178" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="I178" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="J178" s="74">
         <v>0</v>
       </c>
-      <c r="D178" s="74">
+      <c r="K178" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="L178" s="74">
+        <v>1.7</v>
+      </c>
+      <c r="M178" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="N178" s="74">
+        <v>0</v>
+      </c>
+      <c r="O178" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="P178" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="74">
         <v>-0.3</v>
       </c>
-      <c r="E178" s="74">
+      <c r="R178" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S178" s="77">
         <v>0.4</v>
       </c>
-      <c r="F178" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G178" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="H178" s="74">
-        <v>0</v>
-      </c>
-      <c r="I178" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="J178" s="74">
+    </row>
+    <row r="179" spans="1:20" ht="30" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D179" s="1">
         <v>1.2</v>
       </c>
-      <c r="K178" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="L178" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="M178" s="74">
-        <v>0.7</v>
-      </c>
-      <c r="N178" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="O178" s="74">
-        <v>0</v>
-      </c>
-      <c r="P178" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="Q178" s="74">
-        <v>0</v>
-      </c>
-      <c r="R178" s="74">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" ht="30" x14ac:dyDescent="0.15">
-      <c r="A179" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F179" s="4"/>
+      <c r="E179" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F179" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="G179" s="1">
+        <v>2</v>
+      </c>
+      <c r="H179" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I179" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J179" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="K179" s="1">
+        <v>3</v>
+      </c>
+      <c r="L179" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M179" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N179" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="O179" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P179" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="R179" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="S179" s="77">
+        <v>3.7</v>
+      </c>
       <c r="T179" s="57"/>
     </row>
     <row r="180" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A180" s="74" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B180" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="C180" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="D180" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="E180" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="F180" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G180" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="H180" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="I180" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="J180" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="K180" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="L180" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="M180" s="74">
+        <v>0</v>
+      </c>
+      <c r="N180" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="O180" s="74">
+        <v>0</v>
+      </c>
+      <c r="P180" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="Q180" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="R180" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="S180" s="77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="30" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B181" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C181" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="D181" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="E181" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="F181" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H181" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I181" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="J181" s="1">
+        <v>9</v>
+      </c>
+      <c r="K181" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L181" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="M181" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="N181" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="O181" s="1">
+        <v>3</v>
+      </c>
+      <c r="P181" s="1">
         <v>1.7</v>
       </c>
-      <c r="C180" s="74">
-        <v>1.6</v>
-      </c>
-      <c r="D180" s="74">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E180" s="74">
-        <v>3</v>
-      </c>
-      <c r="F180" s="74">
-        <v>4</v>
-      </c>
-      <c r="G180" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="H180" s="74">
-        <v>5.7</v>
-      </c>
-      <c r="I180" s="74">
-        <v>5.4</v>
-      </c>
-      <c r="J180" s="74">
-        <v>5.8</v>
-      </c>
-      <c r="K180" s="74">
-        <v>5.7</v>
-      </c>
-      <c r="L180" s="74">
-        <v>4</v>
-      </c>
-      <c r="M180" s="74">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N180" s="74">
-        <v>3.3</v>
-      </c>
-      <c r="O180" s="74">
-        <v>3.2</v>
-      </c>
-      <c r="P180" s="74">
-        <v>3.3</v>
-      </c>
-      <c r="Q180" s="74">
-        <v>4.5</v>
-      </c>
-      <c r="R180" s="74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A181" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="B181" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="C181" s="74">
-        <v>0</v>
-      </c>
-      <c r="D181" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="E181" s="74">
+      <c r="Q181" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="R181" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S181" s="77">
         <v>0.5</v>
       </c>
-      <c r="F181" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="G181" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H181" s="74">
-        <v>1.2</v>
-      </c>
-      <c r="I181" s="74">
-        <v>-0.2</v>
-      </c>
-      <c r="J181" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="K181" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="L181" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="M181" s="74">
-        <v>0</v>
-      </c>
-      <c r="N181" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="O181" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="P181" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="Q181" s="74">
-        <v>1.8</v>
-      </c>
-      <c r="R181" s="74">
-        <v>1.2</v>
-      </c>
+      <c r="T181" s="57"/>
     </row>
     <row r="182" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A182" s="74" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B182" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="C182" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D182" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="E182" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F182" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G182" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="H182" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="I182" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="J182" s="74">
+        <v>0</v>
+      </c>
+      <c r="K182" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="L182" s="74">
+        <v>-0.5</v>
+      </c>
+      <c r="M182" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="N182" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="O182" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="P182" s="74">
+        <v>-0.5</v>
+      </c>
+      <c r="Q182" s="74">
+        <v>0</v>
+      </c>
+      <c r="R182" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="S182" s="77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" ht="30" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B183" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F183" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J183" s="1">
+        <v>2</v>
+      </c>
+      <c r="K183" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="L183" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="M183" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N183" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="O183" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="P183" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="Q183" s="1">
         <v>4.8</v>
       </c>
-      <c r="C182" s="74">
-        <v>6</v>
-      </c>
-      <c r="D182" s="74">
-        <v>6.7</v>
-      </c>
-      <c r="E182" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="F182" s="74">
-        <v>7.4</v>
-      </c>
-      <c r="G182" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="H182" s="74">
-        <v>7.8</v>
-      </c>
-      <c r="I182" s="74">
-        <v>6.9</v>
-      </c>
-      <c r="J182" s="74">
-        <v>5.7</v>
-      </c>
-      <c r="K182" s="74">
-        <v>4.8</v>
-      </c>
-      <c r="L182" s="74">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M182" s="74">
-        <v>3.9</v>
-      </c>
-      <c r="N182" s="74">
-        <v>3.7</v>
-      </c>
-      <c r="O182" s="74">
-        <v>2.9</v>
-      </c>
-      <c r="P182" s="74">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q182" s="74">
-        <v>1.3</v>
-      </c>
-      <c r="R182" s="74">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A183" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="B183" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="C183" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="D183" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="E183" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="F183" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="G183" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H183" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="I183" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="J183" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="K183" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="L183" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="M183" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="N183" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="O183" s="74">
-        <v>0</v>
-      </c>
-      <c r="P183" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="Q183" s="74">
-        <v>-0.5</v>
-      </c>
-      <c r="R183" s="74">
-        <v>-0.1</v>
-      </c>
+      <c r="R183" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S183" s="77">
+        <v>5.3</v>
+      </c>
+      <c r="T183" s="57"/>
     </row>
     <row r="184" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A184" s="74" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B184" s="74">
-        <v>1.1000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="C184" s="74">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D184" s="74">
-        <v>1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="E184" s="74">
-        <v>2.4</v>
-      </c>
-      <c r="F184" s="74">
-        <v>2.1</v>
-      </c>
-      <c r="G184" s="4">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
+      </c>
+      <c r="F184" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G184" s="74">
+        <v>0.5</v>
       </c>
       <c r="H184" s="74">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I184" s="74">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="J184" s="74">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="K184" s="74">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="L184" s="74">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="M184" s="74">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="N184" s="74">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="O184" s="74">
+        <v>0</v>
+      </c>
+      <c r="P184" s="74">
         <v>0.5</v>
       </c>
-      <c r="P184" s="74">
-        <v>0.1</v>
-      </c>
       <c r="Q184" s="74">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="R184" s="74">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A185" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="B185" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="C185" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="D185" s="74">
         <v>0.3</v>
       </c>
-      <c r="E185" s="74">
-        <v>0.7</v>
-      </c>
-      <c r="F185" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="G185" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H185" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="I185" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="J185" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="K185" s="74">
-        <v>-0.4</v>
-      </c>
-      <c r="L185" s="74">
-        <v>0</v>
-      </c>
-      <c r="M185" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="N185" s="74">
-        <v>-0.2</v>
-      </c>
-      <c r="O185" s="74">
-        <v>-0.4</v>
-      </c>
-      <c r="P185" s="74">
-        <v>-0.1</v>
-      </c>
-      <c r="Q185" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="R185" s="74">
-        <v>0.4</v>
-      </c>
+      <c r="S184" s="77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="30" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="S185" s="77"/>
+      <c r="T185" s="57"/>
     </row>
     <row r="186" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A186" s="74" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B186" s="74">
-        <v>-0.3</v>
+        <v>1.7</v>
       </c>
       <c r="C186" s="74">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="D186" s="74">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E186" s="74">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="F186" s="74">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="G186" s="4">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H186" s="74">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="I186" s="74">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="J186" s="74">
+        <v>5.8</v>
+      </c>
+      <c r="K186" s="74">
+        <v>5.7</v>
+      </c>
+      <c r="L186" s="74">
+        <v>4</v>
+      </c>
+      <c r="M186" s="74">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N186" s="74">
         <v>3.3</v>
       </c>
-      <c r="K186" s="74">
-        <v>2.7</v>
-      </c>
-      <c r="L186" s="74">
-        <v>2.9</v>
-      </c>
-      <c r="M186" s="74">
-        <v>3.9</v>
-      </c>
-      <c r="N186" s="74">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="O186" s="74">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P186" s="74">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q186" s="74">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="R186" s="74">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="S186" s="77">
+        <v>6.1</v>
       </c>
     </row>
     <row r="187" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A187" s="74" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B187" s="74">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="C187" s="74">
+        <v>0</v>
+      </c>
+      <c r="D187" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="E187" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="F187" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H187" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="I187" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="J187" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="K187" s="74">
         <v>0.2</v>
       </c>
-      <c r="D187" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="E187" s="74">
-        <v>0.6</v>
-      </c>
-      <c r="F187" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="G187" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="H187" s="74">
-        <v>1.4</v>
-      </c>
-      <c r="I187" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="J187" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="K187" s="74">
-        <v>-0.7</v>
-      </c>
       <c r="L187" s="74">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M187" s="74">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N187" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="O187" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="P187" s="74">
         <v>0.2</v>
       </c>
-      <c r="O187" s="74">
-        <v>0</v>
-      </c>
-      <c r="P187" s="74">
-        <v>0</v>
-      </c>
       <c r="Q187" s="74">
-        <v>-0.1</v>
+        <v>1.8</v>
       </c>
       <c r="R187" s="74">
-        <v>0.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="S187" s="77">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A188" s="74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B188" s="74">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="C188" s="74">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="D188" s="74">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="E188" s="74">
-        <v>10.4</v>
+        <v>7.4</v>
       </c>
       <c r="F188" s="74">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="G188" s="4">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H188" s="74">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="I188" s="74">
-        <v>5.0999999999999996</v>
+        <v>6.9</v>
       </c>
       <c r="J188" s="74">
+        <v>5.7</v>
+      </c>
+      <c r="K188" s="74">
         <v>4.8</v>
       </c>
-      <c r="K188" s="74">
-        <v>3.8</v>
-      </c>
       <c r="L188" s="74">
-        <v>2.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M188" s="74">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="N188" s="74">
+        <v>3.7</v>
+      </c>
+      <c r="O188" s="74">
+        <v>2.9</v>
+      </c>
+      <c r="P188" s="74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q188" s="74">
+        <v>1.3</v>
+      </c>
+      <c r="R188" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S188" s="77">
         <v>1.4</v>
-      </c>
-      <c r="O188" s="74">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P188" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="Q188" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="R188" s="74">
-        <v>-0.2</v>
       </c>
     </row>
     <row r="189" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A189" s="74" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B189" s="74">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C189" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="D189" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E189" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="F189" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H189" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="I189" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="J189" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="K189" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="L189" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="M189" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="N189" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="O189" s="74">
         <v>0</v>
       </c>
-      <c r="D189" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="E189" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="F189" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="G189" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H189" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="I189" s="74">
-        <v>0.3</v>
-      </c>
-      <c r="J189" s="74">
-        <v>0.2</v>
-      </c>
-      <c r="K189" s="74">
-        <v>0</v>
-      </c>
-      <c r="L189" s="74">
+      <c r="P189" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="Q189" s="74">
         <v>-0.5</v>
       </c>
-      <c r="M189" s="74">
-        <v>-0.4</v>
-      </c>
-      <c r="N189" s="74">
-        <v>0</v>
-      </c>
-      <c r="O189" s="74">
-        <v>-0.3</v>
-      </c>
-      <c r="P189" s="74">
-        <v>-0.2</v>
-      </c>
-      <c r="Q189" s="74">
-        <v>0.1</v>
-      </c>
       <c r="R189" s="74">
-        <v>-0.2</v>
+        <v>-0.1</v>
+      </c>
+      <c r="S189" s="77">
+        <v>0.7</v>
       </c>
     </row>
     <row r="190" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A190" s="74" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B190" s="74">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C190" s="74">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="D190" s="74">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="E190" s="74">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="F190" s="74">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="G190" s="4">
-        <v>9.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H190" s="74">
-        <v>8.8000000000000007</v>
+        <v>1.9</v>
       </c>
       <c r="I190" s="74">
-        <v>8.1999999999999993</v>
+        <v>1.8</v>
       </c>
       <c r="J190" s="74">
-        <v>8.1999999999999993</v>
+        <v>1.7</v>
       </c>
       <c r="K190" s="74">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="L190" s="74">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="M190" s="74">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="N190" s="74">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="O190" s="74">
-        <v>4.4000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="P190" s="74">
-        <v>5.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q190" s="74">
-        <v>5.2</v>
+        <v>-0.4</v>
       </c>
       <c r="R190" s="74">
-        <v>5.0999999999999996</v>
+        <v>-0.3</v>
+      </c>
+      <c r="S190" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A191" s="74" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B191" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="C191" s="74">
         <v>0.4</v>
       </c>
-      <c r="C191" s="74">
-        <v>0.5</v>
-      </c>
       <c r="D191" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="E191" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="F191" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G191" s="4">
         <v>0.4</v>
       </c>
-      <c r="E191" s="74">
-        <v>1</v>
-      </c>
-      <c r="F191" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="G191" s="4">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="H191" s="74">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="I191" s="74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J191" s="74">
         <v>0.2</v>
       </c>
       <c r="K191" s="74">
+        <v>-0.4</v>
+      </c>
+      <c r="L191" s="74">
+        <v>0</v>
+      </c>
+      <c r="M191" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="N191" s="74">
         <v>-0.2</v>
       </c>
-      <c r="L191" s="74">
+      <c r="O191" s="74">
+        <v>-0.4</v>
+      </c>
+      <c r="P191" s="74">
         <v>-0.1</v>
       </c>
-      <c r="M191" s="74">
+      <c r="Q191" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="R191" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="S191" s="77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A192" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="C192" s="74">
+        <v>0</v>
+      </c>
+      <c r="D192" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="E192" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F192" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="H192" s="74">
+        <v>2.6</v>
+      </c>
+      <c r="I192" s="74">
+        <v>3.6</v>
+      </c>
+      <c r="J192" s="74">
+        <v>3.3</v>
+      </c>
+      <c r="K192" s="74">
+        <v>2.7</v>
+      </c>
+      <c r="L192" s="74">
+        <v>2.9</v>
+      </c>
+      <c r="M192" s="74">
+        <v>3.9</v>
+      </c>
+      <c r="N192" s="74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O192" s="74">
+        <v>4.2</v>
+      </c>
+      <c r="P192" s="74">
+        <v>3.5</v>
+      </c>
+      <c r="Q192" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="R192" s="74">
+        <v>3</v>
+      </c>
+      <c r="S192" s="77">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A193" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B193" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="C193" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="D193" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E193" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="F193" s="74">
         <v>0.3</v>
       </c>
-      <c r="N191" s="74">
+      <c r="G193" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H193" s="74">
+        <v>1.4</v>
+      </c>
+      <c r="I193" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="J193" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="K193" s="74">
+        <v>-0.7</v>
+      </c>
+      <c r="L193" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="M193" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="N193" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="O193" s="74">
+        <v>0</v>
+      </c>
+      <c r="P193" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="R193" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S193" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A194" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B194" s="74">
+        <v>10</v>
+      </c>
+      <c r="C194" s="74">
+        <v>9.9</v>
+      </c>
+      <c r="D194" s="74">
+        <v>10.5</v>
+      </c>
+      <c r="E194" s="74">
+        <v>10.4</v>
+      </c>
+      <c r="F194" s="74">
+        <v>8.9</v>
+      </c>
+      <c r="G194" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H194" s="74">
+        <v>6.4</v>
+      </c>
+      <c r="I194" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J194" s="74">
+        <v>4.8</v>
+      </c>
+      <c r="K194" s="74">
+        <v>3.8</v>
+      </c>
+      <c r="L194" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="M194" s="74">
+        <v>1.7</v>
+      </c>
+      <c r="N194" s="74">
+        <v>1.4</v>
+      </c>
+      <c r="O194" s="74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P194" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="Q194" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="R194" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="S194" s="77">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A195" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="B195" s="74">
         <v>0.3</v>
       </c>
-      <c r="O191" s="74">
+      <c r="C195" s="74">
+        <v>0</v>
+      </c>
+      <c r="D195" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="E195" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="F195" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="G195" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H195" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="I195" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="J195" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="K195" s="74">
+        <v>0</v>
+      </c>
+      <c r="L195" s="74">
+        <v>-0.5</v>
+      </c>
+      <c r="M195" s="74">
+        <v>-0.4</v>
+      </c>
+      <c r="N195" s="74">
+        <v>0</v>
+      </c>
+      <c r="O195" s="74">
+        <v>-0.3</v>
+      </c>
+      <c r="P195" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="Q195" s="74">
         <v>0.1</v>
       </c>
-      <c r="P191" s="74">
+      <c r="R195" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="S195" s="77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A196" s="74" t="s">
+        <v>337</v>
+      </c>
+      <c r="B196" s="74">
+        <v>6</v>
+      </c>
+      <c r="C196" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="D196" s="74">
+        <v>6.6</v>
+      </c>
+      <c r="E196" s="74">
+        <v>7.7</v>
+      </c>
+      <c r="F196" s="74">
+        <v>8.5</v>
+      </c>
+      <c r="G196" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="H196" s="74">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I196" s="74">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J196" s="74">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K196" s="74">
+        <v>6.7</v>
+      </c>
+      <c r="L196" s="74">
+        <v>5.8</v>
+      </c>
+      <c r="M196" s="74">
+        <v>5</v>
+      </c>
+      <c r="N196" s="74">
+        <v>5</v>
+      </c>
+      <c r="O196" s="74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P196" s="74">
+        <v>5.4</v>
+      </c>
+      <c r="Q196" s="74">
+        <v>5.2</v>
+      </c>
+      <c r="R196" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S196" s="77">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A197" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="B197" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="C197" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="D197" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="E197" s="74">
+        <v>1</v>
+      </c>
+      <c r="F197" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H197" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="I197" s="74">
+        <v>0</v>
+      </c>
+      <c r="J197" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="K197" s="74">
+        <v>-0.2</v>
+      </c>
+      <c r="L197" s="74">
+        <v>-0.1</v>
+      </c>
+      <c r="M197" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="N197" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="O197" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="P197" s="74">
         <v>1.3</v>
       </c>
-      <c r="Q191" s="74">
+      <c r="Q197" s="74">
         <v>0.9</v>
       </c>
-      <c r="R191" s="74">
+      <c r="R197" s="74">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="C193" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="D193" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="E193" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="F193" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="G193" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="H193" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="I193" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="J193" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="K193" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="L193" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="M193" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="N193" s="71" t="s">
-        <v>265</v>
-      </c>
-      <c r="O193" s="71" t="s">
-        <v>279</v>
-      </c>
-      <c r="P193" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q193" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="R193" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="S193" s="71" t="s">
-        <v>283</v>
-      </c>
-      <c r="T193" s="71" t="s">
-        <v>284</v>
-      </c>
-      <c r="U193" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="V193" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="W193" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="X193" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y193" s="71" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A194" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="C194" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="D194" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="E194" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="F194" s="4">
-        <v>11.2</v>
-      </c>
-      <c r="G194" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="H194" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="I194" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="J194" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="K194" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="L194" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M194" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="O194" s="1">
-        <v>-16.3</v>
-      </c>
-      <c r="P194" s="1">
-        <v>-7.7</v>
-      </c>
-      <c r="Q194" s="1">
-        <v>-3.3</v>
-      </c>
-      <c r="R194" s="1">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" ht="30" x14ac:dyDescent="0.15">
-      <c r="A195" s="74" t="s">
-        <v>340</v>
-      </c>
-      <c r="C195" s="1">
-        <v>-3.6</v>
-      </c>
-      <c r="D195" s="1">
-        <v>-0.9</v>
-      </c>
-      <c r="E195" s="1">
-        <v>-0.3</v>
-      </c>
-      <c r="F195" s="4">
-        <v>-1.6</v>
-      </c>
-      <c r="G195" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="H195" s="1">
-        <v>-1.3</v>
-      </c>
-      <c r="I195" s="1">
-        <v>-0.6</v>
-      </c>
-      <c r="J195" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="K195" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L195" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M195" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="O195" s="1">
-        <v>-39.9</v>
-      </c>
-      <c r="P195" s="1">
-        <v>-26.3</v>
-      </c>
-      <c r="Q195" s="1">
-        <v>-19.3</v>
-      </c>
-      <c r="R195" s="1">
-        <v>-12.3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" ht="30" x14ac:dyDescent="0.15">
-      <c r="A196" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="C196" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="D196" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="E196" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="F196" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="G196" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="H196" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="I196" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="J196" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="K196" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="L196" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="M196" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="O196" s="1">
-        <v>-35.9</v>
-      </c>
-      <c r="P196" s="1">
-        <v>-24.7</v>
-      </c>
-      <c r="Q196" s="1">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="R196" s="1">
-        <v>-10.6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F197" s="4"/>
+      <c r="S197" s="77">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F199" s="4"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="F202" s="4"/>
+    <row r="199" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C199" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D199" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="E199" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F199" s="71" t="s">
+        <v>271</v>
+      </c>
+      <c r="G199" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="H199" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="I199" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="J199" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="K199" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="L199" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="M199" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="N199" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="O199" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="P199" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q199" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="R199" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="S199" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="T199" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="U199" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="V199" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="W199" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="X199" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y199" s="71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A200" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C200" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="D200" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="E200" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="F200" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="G200" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="H200" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="I200" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="J200" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K200" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="L200" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M200" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="O200" s="1">
+        <v>-16.3</v>
+      </c>
+      <c r="P200" s="1">
+        <v>-7.7</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>-3.3</v>
+      </c>
+      <c r="R200" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="S200" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" ht="30" x14ac:dyDescent="0.15">
+      <c r="A201" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="E201" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="F201" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="G201" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="H201" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="I201" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="J201" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L201" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M201" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="O201" s="1">
+        <v>-39.9</v>
+      </c>
+      <c r="P201" s="1">
+        <v>-26.3</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>-19.3</v>
+      </c>
+      <c r="R201" s="1">
+        <v>-12.3</v>
+      </c>
+      <c r="S201" s="1">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" ht="30" x14ac:dyDescent="0.15">
+      <c r="A202" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E202" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F202" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="G202" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="I202" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J202" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="K202" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="L202" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="M202" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="O202" s="1">
+        <v>-35.9</v>
+      </c>
+      <c r="P202" s="1">
+        <v>-24.7</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="R202" s="1">
+        <v>-10.6</v>
+      </c>
+      <c r="S202" s="1">
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F203" s="4"/>
@@ -11059,14 +11963,79 @@
     <row r="302" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F302" s="4"/>
     </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F308" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:V158"/>
+    <mergeCell ref="W158:Y158"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:M160"/>
+    <mergeCell ref="N160:P160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="T160:V160"/>
+    <mergeCell ref="W160:Y160"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="T152:V152"/>
+    <mergeCell ref="W152:Y152"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="E154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:M154"/>
+    <mergeCell ref="N154:P154"/>
+    <mergeCell ref="Q154:S154"/>
+    <mergeCell ref="T154:V154"/>
+    <mergeCell ref="W154:Y154"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="N152:P152"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="T156:V156"/>
+    <mergeCell ref="W156:Y156"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="N146:P146"/>
+    <mergeCell ref="Q146:S146"/>
+    <mergeCell ref="T146:V146"/>
+    <mergeCell ref="W146:Y146"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="E156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="K156:M156"/>
+    <mergeCell ref="N156:P156"/>
     <mergeCell ref="Q144:S144"/>
     <mergeCell ref="T144:V144"/>
     <mergeCell ref="W144:Y144"/>
@@ -11083,59 +12052,12 @@
     <mergeCell ref="W148:Y148"/>
     <mergeCell ref="B144:D144"/>
     <mergeCell ref="E144:G144"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="E156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="K156:M156"/>
-    <mergeCell ref="N156:P156"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="T156:V156"/>
-    <mergeCell ref="W156:Y156"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="Q146:S146"/>
-    <mergeCell ref="T146:V146"/>
-    <mergeCell ref="W146:Y146"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="T152:V152"/>
-    <mergeCell ref="W152:Y152"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="E154:G154"/>
-    <mergeCell ref="H154:J154"/>
-    <mergeCell ref="K154:M154"/>
-    <mergeCell ref="N154:P154"/>
-    <mergeCell ref="Q154:S154"/>
-    <mergeCell ref="T154:V154"/>
-    <mergeCell ref="W154:Y154"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="N152:P152"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:V158"/>
-    <mergeCell ref="W158:Y158"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:M160"/>
-    <mergeCell ref="N160:P160"/>
-    <mergeCell ref="Q160:S160"/>
-    <mergeCell ref="T160:V160"/>
-    <mergeCell ref="W160:Y160"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A136:E136"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11208,7 +12130,7 @@
       <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="87" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11275,7 +12197,7 @@
       <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -11342,7 +12264,7 @@
       <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
@@ -11404,7 +12326,7 @@
       <c r="AA4" s="31"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
@@ -11464,7 +12386,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
@@ -11525,7 +12447,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
@@ -11534,7 +12456,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="88" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -11545,7 +12467,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="86"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
@@ -11554,7 +12476,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
@@ -11563,7 +12485,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="86"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="14" t="s">
         <v>47</v>
       </c>
@@ -11572,7 +12494,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
@@ -11581,7 +12503,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -11590,7 +12512,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="86"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="14" t="s">
         <v>47</v>
       </c>
@@ -11599,7 +12521,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="87" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -11610,7 +12532,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
       </c>
@@ -11619,7 +12541,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="85"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="15" t="s">
         <v>56</v>
       </c>
@@ -11628,7 +12550,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -11637,7 +12559,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
@@ -11646,7 +12568,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="85"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="15" t="s">
         <v>63</v>
       </c>
@@ -11655,7 +12577,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
@@ -11664,7 +12586,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="15" t="s">
         <v>66</v>
       </c>
@@ -11673,7 +12595,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="85"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="15" t="s">
         <v>66</v>
       </c>
@@ -11682,7 +12604,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="85"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -11691,7 +12613,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="88" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -11702,7 +12624,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="86"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -11711,7 +12633,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="86"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
@@ -11720,7 +12642,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="86"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="14" t="s">
         <v>72</v>
       </c>
@@ -11729,7 +12651,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="86"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="14" t="s">
         <v>72</v>
       </c>
@@ -11738,7 +12660,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="86"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="14" t="s">
         <v>72</v>
       </c>
@@ -11747,7 +12669,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="86"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="14" t="s">
         <v>73</v>
       </c>
@@ -11756,7 +12678,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="86"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="14" t="s">
         <v>73</v>
       </c>
@@ -11765,7 +12687,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="87" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -11776,7 +12698,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
@@ -11785,7 +12707,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="85"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
@@ -11794,7 +12716,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="15" t="s">
         <v>86</v>
       </c>
@@ -11803,7 +12725,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="88" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -11814,7 +12736,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="86"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="14" t="s">
         <v>93</v>
       </c>
@@ -11823,7 +12745,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="86"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="14" t="s">
         <v>93</v>
       </c>
@@ -11832,7 +12754,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="86"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="14" t="s">
         <v>94</v>
       </c>
@@ -11841,7 +12763,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="86"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="14" t="s">
         <v>94</v>
       </c>
@@ -11850,7 +12772,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="86"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="14" t="s">
         <v>94</v>
       </c>
@@ -11859,7 +12781,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="86"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="14" t="s">
         <v>94</v>
       </c>
@@ -11868,7 +12790,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="86"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="14" t="s">
         <v>94</v>
       </c>
@@ -11877,7 +12799,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="87" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -11888,7 +12810,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="85"/>
+      <c r="A46" s="87"/>
       <c r="B46" s="15" t="s">
         <v>104</v>
       </c>
@@ -11897,7 +12819,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="85"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="15" t="s">
         <v>105</v>
       </c>
@@ -11906,7 +12828,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="85"/>
+      <c r="A48" s="87"/>
       <c r="B48" s="15" t="s">
         <v>105</v>
       </c>
@@ -11915,7 +12837,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="85"/>
+      <c r="A49" s="87"/>
       <c r="B49" s="15" t="s">
         <v>106</v>
       </c>
@@ -11924,7 +12846,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="85"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="15" t="s">
         <v>106</v>
       </c>
@@ -11933,7 +12855,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="15" t="s">
         <v>107</v>
       </c>
@@ -11942,7 +12864,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="85"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="15" t="s">
         <v>107</v>
       </c>
@@ -11951,7 +12873,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="85"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="15" t="s">
         <v>107</v>
       </c>
@@ -11960,7 +12882,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="85"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="15" t="s">
         <v>108</v>
       </c>
@@ -11970,7 +12892,7 @@
     </row>
     <row r="56" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -11979,18 +12901,18 @@
       <c r="C58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="82"/>
-      <c r="I58" s="83" t="s">
+      <c r="E58" s="83"/>
+      <c r="I58" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A59" s="81"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="19" t="s">
         <v>121</v>
       </c>
@@ -12003,12 +12925,12 @@
       <c r="E59" s="21">
         <v>0.1</v>
       </c>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
     </row>
     <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A60" s="81"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="19" t="s">
         <v>122</v>
       </c>
@@ -12021,12 +12943,12 @@
       <c r="E60" s="21">
         <v>0.08</v>
       </c>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
     </row>
     <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A61" s="81"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="19" t="s">
         <v>123</v>
       </c>
@@ -12042,7 +12964,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A62" s="81"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="19" t="s">
         <v>124</v>
       </c>
@@ -12061,7 +12983,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="18">
@@ -12093,17 +13015,17 @@
       <c r="J63" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K63" s="77" t="s">
+      <c r="K63" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
+      <c r="L63" s="82"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+      <c r="O63" s="82"/>
+      <c r="P63" s="82"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64" s="80"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="18">
         <v>2</v>
       </c>
@@ -12133,15 +13055,15 @@
       <c r="J64" s="19">
         <v>31.03</v>
       </c>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77"/>
-      <c r="P64" s="77"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="82"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A65" s="80"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="18">
         <v>3</v>
       </c>
@@ -12189,7 +13111,7 @@
       </c>
     </row>
     <row r="66" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A66" s="80"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="18">
         <v>4</v>
       </c>
@@ -12244,7 +13166,7 @@
       </c>
     </row>
     <row r="67" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A67" s="80"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="18">
         <v>5</v>
       </c>
@@ -12299,7 +13221,7 @@
       </c>
     </row>
     <row r="68" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A68" s="80"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="18">
         <v>6</v>
       </c>
@@ -12354,7 +13276,7 @@
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A69" s="80"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="18">
         <v>7</v>
       </c>
@@ -12409,7 +13331,7 @@
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A70" s="80"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="18">
         <v>8</v>
       </c>
@@ -12464,7 +13386,7 @@
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A71" s="80"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="18">
         <v>9</v>
       </c>
@@ -12490,7 +13412,7 @@
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A72" s="80"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="18">
         <v>10</v>
       </c>
@@ -12891,7 +13813,7 @@
     </row>
     <row r="85" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -12900,18 +13822,18 @@
       <c r="C87" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="82" t="s">
+      <c r="D87" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="82"/>
-      <c r="I87" s="83" t="s">
+      <c r="E87" s="83"/>
+      <c r="I87" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J87" s="84"/>
-      <c r="K87" s="84"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
     </row>
     <row r="88" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="81"/>
+      <c r="A88" s="89"/>
       <c r="B88" s="19" t="s">
         <v>121</v>
       </c>
@@ -12924,12 +13846,12 @@
       <c r="E88" s="21">
         <v>0.2</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-      <c r="K88" s="84"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
     </row>
     <row r="89" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A89" s="81"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="19" t="s">
         <v>122</v>
       </c>
@@ -12942,12 +13864,12 @@
       <c r="E89" s="21">
         <v>0.08</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
     </row>
     <row r="90" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A90" s="81"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="19" t="s">
         <v>123</v>
       </c>
@@ -12963,7 +13885,7 @@
       </c>
     </row>
     <row r="91" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A91" s="81"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="19" t="s">
         <v>124</v>
       </c>
@@ -12982,7 +13904,7 @@
       </c>
     </row>
     <row r="92" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A92" s="80" t="s">
+      <c r="A92" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B92" s="18">
@@ -13014,17 +13936,17 @@
       <c r="J92" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K92" s="77" t="s">
+      <c r="K92" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
-      <c r="P92" s="77"/>
+      <c r="L92" s="82"/>
+      <c r="M92" s="82"/>
+      <c r="N92" s="82"/>
+      <c r="O92" s="82"/>
+      <c r="P92" s="82"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A93" s="80"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="18">
         <v>2</v>
       </c>
@@ -13054,15 +13976,15 @@
       <c r="J93" s="19">
         <v>54</v>
       </c>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
+      <c r="K93" s="82"/>
+      <c r="L93" s="82"/>
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
+      <c r="O93" s="82"/>
+      <c r="P93" s="82"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A94" s="80"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="18">
         <v>3</v>
       </c>
@@ -13110,7 +14032,7 @@
       </c>
     </row>
     <row r="95" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A95" s="80"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="18">
         <v>4</v>
       </c>
@@ -13165,7 +14087,7 @@
       </c>
     </row>
     <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A96" s="80"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="18">
         <v>5</v>
       </c>
@@ -13220,7 +14142,7 @@
       </c>
     </row>
     <row r="97" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A97" s="80"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="18">
         <v>6</v>
       </c>
@@ -13275,7 +14197,7 @@
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A98" s="80"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="18">
         <v>7</v>
       </c>
@@ -13330,7 +14252,7 @@
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A99" s="80"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="18">
         <v>8</v>
       </c>
@@ -13385,7 +14307,7 @@
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A100" s="80"/>
+      <c r="A100" s="86"/>
       <c r="B100" s="18">
         <v>9</v>
       </c>
@@ -13411,7 +14333,7 @@
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A101" s="80"/>
+      <c r="A101" s="86"/>
       <c r="B101" s="18">
         <v>10</v>
       </c>
@@ -13812,7 +14734,7 @@
     </row>
     <row r="114" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="19" t="s">
@@ -13821,18 +14743,18 @@
       <c r="C116" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="82" t="s">
+      <c r="D116" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="82"/>
-      <c r="I116" s="83" t="s">
+      <c r="E116" s="83"/>
+      <c r="I116" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="J116" s="84"/>
-      <c r="K116" s="84"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
     </row>
     <row r="117" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A117" s="81"/>
+      <c r="A117" s="89"/>
       <c r="B117" s="19" t="s">
         <v>121</v>
       </c>
@@ -13845,12 +14767,12 @@
       <c r="E117" s="21">
         <v>0.15</v>
       </c>
-      <c r="I117" s="84"/>
-      <c r="J117" s="84"/>
-      <c r="K117" s="84"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
     </row>
     <row r="118" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A118" s="81"/>
+      <c r="A118" s="89"/>
       <c r="B118" s="19" t="s">
         <v>122</v>
       </c>
@@ -13863,12 +14785,12 @@
       <c r="E118" s="21">
         <v>0.1</v>
       </c>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="84"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
     </row>
     <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A119" s="81"/>
+      <c r="A119" s="89"/>
       <c r="B119" s="19" t="s">
         <v>123</v>
       </c>
@@ -13883,7 +14805,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A120" s="81"/>
+      <c r="A120" s="89"/>
       <c r="B120" s="19" t="s">
         <v>124</v>
       </c>
@@ -13902,7 +14824,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A121" s="80" t="s">
+      <c r="A121" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="18">
@@ -13934,17 +14856,17 @@
       <c r="J121" s="19">
         <v>2.0299999999999998</v>
       </c>
-      <c r="K121" s="77" t="s">
+      <c r="K121" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L121" s="77"/>
-      <c r="M121" s="77"/>
-      <c r="N121" s="77"/>
-      <c r="O121" s="77"/>
-      <c r="P121" s="77"/>
+      <c r="L121" s="82"/>
+      <c r="M121" s="82"/>
+      <c r="N121" s="82"/>
+      <c r="O121" s="82"/>
+      <c r="P121" s="82"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A122" s="80"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="18">
         <v>2</v>
       </c>
@@ -13974,15 +14896,15 @@
       <c r="J122" s="19">
         <v>125.65</v>
       </c>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
-      <c r="M122" s="77"/>
-      <c r="N122" s="77"/>
-      <c r="O122" s="77"/>
-      <c r="P122" s="77"/>
+      <c r="K122" s="82"/>
+      <c r="L122" s="82"/>
+      <c r="M122" s="82"/>
+      <c r="N122" s="82"/>
+      <c r="O122" s="82"/>
+      <c r="P122" s="82"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A123" s="80"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="18">
         <v>3</v>
       </c>
@@ -14030,7 +14952,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A124" s="80"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="18">
         <v>4</v>
       </c>
@@ -14085,7 +15007,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A125" s="80"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="18">
         <v>5</v>
       </c>
@@ -14140,7 +15062,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A126" s="80"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="18">
         <v>6</v>
       </c>
@@ -14195,7 +15117,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A127" s="80"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="18">
         <v>7</v>
       </c>
@@ -14250,7 +15172,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A128" s="80"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="18">
         <v>8</v>
       </c>
@@ -14305,7 +15227,7 @@
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A129" s="80"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="18">
         <v>9</v>
       </c>
@@ -14331,7 +15253,7 @@
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A130" s="80"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="18">
         <v>10</v>
       </c>
@@ -14732,7 +15654,7 @@
     </row>
     <row r="143" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B145" s="55" t="s">
@@ -14741,18 +15663,18 @@
       <c r="C145" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D145" s="82" t="s">
+      <c r="D145" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="I145" s="83" t="s">
+      <c r="E145" s="83"/>
+      <c r="I145" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J145" s="84"/>
-      <c r="K145" s="84"/>
+      <c r="J145" s="85"/>
+      <c r="K145" s="85"/>
     </row>
     <row r="146" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A146" s="81"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="55" t="s">
         <v>121</v>
       </c>
@@ -14765,12 +15687,12 @@
       <c r="E146" s="21">
         <v>0.2</v>
       </c>
-      <c r="I146" s="84"/>
-      <c r="J146" s="84"/>
-      <c r="K146" s="84"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="85"/>
     </row>
     <row r="147" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A147" s="81"/>
+      <c r="A147" s="89"/>
       <c r="B147" s="55" t="s">
         <v>122</v>
       </c>
@@ -14783,12 +15705,12 @@
       <c r="E147" s="21">
         <v>0.15</v>
       </c>
-      <c r="I147" s="84"/>
-      <c r="J147" s="84"/>
-      <c r="K147" s="84"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
+      <c r="K147" s="85"/>
     </row>
     <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A148" s="81"/>
+      <c r="A148" s="89"/>
       <c r="B148" s="55" t="s">
         <v>123</v>
       </c>
@@ -14803,7 +15725,7 @@
       </c>
     </row>
     <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A149" s="81"/>
+      <c r="A149" s="89"/>
       <c r="B149" s="55" t="s">
         <v>124</v>
       </c>
@@ -14822,7 +15744,7 @@
       </c>
     </row>
     <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A150" s="80" t="s">
+      <c r="A150" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B150" s="18">
@@ -14854,17 +15776,17 @@
       <c r="J150" s="55">
         <v>2.38</v>
       </c>
-      <c r="K150" s="77" t="s">
+      <c r="K150" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L150" s="77"/>
-      <c r="M150" s="77"/>
-      <c r="N150" s="77"/>
-      <c r="O150" s="77"/>
-      <c r="P150" s="77"/>
+      <c r="L150" s="82"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="82"/>
+      <c r="P150" s="82"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A151" s="80"/>
+      <c r="A151" s="86"/>
       <c r="B151" s="18">
         <v>2</v>
       </c>
@@ -14894,15 +15816,15 @@
       <c r="J151" s="55">
         <v>140.65</v>
       </c>
-      <c r="K151" s="77"/>
-      <c r="L151" s="77"/>
-      <c r="M151" s="77"/>
-      <c r="N151" s="77"/>
-      <c r="O151" s="77"/>
-      <c r="P151" s="77"/>
+      <c r="K151" s="82"/>
+      <c r="L151" s="82"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151" s="82"/>
+      <c r="P151" s="82"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A152" s="80"/>
+      <c r="A152" s="86"/>
       <c r="B152" s="18">
         <v>3</v>
       </c>
@@ -14950,7 +15872,7 @@
       </c>
     </row>
     <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A153" s="80"/>
+      <c r="A153" s="86"/>
       <c r="B153" s="18">
         <v>4</v>
       </c>
@@ -15005,7 +15927,7 @@
       </c>
     </row>
     <row r="154" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A154" s="80"/>
+      <c r="A154" s="86"/>
       <c r="B154" s="18">
         <v>5</v>
       </c>
@@ -15060,7 +15982,7 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A155" s="80"/>
+      <c r="A155" s="86"/>
       <c r="B155" s="18">
         <v>6</v>
       </c>
@@ -15115,7 +16037,7 @@
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A156" s="80"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="18">
         <v>7</v>
       </c>
@@ -15170,7 +16092,7 @@
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A157" s="80"/>
+      <c r="A157" s="86"/>
       <c r="B157" s="18">
         <v>8</v>
       </c>
@@ -15225,7 +16147,7 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A158" s="80"/>
+      <c r="A158" s="86"/>
       <c r="B158" s="18">
         <v>9</v>
       </c>
@@ -15251,7 +16173,7 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A159" s="80"/>
+      <c r="A159" s="86"/>
       <c r="B159" s="18">
         <v>10</v>
       </c>
@@ -15652,7 +16574,7 @@
     </row>
     <row r="172" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="81" t="s">
+      <c r="A174" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B174" s="55" t="s">
@@ -15661,18 +16583,18 @@
       <c r="C174" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D174" s="82" t="s">
+      <c r="D174" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E174" s="82"/>
-      <c r="I174" s="83" t="s">
+      <c r="E174" s="83"/>
+      <c r="I174" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J174" s="84"/>
-      <c r="K174" s="84"/>
+      <c r="J174" s="85"/>
+      <c r="K174" s="85"/>
     </row>
     <row r="175" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A175" s="81"/>
+      <c r="A175" s="89"/>
       <c r="B175" s="55" t="s">
         <v>121</v>
       </c>
@@ -15685,12 +16607,12 @@
       <c r="E175" s="21">
         <v>0.15</v>
       </c>
-      <c r="I175" s="84"/>
-      <c r="J175" s="84"/>
-      <c r="K175" s="84"/>
+      <c r="I175" s="85"/>
+      <c r="J175" s="85"/>
+      <c r="K175" s="85"/>
     </row>
     <row r="176" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A176" s="81"/>
+      <c r="A176" s="89"/>
       <c r="B176" s="55" t="s">
         <v>122</v>
       </c>
@@ -15703,12 +16625,12 @@
       <c r="E176" s="21">
         <v>0.15</v>
       </c>
-      <c r="I176" s="84"/>
-      <c r="J176" s="84"/>
-      <c r="K176" s="84"/>
+      <c r="I176" s="85"/>
+      <c r="J176" s="85"/>
+      <c r="K176" s="85"/>
     </row>
     <row r="177" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A177" s="81"/>
+      <c r="A177" s="89"/>
       <c r="B177" s="55" t="s">
         <v>123</v>
       </c>
@@ -15723,7 +16645,7 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A178" s="81"/>
+      <c r="A178" s="89"/>
       <c r="B178" s="55" t="s">
         <v>124</v>
       </c>
@@ -15742,7 +16664,7 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A179" s="80" t="s">
+      <c r="A179" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B179" s="18">
@@ -15774,17 +16696,17 @@
       <c r="J179" s="55">
         <v>2.38</v>
       </c>
-      <c r="K179" s="77" t="s">
+      <c r="K179" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L179" s="77"/>
-      <c r="M179" s="77"/>
-      <c r="N179" s="77"/>
-      <c r="O179" s="77"/>
-      <c r="P179" s="77"/>
+      <c r="L179" s="82"/>
+      <c r="M179" s="82"/>
+      <c r="N179" s="82"/>
+      <c r="O179" s="82"/>
+      <c r="P179" s="82"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A180" s="80"/>
+      <c r="A180" s="86"/>
       <c r="B180" s="18">
         <v>2</v>
       </c>
@@ -15814,15 +16736,15 @@
       <c r="J180" s="55">
         <v>140.65</v>
       </c>
-      <c r="K180" s="77"/>
-      <c r="L180" s="77"/>
-      <c r="M180" s="77"/>
-      <c r="N180" s="77"/>
-      <c r="O180" s="77"/>
-      <c r="P180" s="77"/>
+      <c r="K180" s="82"/>
+      <c r="L180" s="82"/>
+      <c r="M180" s="82"/>
+      <c r="N180" s="82"/>
+      <c r="O180" s="82"/>
+      <c r="P180" s="82"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A181" s="80"/>
+      <c r="A181" s="86"/>
       <c r="B181" s="18">
         <v>3</v>
       </c>
@@ -15870,7 +16792,7 @@
       </c>
     </row>
     <row r="182" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A182" s="80"/>
+      <c r="A182" s="86"/>
       <c r="B182" s="18">
         <v>4</v>
       </c>
@@ -15925,7 +16847,7 @@
       </c>
     </row>
     <row r="183" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A183" s="80"/>
+      <c r="A183" s="86"/>
       <c r="B183" s="18">
         <v>5</v>
       </c>
@@ -15980,7 +16902,7 @@
       </c>
     </row>
     <row r="184" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A184" s="80"/>
+      <c r="A184" s="86"/>
       <c r="B184" s="18">
         <v>6</v>
       </c>
@@ -16035,7 +16957,7 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A185" s="80"/>
+      <c r="A185" s="86"/>
       <c r="B185" s="18">
         <v>7</v>
       </c>
@@ -16090,7 +17012,7 @@
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A186" s="80"/>
+      <c r="A186" s="86"/>
       <c r="B186" s="18">
         <v>8</v>
       </c>
@@ -16145,7 +17067,7 @@
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A187" s="80"/>
+      <c r="A187" s="86"/>
       <c r="B187" s="18">
         <v>9</v>
       </c>
@@ -16171,7 +17093,7 @@
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A188" s="80"/>
+      <c r="A188" s="86"/>
       <c r="B188" s="18">
         <v>10</v>
       </c>
@@ -16572,7 +17494,7 @@
     </row>
     <row r="201" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="81" t="s">
+      <c r="A203" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B203" s="55" t="s">
@@ -16581,18 +17503,18 @@
       <c r="C203" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D203" s="82" t="s">
+      <c r="D203" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E203" s="82"/>
-      <c r="I203" s="83" t="s">
+      <c r="E203" s="83"/>
+      <c r="I203" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J203" s="84"/>
-      <c r="K203" s="84"/>
+      <c r="J203" s="85"/>
+      <c r="K203" s="85"/>
     </row>
     <row r="204" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A204" s="81"/>
+      <c r="A204" s="89"/>
       <c r="B204" s="55" t="s">
         <v>121</v>
       </c>
@@ -16605,12 +17527,12 @@
       <c r="E204" s="21">
         <v>0.15</v>
       </c>
-      <c r="I204" s="84"/>
-      <c r="J204" s="84"/>
-      <c r="K204" s="84"/>
+      <c r="I204" s="85"/>
+      <c r="J204" s="85"/>
+      <c r="K204" s="85"/>
     </row>
     <row r="205" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A205" s="81"/>
+      <c r="A205" s="89"/>
       <c r="B205" s="55" t="s">
         <v>122</v>
       </c>
@@ -16623,12 +17545,12 @@
       <c r="E205" s="21">
         <v>0.15</v>
       </c>
-      <c r="I205" s="84"/>
-      <c r="J205" s="84"/>
-      <c r="K205" s="84"/>
+      <c r="I205" s="85"/>
+      <c r="J205" s="85"/>
+      <c r="K205" s="85"/>
     </row>
     <row r="206" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A206" s="81"/>
+      <c r="A206" s="89"/>
       <c r="B206" s="55" t="s">
         <v>123</v>
       </c>
@@ -16643,7 +17565,7 @@
       </c>
     </row>
     <row r="207" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A207" s="81"/>
+      <c r="A207" s="89"/>
       <c r="B207" s="55" t="s">
         <v>124</v>
       </c>
@@ -16662,7 +17584,7 @@
       </c>
     </row>
     <row r="208" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A208" s="80" t="s">
+      <c r="A208" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B208" s="18">
@@ -16694,17 +17616,17 @@
       <c r="J208" s="55">
         <v>2.38</v>
       </c>
-      <c r="K208" s="77" t="s">
+      <c r="K208" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L208" s="77"/>
-      <c r="M208" s="77"/>
-      <c r="N208" s="77"/>
-      <c r="O208" s="77"/>
-      <c r="P208" s="77"/>
+      <c r="L208" s="82"/>
+      <c r="M208" s="82"/>
+      <c r="N208" s="82"/>
+      <c r="O208" s="82"/>
+      <c r="P208" s="82"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A209" s="80"/>
+      <c r="A209" s="86"/>
       <c r="B209" s="18">
         <v>2</v>
       </c>
@@ -16734,15 +17656,15 @@
       <c r="J209" s="55">
         <v>140.65</v>
       </c>
-      <c r="K209" s="77"/>
-      <c r="L209" s="77"/>
-      <c r="M209" s="77"/>
-      <c r="N209" s="77"/>
-      <c r="O209" s="77"/>
-      <c r="P209" s="77"/>
+      <c r="K209" s="82"/>
+      <c r="L209" s="82"/>
+      <c r="M209" s="82"/>
+      <c r="N209" s="82"/>
+      <c r="O209" s="82"/>
+      <c r="P209" s="82"/>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A210" s="80"/>
+      <c r="A210" s="86"/>
       <c r="B210" s="18">
         <v>3</v>
       </c>
@@ -16790,7 +17712,7 @@
       </c>
     </row>
     <row r="211" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A211" s="80"/>
+      <c r="A211" s="86"/>
       <c r="B211" s="18">
         <v>4</v>
       </c>
@@ -16845,7 +17767,7 @@
       </c>
     </row>
     <row r="212" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A212" s="80"/>
+      <c r="A212" s="86"/>
       <c r="B212" s="18">
         <v>5</v>
       </c>
@@ -16900,7 +17822,7 @@
       </c>
     </row>
     <row r="213" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A213" s="80"/>
+      <c r="A213" s="86"/>
       <c r="B213" s="18">
         <v>6</v>
       </c>
@@ -16955,7 +17877,7 @@
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A214" s="80"/>
+      <c r="A214" s="86"/>
       <c r="B214" s="18">
         <v>7</v>
       </c>
@@ -17010,7 +17932,7 @@
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A215" s="80"/>
+      <c r="A215" s="86"/>
       <c r="B215" s="18">
         <v>8</v>
       </c>
@@ -17065,7 +17987,7 @@
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A216" s="80"/>
+      <c r="A216" s="86"/>
       <c r="B216" s="18">
         <v>9</v>
       </c>
@@ -17091,7 +18013,7 @@
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A217" s="80"/>
+      <c r="A217" s="86"/>
       <c r="B217" s="18">
         <v>10</v>
       </c>
@@ -17492,7 +18414,7 @@
     </row>
     <row r="230" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="232" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="81" t="s">
+      <c r="A232" s="89" t="s">
         <v>119</v>
       </c>
       <c r="B232" s="55" t="s">
@@ -17501,18 +18423,18 @@
       <c r="C232" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D232" s="82" t="s">
+      <c r="D232" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="E232" s="82"/>
-      <c r="I232" s="83" t="s">
+      <c r="E232" s="83"/>
+      <c r="I232" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="J232" s="84"/>
-      <c r="K232" s="84"/>
+      <c r="J232" s="85"/>
+      <c r="K232" s="85"/>
     </row>
     <row r="233" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A233" s="81"/>
+      <c r="A233" s="89"/>
       <c r="B233" s="55" t="s">
         <v>121</v>
       </c>
@@ -17525,12 +18447,12 @@
       <c r="E233" s="21">
         <v>0.15</v>
       </c>
-      <c r="I233" s="84"/>
-      <c r="J233" s="84"/>
-      <c r="K233" s="84"/>
+      <c r="I233" s="85"/>
+      <c r="J233" s="85"/>
+      <c r="K233" s="85"/>
     </row>
     <row r="234" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A234" s="81"/>
+      <c r="A234" s="89"/>
       <c r="B234" s="55" t="s">
         <v>122</v>
       </c>
@@ -17543,12 +18465,12 @@
       <c r="E234" s="21">
         <v>0.15</v>
       </c>
-      <c r="I234" s="84"/>
-      <c r="J234" s="84"/>
-      <c r="K234" s="84"/>
+      <c r="I234" s="85"/>
+      <c r="J234" s="85"/>
+      <c r="K234" s="85"/>
     </row>
     <row r="235" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A235" s="81"/>
+      <c r="A235" s="89"/>
       <c r="B235" s="55" t="s">
         <v>123</v>
       </c>
@@ -17563,7 +18485,7 @@
       </c>
     </row>
     <row r="236" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A236" s="81"/>
+      <c r="A236" s="89"/>
       <c r="B236" s="55" t="s">
         <v>124</v>
       </c>
@@ -17582,7 +18504,7 @@
       </c>
     </row>
     <row r="237" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A237" s="80" t="s">
+      <c r="A237" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B237" s="18">
@@ -17614,17 +18536,17 @@
       <c r="J237" s="55">
         <v>2.38</v>
       </c>
-      <c r="K237" s="77" t="s">
+      <c r="K237" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="L237" s="77"/>
-      <c r="M237" s="77"/>
-      <c r="N237" s="77"/>
-      <c r="O237" s="77"/>
-      <c r="P237" s="77"/>
+      <c r="L237" s="82"/>
+      <c r="M237" s="82"/>
+      <c r="N237" s="82"/>
+      <c r="O237" s="82"/>
+      <c r="P237" s="82"/>
     </row>
     <row r="238" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A238" s="80"/>
+      <c r="A238" s="86"/>
       <c r="B238" s="18">
         <v>2</v>
       </c>
@@ -17654,15 +18576,15 @@
       <c r="J238" s="55">
         <v>140.65</v>
       </c>
-      <c r="K238" s="77"/>
-      <c r="L238" s="77"/>
-      <c r="M238" s="77"/>
-      <c r="N238" s="77"/>
-      <c r="O238" s="77"/>
-      <c r="P238" s="77"/>
+      <c r="K238" s="82"/>
+      <c r="L238" s="82"/>
+      <c r="M238" s="82"/>
+      <c r="N238" s="82"/>
+      <c r="O238" s="82"/>
+      <c r="P238" s="82"/>
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A239" s="80"/>
+      <c r="A239" s="86"/>
       <c r="B239" s="18">
         <v>3</v>
       </c>
@@ -17710,7 +18632,7 @@
       </c>
     </row>
     <row r="240" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A240" s="80"/>
+      <c r="A240" s="86"/>
       <c r="B240" s="18">
         <v>4</v>
       </c>
@@ -17765,7 +18687,7 @@
       </c>
     </row>
     <row r="241" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A241" s="80"/>
+      <c r="A241" s="86"/>
       <c r="B241" s="18">
         <v>5</v>
       </c>
@@ -17820,7 +18742,7 @@
       </c>
     </row>
     <row r="242" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A242" s="80"/>
+      <c r="A242" s="86"/>
       <c r="B242" s="18">
         <v>6</v>
       </c>
@@ -17875,7 +18797,7 @@
       </c>
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A243" s="80"/>
+      <c r="A243" s="86"/>
       <c r="B243" s="18">
         <v>7</v>
       </c>
@@ -17930,7 +18852,7 @@
       </c>
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A244" s="80"/>
+      <c r="A244" s="86"/>
       <c r="B244" s="18">
         <v>8</v>
       </c>
@@ -17985,7 +18907,7 @@
       </c>
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A245" s="80"/>
+      <c r="A245" s="86"/>
       <c r="B245" s="18">
         <v>9</v>
       </c>
@@ -18011,7 +18933,7 @@
       </c>
     </row>
     <row r="246" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A246" s="80"/>
+      <c r="A246" s="86"/>
       <c r="B246" s="18">
         <v>10</v>
       </c>
@@ -18412,17 +19334,25 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="I58:K60"/>
-    <mergeCell ref="I116:K118"/>
-    <mergeCell ref="I87:K89"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K121:P122"/>
-    <mergeCell ref="K92:P93"/>
-    <mergeCell ref="K63:P64"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A237:A246"/>
+    <mergeCell ref="K237:P238"/>
+    <mergeCell ref="A208:A217"/>
+    <mergeCell ref="K208:P209"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="I232:K234"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="K179:P180"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="I203:K205"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="I145:K147"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="K150:P151"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="I174:K176"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A24"/>
@@ -18435,25 +19365,17 @@
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A87:A91"/>
     <mergeCell ref="A63:A72"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="I145:K147"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="K150:P151"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="I174:K176"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="K179:P180"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="I203:K205"/>
-    <mergeCell ref="A237:A246"/>
-    <mergeCell ref="K237:P238"/>
-    <mergeCell ref="A208:A217"/>
-    <mergeCell ref="K208:P209"/>
-    <mergeCell ref="A232:A236"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="I232:K234"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="I58:K60"/>
+    <mergeCell ref="I116:K118"/>
+    <mergeCell ref="I87:K89"/>
+    <mergeCell ref="A121:A130"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K121:P122"/>
+    <mergeCell ref="K92:P93"/>
+    <mergeCell ref="K63:P64"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A92:A101"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20390,20 +21312,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="F3" s="52" t="s">
         <v>184</v>
       </c>
@@ -20489,14 +21411,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="92"/>
       <c r="F8" s="47" t="s">
         <v>236</v>
       </c>
@@ -20569,7 +21491,7 @@
       <c r="A17" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="93" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20577,16 +21499,16 @@
       <c r="A18" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="94"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="85"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="84"/>
+      <c r="C20" s="85"/>
     </row>
     <row r="21" spans="1:3" ht="47" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">

--- a/投资心得/everyweak.xlsx
+++ b/投资心得/everyweak.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="460" windowWidth="10920" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="17900" yWindow="460" windowWidth="10900" windowHeight="16600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="市场数据" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="382">
   <si>
     <t>当日</t>
     <rPh sb="0" eb="1">
@@ -3178,6 +3178,84 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>shou yi l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP（聚丙烯）</t>
+    <rPh sb="3" eb="4">
+      <t>ju bing xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED芯片-三安光电</t>
+    <rPh sb="6" eb="7">
+      <t>san an guang dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器-科博达</t>
+    <rPh sb="0" eb="1">
+      <t>kong zhi qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC（聚碳酸酯）-金发科技</t>
+    <rPh sb="3" eb="4">
+      <t>ju tan suan zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jin fa ke ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED车灯-星宇股份</t>
+    <rPh sb="3" eb="4">
+      <t>che deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing yu gu fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动驾驶系统-德赛西威</t>
+    <rPh sb="0" eb="1">
+      <t>zi dong jia shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de sai xi wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车联网系统-德赛西威</t>
+    <rPh sb="0" eb="1">
+      <t>che lian wang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de sai xi wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能车厢-德赛西威</t>
+    <rPh sb="5" eb="6">
+      <t>de sai xi wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能操作系统-中科创达</t>
+    <rPh sb="2" eb="3">
+      <t>cao zuo xi tong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong ke chuang da</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3405,7 +3483,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3621,6 +3699,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3633,14 +3714,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3651,10 +3738,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3951,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI310"/>
+  <dimension ref="A1:AK312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3974,17 +4067,18 @@
     <col min="28" max="28" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -4009,14 +4103,14 @@
         <v>372</v>
       </c>
       <c r="B3" s="6">
-        <v>4.1193999999999997</v>
+        <v>4.1184000000000003</v>
       </c>
       <c r="C3" s="6">
-        <v>4.0811000000000002</v>
+        <v>4.1360999999999999</v>
       </c>
       <c r="D3" s="8">
         <f>B3-C3</f>
-        <v>3.8299999999999557E-2</v>
+        <v>-1.7699999999999605E-2</v>
       </c>
       <c r="E3" s="81" t="s">
         <v>370</v>
@@ -4046,14 +4140,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>3.4777</v>
+        <v>3.4481999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>3.4304000000000001</v>
+        <v>3.4704999999999999</v>
       </c>
       <c r="D6" s="8">
         <f>B6-C6</f>
-        <v>4.7299999999999898E-2</v>
+        <v>-2.2299999999999986E-2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>301</v>
@@ -4080,14 +4174,14 @@
         <v>259</v>
       </c>
       <c r="B9" s="6">
-        <v>3.2911000000000001</v>
+        <v>3.2713000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>3.2561</v>
+        <v>3.2778999999999998</v>
       </c>
       <c r="D9" s="8">
         <f>B9-C9</f>
-        <v>3.5000000000000142E-2</v>
+        <v>-6.5999999999997172E-3</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>301</v>
@@ -4113,14 +4207,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="6">
-        <v>3.1000999999999999</v>
+        <v>3.0703</v>
       </c>
       <c r="C12" s="6">
-        <v>3.0415999999999999</v>
+        <v>3.0821999999999998</v>
       </c>
       <c r="D12" s="8">
         <f>B12-C12</f>
-        <v>5.8499999999999996E-2</v>
+        <v>-1.18999999999998E-2</v>
       </c>
       <c r="E12" s="69" t="s">
         <v>301</v>
@@ -4147,14 +4241,14 @@
         <v>239</v>
       </c>
       <c r="B15" s="6">
-        <v>2.6728000000000001</v>
+        <v>2.6558000000000002</v>
       </c>
       <c r="C15" s="6">
-        <v>2.6619000000000002</v>
+        <v>2.6570999999999998</v>
       </c>
       <c r="D15" s="8">
         <f>B15-C15</f>
-        <v>1.089999999999991E-2</v>
+        <v>-1.2999999999996348E-3</v>
       </c>
       <c r="E15" s="69" t="s">
         <v>301</v>
@@ -4182,14 +4276,14 @@
         <v>240</v>
       </c>
       <c r="B18" s="6">
-        <v>2.3609</v>
+        <v>2.3498999999999999</v>
       </c>
       <c r="C18" s="6">
-        <v>2.3308</v>
+        <v>2.3386999999999998</v>
       </c>
       <c r="D18" s="8">
         <f>B18-C18</f>
-        <v>3.0100000000000016E-2</v>
+        <v>1.1200000000000099E-2</v>
       </c>
       <c r="E18" s="69" t="s">
         <v>301</v>
@@ -4218,15 +4312,15 @@
       </c>
       <c r="B21" s="6">
         <f>B15-B18</f>
-        <v>0.31190000000000007</v>
+        <v>0.30590000000000028</v>
       </c>
       <c r="C21" s="6">
         <f>C15-C18</f>
-        <v>0.33110000000000017</v>
+        <v>0.31840000000000002</v>
       </c>
       <c r="D21" s="8">
         <f>B21-C21</f>
-        <v>-1.9200000000000106E-2</v>
+        <v>-1.2499999999999734E-2</v>
       </c>
       <c r="E21" s="57" t="s">
         <v>258</v>
@@ -4255,15 +4349,15 @@
       </c>
       <c r="B24" s="6">
         <f>B6-B18</f>
-        <v>1.1168</v>
+        <v>1.0983000000000001</v>
       </c>
       <c r="C24" s="6">
         <f>C6-C18</f>
-        <v>1.0996000000000001</v>
+        <v>1.1318000000000001</v>
       </c>
       <c r="D24" s="8">
         <f>B24-C24</f>
-        <v>1.7199999999999882E-2</v>
+        <v>-3.3500000000000085E-2</v>
       </c>
       <c r="E24" s="57" t="s">
         <v>245</v>
@@ -4291,14 +4385,14 @@
         <v>369</v>
       </c>
       <c r="B27" s="9">
-        <v>2.8</v>
+        <v>2.8450000000000002</v>
       </c>
       <c r="C27" s="9">
-        <v>2.8052000000000001</v>
+        <v>2.8353000000000002</v>
       </c>
       <c r="D27" s="8">
         <f>B27-C27</f>
-        <v>-5.2000000000003155E-3</v>
+        <v>9.7000000000000419E-3</v>
       </c>
       <c r="E27" s="57" t="s">
         <v>247</v>
@@ -4327,15 +4421,15 @@
       </c>
       <c r="B30" s="9">
         <f>B3-B27</f>
-        <v>1.3193999999999999</v>
+        <v>1.2734000000000001</v>
       </c>
       <c r="C30" s="9">
         <f>C3-C27</f>
-        <v>1.2759</v>
+        <v>1.3007999999999997</v>
       </c>
       <c r="D30" s="8">
         <f>B30-C30</f>
-        <v>4.3499999999999872E-2</v>
+        <v>-2.7399999999999647E-2</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>371</v>
@@ -4361,14 +4455,14 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>6.1052999999999997</v>
-      </c>
-      <c r="C33" s="83">
-        <v>6.0853000000000002</v>
+        <v>5.9916999999999998</v>
+      </c>
+      <c r="C33" s="88">
+        <v>6.0019999999999998</v>
       </c>
       <c r="D33" s="8">
         <f>B33-C33</f>
-        <v>1.9999999999999574E-2</v>
+        <v>-1.0299999999999976E-2</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -4393,14 +4487,14 @@
         <v>308</v>
       </c>
       <c r="B36" s="68">
-        <v>1.788</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="C36" s="68">
-        <v>1.369</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="D36" s="8">
         <f>B36-C36</f>
-        <v>0.41900000000000004</v>
+        <v>1.2999999999999901E-2</v>
       </c>
       <c r="E36" s="74" t="s">
         <v>310</v>
@@ -4412,14 +4506,14 @@
         <v>307</v>
       </c>
       <c r="B37" s="68">
-        <v>2.593</v>
+        <v>2.601</v>
       </c>
       <c r="C37" s="68">
-        <v>2.59</v>
+        <v>2.601</v>
       </c>
       <c r="D37" s="8">
         <f>B37-C37</f>
-        <v>3.0000000000001137E-3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="74" t="s">
         <v>15</v>
@@ -4447,14 +4541,14 @@
         <v>305</v>
       </c>
       <c r="B40" s="9">
-        <v>2.2749999999999999</v>
+        <v>2.39</v>
       </c>
       <c r="C40" s="9">
-        <v>2.69</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D40" s="8">
         <f>B40-C40</f>
-        <v>-0.41500000000000004</v>
+        <v>0.13000000000000034</v>
       </c>
       <c r="E40" s="74" t="s">
         <v>311</v>
@@ -4466,14 +4560,14 @@
         <v>309</v>
       </c>
       <c r="B41" s="68">
-        <v>8501</v>
+        <v>8483</v>
       </c>
       <c r="C41" s="68">
-        <v>8629</v>
+        <v>8598</v>
       </c>
       <c r="D41" s="8">
-        <f>8859+8928+8902+8629+8501</f>
-        <v>43819</v>
+        <f>8579+8549+8681+8598+8483</f>
+        <v>42890</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -4482,14 +4576,14 @@
         <v>304</v>
       </c>
       <c r="B42" s="9">
-        <v>1.8165</v>
+        <v>2.1665000000000001</v>
       </c>
       <c r="C42" s="9">
-        <v>1.3669</v>
+        <v>2.1642000000000001</v>
       </c>
       <c r="D42" s="8">
         <f>B42-C42</f>
-        <v>0.4496</v>
+        <v>2.2999999999999687E-3</v>
       </c>
       <c r="E42" s="74" t="s">
         <v>8</v>
@@ -4501,14 +4595,14 @@
         <v>309</v>
       </c>
       <c r="B43" s="68">
-        <v>9056</v>
+        <v>19325</v>
       </c>
       <c r="C43" s="68">
-        <v>16107</v>
+        <v>18468</v>
       </c>
       <c r="D43" s="8">
-        <f>18129+17853+16732+16107+9056</f>
-        <v>77877</v>
+        <f>18101+17264+19222+18468+19325</f>
+        <v>92380</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -4518,15 +4612,15 @@
       </c>
       <c r="B44" s="68">
         <f>B41+B43</f>
-        <v>17557</v>
+        <v>27808</v>
       </c>
       <c r="C44" s="68">
         <f>C41+C43</f>
-        <v>24736</v>
+        <v>27066</v>
       </c>
       <c r="D44" s="8">
         <f>D41+D43</f>
-        <v>121696</v>
+        <v>135270</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -4551,14 +4645,14 @@
         <v>306</v>
       </c>
       <c r="B47" s="9">
-        <v>2.2650000000000001</v>
+        <v>2.4049999999999998</v>
       </c>
       <c r="C47" s="9">
-        <v>2.46</v>
+        <v>2.335</v>
       </c>
       <c r="D47" s="8">
         <f>B47-C47</f>
-        <v>-0.19499999999999984</v>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="E47" s="74" t="s">
         <v>8</v>
@@ -4570,75 +4664,75 @@
         <v>309</v>
       </c>
       <c r="B48" s="68">
-        <v>790</v>
+        <v>902</v>
       </c>
       <c r="C48" s="68">
-        <v>1316</v>
+        <v>1334</v>
       </c>
       <c r="D48" s="8">
-        <f>1619+1284+1521+1316+790</f>
-        <v>6530</v>
+        <f>1685+1181+1445+1334+902</f>
+        <v>6547</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:35" ht="30" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:37" ht="30" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B49" s="9">
-        <v>2.2366999999999999</v>
+        <v>2.2098</v>
       </c>
       <c r="C49" s="9">
-        <v>2.1829000000000001</v>
+        <v>2.2359</v>
       </c>
       <c r="D49" s="8">
         <f>B49-C49</f>
-        <v>5.3799999999999848E-2</v>
+        <v>-2.6100000000000012E-2</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B50" s="68">
-        <v>531</v>
+        <v>699</v>
       </c>
       <c r="C50" s="68">
-        <v>993</v>
+        <v>596</v>
       </c>
       <c r="D50" s="8">
-        <f>1195+1131+1268+993+531</f>
-        <v>5118</v>
+        <f>685+882+874+596+699</f>
+        <v>3736</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:35" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B51" s="68">
         <f>B48+B50</f>
-        <v>1321</v>
+        <v>1601</v>
       </c>
       <c r="C51" s="68">
         <f>C48+C50</f>
-        <v>2309</v>
+        <v>1930</v>
       </c>
       <c r="D51" s="8">
         <f>D48+D50</f>
-        <v>11648</v>
+        <v>10283</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B52"/>
       <c r="D52" s="8"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -4649,30 +4743,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="30" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="79">
-        <v>14169</v>
+        <v>14626</v>
       </c>
       <c r="C54" s="79">
-        <v>14093</v>
+        <v>14601</v>
       </c>
       <c r="D54" s="8">
         <f>B54-C54</f>
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B55"/>
       <c r="D55" s="8"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>216</v>
       </c>
@@ -4683,27 +4777,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="30" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:37" ht="30" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="10">
+        <f>88.39+22.77+63.2+5.65+0.11</f>
+        <v>180.12000000000003</v>
+      </c>
+      <c r="C57" s="10">
         <f>3.55+-42.45+101.32+4.68-2.01</f>
         <v>65.089999999999989</v>
       </c>
-      <c r="C57" s="10">
-        <f>-144.18+63.92+-8.09+-34.2</f>
-        <v>-122.55000000000001</v>
-      </c>
       <c r="D57" s="8">
         <f>B57-C57</f>
-        <v>187.64</v>
+        <v>115.03000000000004</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:37" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4711,17 +4805,17 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A59" s="87" t="s">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A59" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:35" ht="19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="19" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>43833</v>
       </c>
@@ -4817,7 +4911,7 @@
         <v>44001</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" ref="Z60:AD60" si="3">Y60+7</f>
+        <f t="shared" ref="Z60:AF60" si="3">Y60+7</f>
         <v>44008</v>
       </c>
       <c r="AA60" s="5">
@@ -4836,13 +4930,21 @@
         <f t="shared" si="3"/>
         <v>44036</v>
       </c>
-      <c r="AE60" s="1" t="s">
+      <c r="AE60" s="5">
+        <f t="shared" si="3"/>
+        <v>44043</v>
+      </c>
+      <c r="AF60" s="5">
+        <f t="shared" si="3"/>
+        <v>44050</v>
+      </c>
+      <c r="AG60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AH60" s="6"/>
-      <c r="AI60" s="6"/>
-    </row>
-    <row r="61" spans="1:35" s="81" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+    </row>
+    <row r="61" spans="1:37" s="81" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>367</v>
       </c>
@@ -4933,13 +5035,24 @@
       <c r="AD61" s="81">
         <v>4.0162000000000004</v>
       </c>
-      <c r="AE61" s="80"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
+      <c r="AE61" s="84">
+        <v>4.1193999999999997</v>
+      </c>
+      <c r="AF61" s="86">
+        <v>4.1847000000000003</v>
+      </c>
+      <c r="AG61" s="80"/>
       <c r="AH61" s="6"/>
-    </row>
-    <row r="62" spans="1:35" s="81" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:35" ht="30" x14ac:dyDescent="0.3">
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+    </row>
+    <row r="62" spans="1:37" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE62" s="84"/>
+      <c r="AF62" s="86"/>
+      <c r="AI62" s="86"/>
+      <c r="AJ62" s="84"/>
+    </row>
+    <row r="63" spans="1:37" ht="30" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -5030,13 +5143,19 @@
       <c r="AD63" s="81">
         <v>3.3252999999999999</v>
       </c>
-      <c r="AE63" s="75"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="81"/>
+      <c r="AE63" s="84">
+        <v>3.4777</v>
+      </c>
+      <c r="AF63" s="86">
+        <v>3.5127000000000002</v>
+      </c>
+      <c r="AG63" s="75"/>
       <c r="AH63" s="6"/>
-      <c r="AI63" s="77"/>
-    </row>
-    <row r="64" spans="1:35" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AI63" s="86"/>
+      <c r="AJ63" s="84"/>
+      <c r="AK63" s="77"/>
+    </row>
+    <row r="64" spans="1:37" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="V64" s="69"/>
       <c r="W64" s="74"/>
       <c r="X64" s="76"/>
@@ -5046,11 +5165,13 @@
       <c r="AB64" s="77"/>
       <c r="AC64" s="77"/>
       <c r="AD64" s="81"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="77"/>
-      <c r="AI64" s="77"/>
-    </row>
-    <row r="65" spans="1:35" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="AE64" s="84"/>
+      <c r="AF64" s="86"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="77"/>
+    </row>
+    <row r="65" spans="1:37" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>259</v>
       </c>
@@ -5141,12 +5262,18 @@
       <c r="AD65" s="81">
         <v>3.1305000000000001</v>
       </c>
-      <c r="AE65" s="75"/>
-      <c r="AG65" s="81"/>
-      <c r="AH65" s="77"/>
-      <c r="AI65" s="6"/>
-    </row>
-    <row r="66" spans="1:35" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE65" s="84">
+        <v>3.2911000000000001</v>
+      </c>
+      <c r="AF65" s="86">
+        <v>3.2917999999999998</v>
+      </c>
+      <c r="AG65" s="75"/>
+      <c r="AI65" s="86"/>
+      <c r="AJ65" s="84"/>
+      <c r="AK65" s="6"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
       <c r="F66" s="1"/>
       <c r="S66" s="57"/>
       <c r="T66" s="57"/>
@@ -5160,12 +5287,14 @@
       <c r="AB66" s="77"/>
       <c r="AC66" s="77"/>
       <c r="AD66" s="81"/>
-      <c r="AF66" s="66"/>
-      <c r="AG66" s="81"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="77"/>
-    </row>
-    <row r="67" spans="1:35" ht="30" x14ac:dyDescent="0.3">
+      <c r="AE66" s="84"/>
+      <c r="AF66" s="86"/>
+      <c r="AH66" s="66"/>
+      <c r="AI66" s="86"/>
+      <c r="AJ66" s="84"/>
+      <c r="AK66" s="77"/>
+    </row>
+    <row r="67" spans="1:37" ht="30" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -5256,13 +5385,19 @@
       <c r="AD67" s="81">
         <v>2.9199000000000002</v>
       </c>
-      <c r="AE67" s="75"/>
-      <c r="AF67" s="66"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="77"/>
-      <c r="AI67" s="77"/>
-    </row>
-    <row r="68" spans="1:35" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE67" s="84">
+        <v>3.1000999999999999</v>
+      </c>
+      <c r="AF67" s="86">
+        <v>3.1038000000000001</v>
+      </c>
+      <c r="AG67" s="75"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" s="77"/>
+    </row>
+    <row r="68" spans="1:37" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U68" s="66"/>
       <c r="V68" s="69"/>
       <c r="W68" s="74"/>
@@ -5273,12 +5408,14 @@
       <c r="AB68" s="77"/>
       <c r="AC68" s="77"/>
       <c r="AD68" s="81"/>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="81"/>
-      <c r="AH68" s="77"/>
-      <c r="AI68" s="6"/>
-    </row>
-    <row r="69" spans="1:35" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="AE68" s="84"/>
+      <c r="AF68" s="86"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="86"/>
+      <c r="AJ68" s="84"/>
+      <c r="AK68" s="6"/>
+    </row>
+    <row r="69" spans="1:37" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>239</v>
       </c>
@@ -5369,13 +5506,19 @@
       <c r="AD69" s="81">
         <v>2.5739000000000001</v>
       </c>
-      <c r="AE69" s="75"/>
-      <c r="AF69" s="66"/>
-      <c r="AG69" s="81"/>
-      <c r="AH69" s="6"/>
-      <c r="AI69" s="77"/>
-    </row>
-    <row r="70" spans="1:35" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE69" s="84">
+        <v>2.6728000000000001</v>
+      </c>
+      <c r="AF69" s="86">
+        <v>2.6614</v>
+      </c>
+      <c r="AG69" s="75"/>
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="86"/>
+      <c r="AJ69" s="84"/>
+      <c r="AK69" s="77"/>
+    </row>
+    <row r="70" spans="1:37" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U70" s="66"/>
       <c r="V70" s="69"/>
       <c r="W70" s="74"/>
@@ -5386,12 +5529,14 @@
       <c r="AB70" s="77"/>
       <c r="AC70" s="77"/>
       <c r="AD70" s="81"/>
-      <c r="AF70" s="66"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="77"/>
-      <c r="AI70" s="77"/>
-    </row>
-    <row r="71" spans="1:35" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+      <c r="AE70" s="84"/>
+      <c r="AF70" s="86"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="77"/>
+    </row>
+    <row r="71" spans="1:37" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>240</v>
       </c>
@@ -5482,13 +5627,19 @@
       <c r="AD71" s="81">
         <v>2.2976999999999999</v>
       </c>
-      <c r="AE71" s="75"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="81"/>
-      <c r="AH71" s="77"/>
-      <c r="AI71" s="6"/>
-    </row>
-    <row r="72" spans="1:35" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE71" s="84">
+        <v>2.3609</v>
+      </c>
+      <c r="AF71" s="86">
+        <v>2.4388000000000001</v>
+      </c>
+      <c r="AG71" s="75"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="86"/>
+      <c r="AJ71" s="84"/>
+      <c r="AK71" s="6"/>
+    </row>
+    <row r="72" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="U72" s="66"/>
       <c r="V72" s="69"/>
       <c r="W72" s="74"/>
@@ -5499,12 +5650,14 @@
       <c r="AB72" s="77"/>
       <c r="AC72" s="77"/>
       <c r="AD72" s="81"/>
-      <c r="AF72" s="66"/>
-      <c r="AG72" s="81"/>
-      <c r="AH72" s="6"/>
-      <c r="AI72" s="77"/>
-    </row>
-    <row r="73" spans="1:35" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE72" s="84"/>
+      <c r="AF72" s="86"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="86"/>
+      <c r="AJ72" s="84"/>
+      <c r="AK72" s="77"/>
+    </row>
+    <row r="73" spans="1:37" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>242</v>
       </c>
@@ -5624,12 +5777,20 @@
         <f t="shared" si="9"/>
         <v>0.27620000000000022</v>
       </c>
-      <c r="AF73" s="66"/>
-      <c r="AG73" s="6"/>
-      <c r="AH73" s="77"/>
-      <c r="AI73" s="77"/>
-    </row>
-    <row r="74" spans="1:35" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE73" s="84">
+        <f t="shared" ref="AE73:AF73" si="10">AE69-AE71</f>
+        <v>0.31190000000000007</v>
+      </c>
+      <c r="AF73" s="86">
+        <f t="shared" si="10"/>
+        <v>0.22259999999999991</v>
+      </c>
+      <c r="AH73" s="66"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="77"/>
+    </row>
+    <row r="74" spans="1:37" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="U74" s="66"/>
       <c r="V74" s="69"/>
       <c r="W74" s="74"/>
@@ -5640,12 +5801,14 @@
       <c r="AB74" s="77"/>
       <c r="AC74" s="77"/>
       <c r="AD74" s="81"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="81"/>
+      <c r="AE74" s="84"/>
+      <c r="AF74" s="86"/>
       <c r="AH74" s="6"/>
-      <c r="AI74" s="6"/>
-    </row>
-    <row r="75" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI74" s="86"/>
+      <c r="AJ74" s="84"/>
+      <c r="AK74" s="6"/>
+    </row>
+    <row r="75" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>243</v>
       </c>
@@ -5658,118 +5821,126 @@
         <v>1.4555000000000002</v>
       </c>
       <c r="D75" s="57">
-        <f t="shared" ref="D75:S75" si="10">D63-D71</f>
+        <f t="shared" ref="D75:S75" si="11">D63-D71</f>
         <v>1.4091</v>
       </c>
       <c r="E75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3753000000000002</v>
       </c>
       <c r="F75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5334000000000001</v>
       </c>
       <c r="G75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5715000000000001</v>
       </c>
       <c r="H75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3771</v>
       </c>
       <c r="I75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2644</v>
       </c>
       <c r="J75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2894999999999999</v>
       </c>
       <c r="K75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3159000000000001</v>
       </c>
       <c r="L75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4547999999999999</v>
       </c>
       <c r="M75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4555</v>
       </c>
       <c r="N75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5447</v>
       </c>
       <c r="O75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6721999999999999</v>
       </c>
       <c r="P75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8176999999999999</v>
       </c>
       <c r="Q75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8538000000000001</v>
       </c>
       <c r="R75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8397999999999999</v>
       </c>
       <c r="S75" s="57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9512</v>
       </c>
       <c r="T75" s="57">
-        <f t="shared" ref="T75:U75" si="11">T63-T71</f>
+        <f t="shared" ref="T75:U75" si="12">T63-T71</f>
         <v>1.8478000000000001</v>
       </c>
       <c r="U75" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6620999999999999</v>
       </c>
       <c r="V75" s="69">
-        <f t="shared" ref="V75:X75" si="12">V63-V71</f>
+        <f t="shared" ref="V75:X75" si="13">V63-V71</f>
         <v>1.4726999999999999</v>
       </c>
       <c r="W75" s="74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2914999999999999</v>
       </c>
       <c r="X75" s="76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1973999999999998</v>
       </c>
       <c r="Y75" s="76">
-        <f t="shared" ref="Y75:Z75" si="13">Y63-Y71</f>
+        <f t="shared" ref="Y75:Z75" si="14">Y63-Y71</f>
         <v>1.1497999999999999</v>
       </c>
       <c r="Z75" s="76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2489000000000001</v>
       </c>
       <c r="AA75" s="77">
-        <f t="shared" ref="AA75:AB75" si="14">AA63-AA71</f>
+        <f t="shared" ref="AA75:AB75" si="15">AA63-AA71</f>
         <v>1.4639000000000002</v>
       </c>
       <c r="AB75" s="77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2995000000000001</v>
       </c>
       <c r="AC75" s="77">
-        <f t="shared" ref="AC75:AD75" si="15">AC63-AC71</f>
+        <f t="shared" ref="AC75:AD75" si="16">AC63-AC71</f>
         <v>1.1619999999999999</v>
       </c>
       <c r="AD75" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0276000000000001</v>
       </c>
-      <c r="AF75" s="66"/>
-      <c r="AG75" s="81"/>
-      <c r="AH75" s="77"/>
-    </row>
-    <row r="76" spans="1:35" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE75" s="84">
+        <f t="shared" ref="AE75:AF75" si="17">AE63-AE71</f>
+        <v>1.1168</v>
+      </c>
+      <c r="AF75" s="86">
+        <f t="shared" si="17"/>
+        <v>1.0739000000000001</v>
+      </c>
+      <c r="AH75" s="66"/>
+      <c r="AI75" s="86"/>
+      <c r="AJ75" s="84"/>
+    </row>
+    <row r="76" spans="1:37" s="57" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="F76" s="4"/>
       <c r="U76" s="66"/>
       <c r="V76" s="69"/>
@@ -5781,10 +5952,13 @@
       <c r="AB76" s="77"/>
       <c r="AC76" s="77"/>
       <c r="AD76" s="81"/>
-      <c r="AF76" s="66"/>
-      <c r="AG76" s="68"/>
-    </row>
-    <row r="77" spans="1:35" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="AE76" s="84"/>
+      <c r="AF76" s="86"/>
+      <c r="AH76" s="66"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+    </row>
+    <row r="77" spans="1:37" s="57" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>246</v>
       </c>
@@ -5875,14 +6049,22 @@
       <c r="AD77" s="81">
         <v>2.82</v>
       </c>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="68"/>
-    </row>
-    <row r="78" spans="1:35" s="81" customFormat="1" ht="19" x14ac:dyDescent="0.3">
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-    </row>
-    <row r="79" spans="1:35" s="81" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE77" s="84">
+        <v>2.8</v>
+      </c>
+      <c r="AF77" s="86">
+        <v>2.8201000000000001</v>
+      </c>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="68"/>
+    </row>
+    <row r="78" spans="1:37" s="81" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE78" s="84"/>
+      <c r="AF78" s="86"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+    </row>
+    <row r="79" spans="1:37" s="81" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>368</v>
       </c>
@@ -5891,131 +6073,140 @@
         <v>1.2942</v>
       </c>
       <c r="C79" s="81">
-        <f t="shared" ref="C79:AD79" si="16">C61-C77</f>
+        <f t="shared" ref="C79:AD79" si="18">C61-C77</f>
         <v>1.2699000000000003</v>
       </c>
       <c r="D79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2622000000000004</v>
       </c>
       <c r="E79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1196000000000002</v>
       </c>
       <c r="F79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0604999999999998</v>
       </c>
       <c r="G79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1791</v>
       </c>
       <c r="H79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2159</v>
       </c>
       <c r="I79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2069000000000001</v>
       </c>
       <c r="J79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2916000000000003</v>
       </c>
       <c r="K79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3454999999999999</v>
       </c>
       <c r="L79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4247999999999998</v>
       </c>
       <c r="M79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4565999999999999</v>
       </c>
       <c r="N79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6643999999999997</v>
       </c>
       <c r="O79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0971000000000002</v>
       </c>
       <c r="P79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1221000000000001</v>
       </c>
       <c r="Q79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0779000000000001</v>
       </c>
       <c r="R79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1287000000000003</v>
       </c>
       <c r="S79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1721999999999997</v>
       </c>
       <c r="T79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2524000000000002</v>
       </c>
       <c r="U79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1691000000000003</v>
       </c>
       <c r="V79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0593000000000004</v>
       </c>
       <c r="W79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7377999999999996</v>
       </c>
       <c r="X79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5672000000000001</v>
       </c>
       <c r="Y79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6692000000000005</v>
       </c>
       <c r="Z79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6076999999999999</v>
       </c>
       <c r="AA79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6452</v>
       </c>
       <c r="AB79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5612000000000004</v>
       </c>
       <c r="AC79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4754</v>
       </c>
       <c r="AD79" s="81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.1962000000000006</v>
       </c>
-      <c r="AE79" s="80"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-    </row>
-    <row r="80" spans="1:35" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE79" s="84">
+        <f t="shared" ref="AE79:AF79" si="19">AE61-AE77</f>
+        <v>1.3193999999999999</v>
+      </c>
+      <c r="AF79" s="86">
+        <f t="shared" si="19"/>
+        <v>1.3646000000000003</v>
+      </c>
+      <c r="AG79" s="80"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+    </row>
+    <row r="80" spans="1:37" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="AA80" s="77"/>
       <c r="AB80" s="77"/>
       <c r="AC80" s="77"/>
       <c r="AD80" s="81"/>
-      <c r="AF80" s="6"/>
-      <c r="AG80" s="6"/>
-      <c r="AH80" s="77"/>
-    </row>
-    <row r="81" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="AE80" s="84"/>
+      <c r="AF80" s="86"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+    </row>
+    <row r="81" spans="1:35" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>350</v>
       </c>
@@ -6106,23 +6297,29 @@
       <c r="AD81" s="81">
         <v>119.77330000000001</v>
       </c>
-      <c r="AE81" s="75">
-        <f>(AD81-B81)/B81</f>
-        <v>8.9571223991240199E-3</v>
-      </c>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6"/>
-    </row>
-    <row r="82" spans="1:34" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE81" s="84">
+        <v>119.062</v>
+      </c>
+      <c r="AF81" s="86">
+        <v>118.74379999999999</v>
+      </c>
+      <c r="AG81" s="75">
+        <f>(AF81-B81)/B81</f>
+        <v>2.8472748715356236E-4</v>
+      </c>
+      <c r="AI81" s="6"/>
+    </row>
+    <row r="82" spans="1:35" s="76" customFormat="1" ht="19" x14ac:dyDescent="0.3">
       <c r="AA82" s="77"/>
       <c r="AB82" s="77"/>
       <c r="AC82" s="77"/>
       <c r="AD82" s="81"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="77"/>
-      <c r="AH82" s="77"/>
-    </row>
-    <row r="83" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE82" s="84"/>
+      <c r="AF82" s="86"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="77"/>
+    </row>
+    <row r="83" spans="1:35" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>351</v>
       </c>
@@ -6213,14 +6410,19 @@
       <c r="AD83" s="81">
         <v>94.589500000000001</v>
       </c>
-      <c r="AE83" s="80">
-        <f>(AD83-B83)/B83</f>
-        <v>-4.3587821935169276E-3</v>
-      </c>
-      <c r="AG83" s="77"/>
-      <c r="AH83" s="77"/>
-    </row>
-    <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.3">
+      <c r="AE83" s="84">
+        <v>94.533000000000001</v>
+      </c>
+      <c r="AF83" s="86">
+        <v>94.515600000000006</v>
+      </c>
+      <c r="AG83" s="87">
+        <f>(AF83-B83)/B83</f>
+        <v>-5.1366474533596574E-3</v>
+      </c>
+      <c r="AI83" s="77"/>
+    </row>
+    <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.3">
       <c r="F84" s="4"/>
       <c r="S84" s="57"/>
       <c r="T84" s="57"/>
@@ -6234,11 +6436,12 @@
       <c r="AB84" s="77"/>
       <c r="AC84" s="77"/>
       <c r="AD84" s="81"/>
-      <c r="AF84" s="66"/>
-      <c r="AG84" s="6"/>
-      <c r="AH84" s="77"/>
-    </row>
-    <row r="85" spans="1:34" ht="60" x14ac:dyDescent="0.15">
+      <c r="AE84" s="84"/>
+      <c r="AF84" s="86"/>
+      <c r="AH84" s="66"/>
+      <c r="AI84" s="6"/>
+    </row>
+    <row r="85" spans="1:35" ht="60" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -6329,15 +6532,20 @@
       <c r="AD85" s="81">
         <v>6.1417000000000002</v>
       </c>
-      <c r="AE85" s="80">
-        <f>(AD85-B85)/B85</f>
-        <v>5.218344725976936E-2</v>
-      </c>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="81"/>
-      <c r="AH85" s="77"/>
-    </row>
-    <row r="86" spans="1:34" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE85" s="84">
+        <v>6.1052999999999997</v>
+      </c>
+      <c r="AF85" s="86">
+        <v>6.05</v>
+      </c>
+      <c r="AG85" s="87">
+        <f>(AF85-B85)/B85</f>
+        <v>3.6473591338164399E-2</v>
+      </c>
+      <c r="AH85" s="66"/>
+      <c r="AI85" s="81"/>
+    </row>
+    <row r="86" spans="1:35" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F86" s="4"/>
       <c r="W86" s="74"/>
       <c r="X86" s="76"/>
@@ -6347,10 +6555,11 @@
       <c r="AB86" s="77"/>
       <c r="AC86" s="77"/>
       <c r="AD86" s="81"/>
-      <c r="AG86" s="81"/>
-      <c r="AH86" s="77"/>
-    </row>
-    <row r="87" spans="1:34" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE86" s="84"/>
+      <c r="AF86" s="86"/>
+      <c r="AI86" s="81"/>
+    </row>
+    <row r="87" spans="1:35" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>349</v>
       </c>
@@ -6441,23 +6650,29 @@
       <c r="AD87" s="81">
         <v>547.9</v>
       </c>
-      <c r="AE87" s="80">
-        <f>(AD87-B87)/B87</f>
-        <v>-3.3328040367684657E-2</v>
-      </c>
-      <c r="AG87" s="81"/>
-      <c r="AH87" s="77"/>
-    </row>
-    <row r="88" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE87" s="84">
+        <v>551</v>
+      </c>
+      <c r="AF87" s="86">
+        <v>563</v>
+      </c>
+      <c r="AG87" s="87">
+        <f>(AF87-B87)/B87</f>
+        <v>-6.6867799361314843E-3</v>
+      </c>
+      <c r="AI87" s="81"/>
+    </row>
+    <row r="88" spans="1:35" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F88" s="4"/>
       <c r="AA88" s="77"/>
       <c r="AB88" s="77"/>
       <c r="AC88" s="77"/>
       <c r="AD88" s="81"/>
-      <c r="AG88" s="68"/>
-      <c r="AH88" s="77"/>
-    </row>
-    <row r="89" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE88" s="84"/>
+      <c r="AF88" s="86"/>
+      <c r="AI88" s="68"/>
+    </row>
+    <row r="89" spans="1:35" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>344</v>
       </c>
@@ -6548,23 +6763,29 @@
       <c r="AD89" s="81">
         <v>3158</v>
       </c>
-      <c r="AE89" s="80">
-        <f>(AD89-B89)/B89</f>
-        <v>2.5897579167587028E-2</v>
-      </c>
-      <c r="AG89" s="68"/>
-      <c r="AH89" s="77"/>
-    </row>
-    <row r="90" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE89" s="84">
+        <v>3249</v>
+      </c>
+      <c r="AF89" s="86">
+        <v>3285</v>
+      </c>
+      <c r="AG89" s="87">
+        <f>(AF89-B89)/B89</f>
+        <v>6.7154384916251864E-2</v>
+      </c>
+      <c r="AI89" s="68"/>
+    </row>
+    <row r="90" spans="1:35" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F90" s="4"/>
       <c r="AA90" s="77"/>
       <c r="AB90" s="77"/>
       <c r="AC90" s="77"/>
       <c r="AD90" s="81"/>
-      <c r="AG90" s="81"/>
-      <c r="AH90" s="68"/>
-    </row>
-    <row r="91" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="84"/>
+      <c r="AF90" s="86"/>
+      <c r="AI90" s="81"/>
+    </row>
+    <row r="91" spans="1:35" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>343</v>
       </c>
@@ -6655,23 +6876,29 @@
       <c r="AD91" s="81">
         <v>4505</v>
       </c>
-      <c r="AE91" s="80">
-        <f>(AD91-B91)/B91</f>
-        <v>8.6859494761120037E-2</v>
-      </c>
-      <c r="AG91" s="81"/>
-      <c r="AH91" s="68"/>
-    </row>
-    <row r="92" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE91" s="84">
+        <v>4695</v>
+      </c>
+      <c r="AF91" s="86">
+        <v>4724</v>
+      </c>
+      <c r="AG91" s="87">
+        <f>(AF91-B91)/B91</f>
+        <v>0.13969461781388037</v>
+      </c>
+      <c r="AI91" s="81"/>
+    </row>
+    <row r="92" spans="1:35" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F92" s="4"/>
       <c r="AA92" s="77"/>
       <c r="AB92" s="77"/>
       <c r="AC92" s="77"/>
       <c r="AD92" s="81"/>
-      <c r="AG92" s="9"/>
-      <c r="AH92" s="77"/>
-    </row>
-    <row r="93" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE92" s="84"/>
+      <c r="AF92" s="86"/>
+      <c r="AI92" s="9"/>
+    </row>
+    <row r="93" spans="1:35" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>342</v>
       </c>
@@ -6762,23 +6989,29 @@
       <c r="AD93" s="81">
         <v>2627</v>
       </c>
-      <c r="AE93" s="80">
-        <f>(AD93-B93)/B93</f>
-        <v>0.43082009357247508</v>
-      </c>
-      <c r="AG93" s="68"/>
-      <c r="AH93" s="77"/>
-    </row>
-    <row r="94" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE93" s="84">
+        <v>2795</v>
+      </c>
+      <c r="AF93" s="86">
+        <v>2735</v>
+      </c>
+      <c r="AG93" s="87">
+        <f>(AF93-B93)/B93</f>
+        <v>0.48964330259639111</v>
+      </c>
+      <c r="AI93" s="68"/>
+    </row>
+    <row r="94" spans="1:35" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F94" s="4"/>
       <c r="AA94" s="77"/>
       <c r="AB94" s="77"/>
       <c r="AC94" s="77"/>
       <c r="AD94" s="81"/>
-      <c r="AG94" s="9"/>
-      <c r="AH94" s="9"/>
-    </row>
-    <row r="95" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="84"/>
+      <c r="AF94" s="86"/>
+      <c r="AI94" s="9"/>
+    </row>
+    <row r="95" spans="1:35" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>347</v>
       </c>
@@ -6869,23 +7102,29 @@
       <c r="AD95" s="81">
         <v>3215</v>
       </c>
-      <c r="AE95" s="80">
-        <f>(AD95-B95)/B95</f>
-        <v>-6.1362968916641916E-3</v>
-      </c>
-      <c r="AG95" s="68"/>
-      <c r="AH95" s="68"/>
-    </row>
-    <row r="96" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE95" s="84">
+        <v>3271</v>
+      </c>
+      <c r="AF95" s="86">
+        <v>3351</v>
+      </c>
+      <c r="AG95" s="87">
+        <f>(AF95-B95)/B95</f>
+        <v>3.5905837983214089E-2</v>
+      </c>
+      <c r="AI95" s="68"/>
+    </row>
+    <row r="96" spans="1:35" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F96" s="4"/>
       <c r="AA96" s="77"/>
       <c r="AB96" s="77"/>
       <c r="AC96" s="77"/>
       <c r="AD96" s="81"/>
-      <c r="AG96" s="68"/>
-      <c r="AH96" s="9"/>
-    </row>
-    <row r="97" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="84"/>
+      <c r="AF96" s="86"/>
+      <c r="AI96" s="68"/>
+    </row>
+    <row r="97" spans="1:36" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>348</v>
       </c>
@@ -6976,14 +7215,19 @@
       <c r="AD97" s="81">
         <v>10363</v>
       </c>
-      <c r="AE97" s="80">
-        <f>(AD97-B97)/B97</f>
-        <v>0.14879328483045234</v>
-      </c>
-      <c r="AG97" s="81"/>
-      <c r="AH97" s="68"/>
-    </row>
-    <row r="98" spans="1:34" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE97" s="84">
+        <v>10745</v>
+      </c>
+      <c r="AF97" s="86">
+        <v>11010</v>
+      </c>
+      <c r="AG97" s="87">
+        <f>(AF97-B97)/B97</f>
+        <v>0.22051665212614882</v>
+      </c>
+      <c r="AI97" s="81"/>
+    </row>
+    <row r="98" spans="1:36" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F98" s="4"/>
       <c r="W98" s="74"/>
       <c r="X98" s="76"/>
@@ -6993,10 +7237,11 @@
       <c r="AB98" s="77"/>
       <c r="AC98" s="77"/>
       <c r="AD98" s="81"/>
-      <c r="AG98" s="81"/>
-      <c r="AH98" s="68"/>
-    </row>
-    <row r="99" spans="1:34" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE98" s="84"/>
+      <c r="AF98" s="86"/>
+      <c r="AI98" s="81"/>
+    </row>
+    <row r="99" spans="1:36" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
@@ -7087,21 +7332,29 @@
       <c r="AD99" s="81">
         <v>1472</v>
       </c>
-      <c r="AE99" s="80">
-        <f>(AD99-B99)/B99</f>
-        <v>-3.91644908616188E-2</v>
-      </c>
-      <c r="AG99" s="9"/>
-    </row>
-    <row r="100" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE99" s="84">
+        <v>1478</v>
+      </c>
+      <c r="AF99" s="86">
+        <v>1500</v>
+      </c>
+      <c r="AG99" s="87">
+        <f>(AF99-B99)/B99</f>
+        <v>-2.0887728459530026E-2</v>
+      </c>
+      <c r="AI99" s="9"/>
+    </row>
+    <row r="100" spans="1:36" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F100" s="4"/>
       <c r="AA100" s="77"/>
       <c r="AB100" s="77"/>
       <c r="AC100" s="77"/>
       <c r="AD100" s="81"/>
-      <c r="AG100" s="68"/>
-    </row>
-    <row r="101" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE100" s="84"/>
+      <c r="AF100" s="86"/>
+      <c r="AI100" s="68"/>
+    </row>
+    <row r="101" spans="1:36" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>354</v>
       </c>
@@ -7192,21 +7445,29 @@
       <c r="AD101" s="81">
         <v>2233</v>
       </c>
-      <c r="AE101" s="80">
-        <f>(AD101-B101)/B101</f>
-        <v>-5.0433747235924441E-2</v>
-      </c>
-      <c r="AG101" s="9"/>
-    </row>
-    <row r="102" spans="1:34" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE101" s="84">
+        <v>2250</v>
+      </c>
+      <c r="AF101" s="86">
+        <v>2272</v>
+      </c>
+      <c r="AG101" s="87">
+        <f>(AF101-B101)/B101</f>
+        <v>-3.3849294097635617E-2</v>
+      </c>
+      <c r="AI101" s="9"/>
+    </row>
+    <row r="102" spans="1:36" s="76" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F102" s="4"/>
       <c r="AA102" s="77"/>
       <c r="AB102" s="77"/>
       <c r="AC102" s="77"/>
       <c r="AD102" s="81"/>
-      <c r="AG102" s="68"/>
-    </row>
-    <row r="103" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="AE102" s="84"/>
+      <c r="AF102" s="86"/>
+      <c r="AI102" s="68"/>
+    </row>
+    <row r="103" spans="1:36" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>345</v>
       </c>
@@ -7297,21 +7558,29 @@
       <c r="AD103" s="81">
         <v>777</v>
       </c>
-      <c r="AE103" s="80">
-        <f>(AD103-B103)/B103</f>
-        <v>-8.7389168846080528E-3</v>
-      </c>
-      <c r="AG103" s="68"/>
-    </row>
-    <row r="104" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE103" s="84">
+        <v>772</v>
+      </c>
+      <c r="AF103" s="86">
+        <v>770</v>
+      </c>
+      <c r="AG103" s="87">
+        <f>(AF103-B103)/B103</f>
+        <v>-1.7669196912674646E-2</v>
+      </c>
+      <c r="AI103" s="68"/>
+    </row>
+    <row r="104" spans="1:36" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F104" s="4"/>
       <c r="AA104" s="77"/>
       <c r="AB104" s="77"/>
       <c r="AC104" s="77"/>
       <c r="AD104" s="81"/>
-      <c r="AG104"/>
-    </row>
-    <row r="105" spans="1:34" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE104" s="84"/>
+      <c r="AF104" s="86"/>
+      <c r="AI104"/>
+    </row>
+    <row r="105" spans="1:36" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>356</v>
       </c>
@@ -7402,21 +7671,29 @@
       <c r="AD105" s="81">
         <v>372</v>
       </c>
-      <c r="AE105" s="80">
-        <f>(AD105-B105)/B105</f>
-        <v>-7.2434858496446847E-2</v>
-      </c>
-      <c r="AG105" s="81"/>
-    </row>
-    <row r="106" spans="1:34" s="76" customFormat="1" ht="23" x14ac:dyDescent="0.35">
+      <c r="AE105" s="84">
+        <v>365</v>
+      </c>
+      <c r="AF105" s="86">
+        <v>378</v>
+      </c>
+      <c r="AG105" s="87">
+        <f>(AF105-B105)/B105</f>
+        <v>-5.7474130407679867E-2</v>
+      </c>
+      <c r="AI105" s="81"/>
+    </row>
+    <row r="106" spans="1:36" s="76" customFormat="1" ht="23" x14ac:dyDescent="0.35">
       <c r="F106" s="4"/>
       <c r="AA106" s="77"/>
       <c r="AB106" s="77"/>
       <c r="AC106" s="77"/>
       <c r="AD106" s="81"/>
-      <c r="AG106" s="79"/>
-    </row>
-    <row r="107" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE106" s="84"/>
+      <c r="AF106" s="86"/>
+      <c r="AI106" s="79"/>
+    </row>
+    <row r="107" spans="1:36" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>352</v>
       </c>
@@ -7507,21 +7784,29 @@
       <c r="AD107" s="81">
         <v>41</v>
       </c>
-      <c r="AE107" s="80">
-        <f>(AD107-B107)/B107</f>
-        <v>-0.3496192893401015</v>
-      </c>
-      <c r="AG107"/>
-    </row>
-    <row r="108" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE107" s="84">
+        <v>40.43</v>
+      </c>
+      <c r="AF107" s="86">
+        <v>41.41</v>
+      </c>
+      <c r="AG107" s="87">
+        <f>(AF107-B107)/B107</f>
+        <v>-0.34311548223350258</v>
+      </c>
+      <c r="AI107"/>
+    </row>
+    <row r="108" spans="1:36" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F108" s="4"/>
       <c r="AA108" s="77"/>
       <c r="AB108" s="77"/>
       <c r="AC108" s="77"/>
       <c r="AD108" s="81"/>
-      <c r="AG108" s="81"/>
-    </row>
-    <row r="109" spans="1:34" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE108" s="84"/>
+      <c r="AF108" s="86"/>
+      <c r="AI108" s="81"/>
+    </row>
+    <row r="109" spans="1:36" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>353</v>
       </c>
@@ -7612,13 +7897,19 @@
       <c r="AD109" s="81">
         <v>1900</v>
       </c>
-      <c r="AE109" s="80">
-        <f>(AD109-B109)/B109</f>
-        <v>0.22170781893004113</v>
-      </c>
-      <c r="AG109" s="10"/>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AE109" s="84">
+        <v>1994</v>
+      </c>
+      <c r="AF109" s="86">
+        <v>2044</v>
+      </c>
+      <c r="AG109" s="87">
+        <f>(AF109-B109)/B109</f>
+        <v>0.31430041152263372</v>
+      </c>
+      <c r="AI109" s="10"/>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F110" s="4"/>
       <c r="S110" s="57"/>
       <c r="T110" s="57"/>
@@ -7632,9 +7923,11 @@
       <c r="AB110" s="77"/>
       <c r="AC110" s="77"/>
       <c r="AD110" s="81"/>
-      <c r="AF110" s="66"/>
-    </row>
-    <row r="111" spans="1:34" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE110" s="84"/>
+      <c r="AF110" s="86"/>
+      <c r="AH110" s="66"/>
+    </row>
+    <row r="111" spans="1:36" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>313</v>
       </c>
@@ -7725,9 +8018,16 @@
       <c r="AD111" s="81">
         <v>1.843</v>
       </c>
-      <c r="AG111" s="68"/>
-    </row>
-    <row r="112" spans="1:34" ht="30" x14ac:dyDescent="0.2">
+      <c r="AE111" s="84">
+        <v>1.788</v>
+      </c>
+      <c r="AF111" s="86">
+        <v>2.129</v>
+      </c>
+      <c r="AI111" s="68"/>
+      <c r="AJ111" s="68"/>
+    </row>
+    <row r="112" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>9</v>
       </c>
@@ -7815,13 +8115,20 @@
       <c r="AC112" s="77">
         <v>2.286</v>
       </c>
-      <c r="AD112" s="81">
-        <v>1.843</v>
-      </c>
-      <c r="AF112" s="66"/>
-      <c r="AG112" s="68"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AD112" s="68">
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="AE112" s="84">
+        <v>2.593</v>
+      </c>
+      <c r="AF112" s="86">
+        <v>2.601</v>
+      </c>
+      <c r="AH112" s="66"/>
+      <c r="AI112" s="68"/>
+      <c r="AJ112" s="68"/>
+    </row>
+    <row r="113" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F113" s="4"/>
       <c r="S113" s="57"/>
       <c r="T113" s="57"/>
@@ -7835,10 +8142,13 @@
       <c r="AB113" s="77"/>
       <c r="AC113" s="77"/>
       <c r="AD113" s="81"/>
-      <c r="AF113" s="66"/>
-      <c r="AG113" s="77"/>
-    </row>
-    <row r="114" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE113" s="84"/>
+      <c r="AF113" s="86"/>
+      <c r="AH113" s="66"/>
+      <c r="AI113" s="77"/>
+      <c r="AJ113" s="86"/>
+    </row>
+    <row r="114" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>315</v>
       </c>
@@ -7929,9 +8239,16 @@
       <c r="AD114" s="81">
         <v>1.9450000000000001</v>
       </c>
-      <c r="AG114" s="77"/>
-    </row>
-    <row r="115" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE114" s="84">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="AF114" s="86">
+        <v>1.925</v>
+      </c>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="86"/>
+    </row>
+    <row r="115" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>309</v>
       </c>
@@ -8029,9 +8346,18 @@
         <f>8443+8290+8342+8401+8405</f>
         <v>41881</v>
       </c>
-      <c r="AG115" s="9"/>
-    </row>
-    <row r="116" spans="1:33" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE115" s="84">
+        <f>8859+8928+8902+8629+8501</f>
+        <v>43819</v>
+      </c>
+      <c r="AF115" s="86">
+        <f>8803+8539+8251+8153+8127</f>
+        <v>41873</v>
+      </c>
+      <c r="AI115" s="9"/>
+      <c r="AJ115" s="9"/>
+    </row>
+    <row r="116" spans="1:36" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>314</v>
       </c>
@@ -8122,9 +8448,16 @@
       <c r="AD116" s="81">
         <v>1.8342000000000001</v>
       </c>
-      <c r="AG116" s="68"/>
-    </row>
-    <row r="117" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE116" s="84">
+        <v>1.8165</v>
+      </c>
+      <c r="AF116" s="86">
+        <v>2.0531999999999999</v>
+      </c>
+      <c r="AI116" s="68"/>
+      <c r="AJ116" s="68"/>
+    </row>
+    <row r="117" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>309</v>
       </c>
@@ -8223,131 +8556,149 @@
         <f>17813+17608+18556+18195+19629</f>
         <v>91801</v>
       </c>
-      <c r="AG117" s="9"/>
-    </row>
-    <row r="118" spans="1:33" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE117" s="84">
+        <f>18129+17853+16732+16107+9056</f>
+        <v>77877</v>
+      </c>
+      <c r="AF117" s="86">
+        <f>19860+19646+19632+20763+17512</f>
+        <v>97413</v>
+      </c>
+      <c r="AI117" s="9"/>
+      <c r="AJ117" s="9"/>
+    </row>
+    <row r="118" spans="1:36" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B118" s="74">
-        <f t="shared" ref="B118:AC118" si="17">B117+B115</f>
+        <f t="shared" ref="B118:AC118" si="20">B117+B115</f>
         <v>111092</v>
       </c>
       <c r="C118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>230475</v>
       </c>
       <c r="D118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>44442</v>
       </c>
       <c r="E118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>84941</v>
       </c>
       <c r="F118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>80355</v>
       </c>
       <c r="G118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>119476</v>
       </c>
       <c r="H118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>157703</v>
       </c>
       <c r="I118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>175759</v>
       </c>
       <c r="J118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>203749</v>
       </c>
       <c r="K118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>206278</v>
       </c>
       <c r="L118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>228106</v>
       </c>
       <c r="M118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>245648</v>
       </c>
       <c r="N118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>219537</v>
       </c>
       <c r="O118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>215202</v>
       </c>
       <c r="P118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>251159</v>
       </c>
       <c r="Q118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>37222</v>
       </c>
       <c r="R118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>171232</v>
       </c>
       <c r="S118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>113947</v>
       </c>
       <c r="T118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>274748</v>
       </c>
       <c r="U118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>178819</v>
       </c>
       <c r="V118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>125117</v>
       </c>
       <c r="W118" s="74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>131622</v>
       </c>
       <c r="X118" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>136581</v>
       </c>
       <c r="Y118" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>135380</v>
       </c>
       <c r="Z118" s="76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>74595</v>
       </c>
       <c r="AA118" s="77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>134992</v>
       </c>
       <c r="AB118" s="77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>141712</v>
       </c>
       <c r="AC118" s="77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>128337</v>
       </c>
       <c r="AD118" s="81">
-        <f t="shared" ref="AD118" si="18">AD117+AD115</f>
+        <f t="shared" ref="AD118:AE118" si="21">AD117+AD115</f>
         <v>133682</v>
       </c>
-      <c r="AG118" s="68"/>
-    </row>
-    <row r="119" spans="1:33" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE118" s="84">
+        <f t="shared" si="21"/>
+        <v>121696</v>
+      </c>
+      <c r="AF118" s="86">
+        <f t="shared" ref="AF118" si="22">AF117+AF115</f>
+        <v>139286</v>
+      </c>
+      <c r="AI118" s="68"/>
+      <c r="AJ118" s="68"/>
+    </row>
+    <row r="119" spans="1:36" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F119" s="4"/>
       <c r="X119" s="76"/>
       <c r="Y119" s="76"/>
@@ -8356,9 +8707,12 @@
       <c r="AB119" s="77"/>
       <c r="AC119" s="77"/>
       <c r="AD119" s="81"/>
-      <c r="AG119" s="68"/>
-    </row>
-    <row r="120" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE119" s="84"/>
+      <c r="AF119" s="86"/>
+      <c r="AI119" s="68"/>
+      <c r="AJ119" s="68"/>
+    </row>
+    <row r="120" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>316</v>
       </c>
@@ -8449,9 +8803,16 @@
       <c r="AD120" s="81">
         <v>2.2549999999999999</v>
       </c>
-      <c r="AG120" s="77"/>
-    </row>
-    <row r="121" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE120" s="84">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="AF120" s="86">
+        <v>2.0531999999999999</v>
+      </c>
+      <c r="AI120" s="77"/>
+      <c r="AJ120" s="86"/>
+    </row>
+    <row r="121" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>309</v>
       </c>
@@ -8549,9 +8910,18 @@
         <f>1849+1276+1512+773+955</f>
         <v>6365</v>
       </c>
-      <c r="AG121" s="77"/>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE121" s="84">
+        <f>1619+1284+1521+1316+790</f>
+        <v>6530</v>
+      </c>
+      <c r="AF121" s="86">
+        <f>1990+1311+1585+1212+851</f>
+        <v>6949</v>
+      </c>
+      <c r="AI121" s="77"/>
+      <c r="AJ121" s="86"/>
+    </row>
+    <row r="122" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>10</v>
       </c>
@@ -8642,10 +9012,17 @@
       <c r="AD122" s="81">
         <v>2.1025</v>
       </c>
-      <c r="AF122" s="66"/>
-      <c r="AG122" s="9"/>
-    </row>
-    <row r="123" spans="1:33" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="AE122" s="84">
+        <v>2.2366999999999999</v>
+      </c>
+      <c r="AF122" s="86">
+        <v>2.0179</v>
+      </c>
+      <c r="AH122" s="66"/>
+      <c r="AI122" s="9"/>
+      <c r="AJ122" s="9"/>
+    </row>
+    <row r="123" spans="1:36" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>309</v>
       </c>
@@ -8743,131 +9120,149 @@
         <f>778+905+881+859+579</f>
         <v>4002</v>
       </c>
-      <c r="AG123" s="68"/>
-    </row>
-    <row r="124" spans="1:33" s="74" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AE123" s="84">
+        <f>1195+1131+1268+993+531</f>
+        <v>5118</v>
+      </c>
+      <c r="AF123" s="86">
+        <f>660+875+798+545+1030</f>
+        <v>3908</v>
+      </c>
+      <c r="AI123" s="68"/>
+      <c r="AJ123" s="68"/>
+    </row>
+    <row r="124" spans="1:36" s="74" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B124" s="74">
-        <f t="shared" ref="B124:AC124" si="19">B123+B121</f>
+        <f t="shared" ref="B124:AC124" si="23">B123+B121</f>
         <v>19898</v>
       </c>
       <c r="C124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23194</v>
       </c>
       <c r="D124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4418</v>
       </c>
       <c r="E124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10258</v>
       </c>
       <c r="F124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35289</v>
       </c>
       <c r="G124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>24503</v>
       </c>
       <c r="H124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23455</v>
       </c>
       <c r="I124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>28403</v>
       </c>
       <c r="J124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>24122</v>
       </c>
       <c r="K124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>24605</v>
       </c>
       <c r="L124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>22787</v>
       </c>
       <c r="M124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>27156</v>
       </c>
       <c r="N124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>26633</v>
       </c>
       <c r="O124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>21040</v>
       </c>
       <c r="P124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20428</v>
       </c>
       <c r="Q124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6196</v>
       </c>
       <c r="R124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23380</v>
       </c>
       <c r="S124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>26407</v>
       </c>
       <c r="T124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>21962</v>
       </c>
       <c r="U124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11237</v>
       </c>
       <c r="V124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10644</v>
       </c>
       <c r="W124" s="74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>13560</v>
       </c>
       <c r="X124" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9419</v>
       </c>
       <c r="Y124" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9821</v>
       </c>
       <c r="Z124" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6262</v>
       </c>
       <c r="AA124" s="77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10314</v>
       </c>
       <c r="AB124" s="77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10106</v>
       </c>
       <c r="AC124" s="77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11650</v>
       </c>
       <c r="AD124" s="81">
-        <f t="shared" ref="AD124" si="20">AD123+AD121</f>
+        <f t="shared" ref="AD124:AE124" si="24">AD123+AD121</f>
         <v>10367</v>
       </c>
-      <c r="AG124" s="9"/>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE124" s="84">
+        <f t="shared" si="24"/>
+        <v>11648</v>
+      </c>
+      <c r="AF124" s="86">
+        <f t="shared" ref="AF124" si="25">AF123+AF121</f>
+        <v>10857</v>
+      </c>
+      <c r="AI124" s="9"/>
+      <c r="AJ124" s="9"/>
+    </row>
+    <row r="125" spans="1:36" ht="18" x14ac:dyDescent="0.2">
       <c r="F125" s="1"/>
       <c r="S125" s="57"/>
       <c r="T125" s="57"/>
@@ -8881,10 +9276,13 @@
       <c r="AB125" s="77"/>
       <c r="AC125" s="77"/>
       <c r="AD125" s="81"/>
-      <c r="AF125"/>
-      <c r="AG125" s="77"/>
-    </row>
-    <row r="126" spans="1:33" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE125" s="84"/>
+      <c r="AF125" s="86"/>
+      <c r="AH125"/>
+      <c r="AI125" s="77"/>
+      <c r="AJ125" s="68"/>
+    </row>
+    <row r="126" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>17</v>
       </c>
@@ -8975,10 +9373,17 @@
       <c r="AD126" s="81">
         <v>0.2445</v>
       </c>
-      <c r="AF126" s="77"/>
-      <c r="AG126" s="9"/>
-    </row>
-    <row r="127" spans="1:33" ht="23" x14ac:dyDescent="0.35">
+      <c r="AE126" s="84">
+        <v>0.251</v>
+      </c>
+      <c r="AF126" s="86">
+        <v>0.2525</v>
+      </c>
+      <c r="AH126" s="77"/>
+      <c r="AI126" s="9"/>
+      <c r="AJ126" s="68"/>
+    </row>
+    <row r="127" spans="1:36" ht="23" x14ac:dyDescent="0.35">
       <c r="F127" s="4"/>
       <c r="S127" s="57"/>
       <c r="T127" s="66"/>
@@ -8992,10 +9397,13 @@
       <c r="AB127" s="77"/>
       <c r="AC127" s="77"/>
       <c r="AD127" s="81"/>
-      <c r="AF127" s="79"/>
-      <c r="AG127"/>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE127" s="84"/>
+      <c r="AF127" s="86"/>
+      <c r="AH127" s="79"/>
+      <c r="AI127"/>
+      <c r="AJ127"/>
+    </row>
+    <row r="128" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>18</v>
       </c>
@@ -9086,10 +9494,17 @@
       <c r="AD128" s="81">
         <v>0.1</v>
       </c>
-      <c r="AF128"/>
-      <c r="AG128" s="77"/>
-    </row>
-    <row r="129" spans="1:33" ht="23" x14ac:dyDescent="0.35">
+      <c r="AE128" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="AF128" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="AH128"/>
+      <c r="AI128" s="77"/>
+      <c r="AJ128" s="86"/>
+    </row>
+    <row r="129" spans="1:36" ht="23" x14ac:dyDescent="0.35">
       <c r="F129" s="4"/>
       <c r="S129" s="57"/>
       <c r="T129" s="66"/>
@@ -9103,10 +9518,13 @@
       <c r="AB129" s="77"/>
       <c r="AC129" s="77"/>
       <c r="AD129" s="81"/>
-      <c r="AF129" s="77"/>
-      <c r="AG129" s="79"/>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE129" s="84"/>
+      <c r="AF129" s="86"/>
+      <c r="AH129" s="77"/>
+      <c r="AI129" s="79"/>
+      <c r="AJ129" s="79"/>
+    </row>
+    <row r="130" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>16</v>
       </c>
@@ -9115,121 +9533,130 @@
         <v>0.32000000000000006</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ref="C130:K130" si="21">C126-C128</f>
+        <f t="shared" ref="C130:K130" si="26">C126-C128</f>
         <v>0.29000000000000004</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.27</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.24</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.12999999999999989</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>7.9999999999999849E-2</v>
       </c>
       <c r="I130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-0.14000000000000012</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-0.20400000000000007</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>-0.25687000000000004</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" ref="L130:M130" si="22">L126-L128</f>
+        <f t="shared" ref="L130:M130" si="27">L126-L128</f>
         <v>1.1041299999999998</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.3501299999999998</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" ref="N130:O130" si="23">N126-N128</f>
+        <f t="shared" ref="N130:O130" si="28">N126-N128</f>
         <v>1.28738</v>
       </c>
       <c r="O130" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.28738</v>
       </c>
       <c r="P130" s="1">
-        <f t="shared" ref="P130:Q130" si="24">P126-P128</f>
+        <f t="shared" ref="P130:Q130" si="29">P126-P128</f>
         <v>1.0089999999999999</v>
       </c>
       <c r="Q130" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.0089999999999999</v>
       </c>
       <c r="R130" s="1">
-        <f t="shared" ref="R130:S130" si="25">R126-R128</f>
+        <f t="shared" ref="R130:S130" si="30">R126-R128</f>
         <v>0.44088000000000005</v>
       </c>
       <c r="S130" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.33350000000000002</v>
       </c>
       <c r="T130" s="66">
-        <f t="shared" ref="T130:U130" si="26">T126-T128</f>
+        <f t="shared" ref="T130:U130" si="31">T126-T128</f>
         <v>0.28049999999999997</v>
       </c>
       <c r="U130" s="66">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.25949999999999995</v>
       </c>
       <c r="V130" s="69">
-        <f t="shared" ref="V130:W130" si="27">V126-V128</f>
+        <f t="shared" ref="V130:W130" si="32">V126-V128</f>
         <v>0.24399999999999997</v>
       </c>
       <c r="W130" s="74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0.21759999999999999</v>
       </c>
       <c r="X130" s="76">
-        <f t="shared" ref="X130:Y130" si="28">X126-X128</f>
+        <f t="shared" ref="X130:Y130" si="33">X126-X128</f>
         <v>0.22090000000000001</v>
       </c>
       <c r="Y130" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0.22090000000000001</v>
       </c>
       <c r="Z130" s="76">
-        <f t="shared" ref="Z130:AA130" si="29">Z126-Z128</f>
+        <f t="shared" ref="Z130:AA130" si="34">Z126-Z128</f>
         <v>0.19689999999999999</v>
       </c>
       <c r="AA130" s="77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.20380000000000001</v>
       </c>
       <c r="AB130" s="77">
-        <f t="shared" ref="AB130:AC130" si="30">AB126-AB128</f>
+        <f t="shared" ref="AB130:AC130" si="35">AB126-AB128</f>
         <v>0.16629999999999998</v>
       </c>
       <c r="AC130" s="77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.17179999999999998</v>
       </c>
       <c r="AD130" s="81">
-        <f t="shared" ref="AD130" si="31">AD126-AD128</f>
+        <f t="shared" ref="AD130:AE130" si="36">AD126-AD128</f>
         <v>0.14449999999999999</v>
       </c>
-      <c r="AF130" s="10"/>
-      <c r="AG130"/>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE130" s="84">
+        <f t="shared" si="36"/>
+        <v>0.151</v>
+      </c>
+      <c r="AF130" s="86">
+        <f t="shared" ref="AF130" si="37">AF126-AF128</f>
+        <v>0.1525</v>
+      </c>
+      <c r="AH130" s="10"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
+    </row>
+    <row r="131" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F131" s="4"/>
       <c r="S131" s="57"/>
       <c r="T131" s="66"/>
@@ -9243,10 +9670,13 @@
       <c r="AB131" s="77"/>
       <c r="AC131" s="77"/>
       <c r="AD131" s="81"/>
-      <c r="AF131" s="66"/>
-      <c r="AG131" s="77"/>
-    </row>
-    <row r="132" spans="1:33" ht="30" x14ac:dyDescent="0.15">
+      <c r="AE131" s="84"/>
+      <c r="AF131" s="86"/>
+      <c r="AH131" s="66"/>
+      <c r="AI131" s="77"/>
+      <c r="AJ131" s="86"/>
+    </row>
+    <row r="132" spans="1:36" ht="30" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>19</v>
       </c>
@@ -9337,10 +9767,17 @@
       <c r="AD132" s="81">
         <v>1.82</v>
       </c>
-      <c r="AF132" s="66"/>
-      <c r="AG132" s="10"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE132" s="84">
+        <v>1.84</v>
+      </c>
+      <c r="AF132" s="86">
+        <v>1.77</v>
+      </c>
+      <c r="AH132" s="66"/>
+      <c r="AI132" s="10"/>
+      <c r="AJ132" s="10"/>
+    </row>
+    <row r="133" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F133" s="4"/>
       <c r="S133" s="57"/>
       <c r="T133" s="57"/>
@@ -9354,8 +9791,11 @@
       <c r="AB133" s="77"/>
       <c r="AC133" s="77"/>
       <c r="AD133" s="81"/>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE133" s="84"/>
+      <c r="AF133" s="86"/>
+      <c r="AJ133"/>
+    </row>
+    <row r="134" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>20</v>
       </c>
@@ -9446,8 +9886,15 @@
       <c r="AD134" s="81">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE134" s="84">
+        <v>3</v>
+      </c>
+      <c r="AF134" s="86">
+        <v>4</v>
+      </c>
+      <c r="AJ134" s="84"/>
+    </row>
+    <row r="135" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F135" s="1"/>
       <c r="S135" s="57"/>
       <c r="T135" s="57"/>
@@ -9461,8 +9908,11 @@
       <c r="AB135" s="77"/>
       <c r="AC135" s="77"/>
       <c r="AD135" s="81"/>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE135" s="84"/>
+      <c r="AF135" s="86"/>
+      <c r="AJ135" s="10"/>
+    </row>
+    <row r="136" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>11</v>
       </c>
@@ -9553,8 +10003,14 @@
       <c r="AD136" s="81">
         <v>14063</v>
       </c>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE136" s="84">
+        <v>14169</v>
+      </c>
+      <c r="AF136" s="86">
+        <v>14720</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" x14ac:dyDescent="0.15">
       <c r="F137" s="1"/>
       <c r="S137" s="57"/>
       <c r="T137" s="57"/>
@@ -9568,8 +10024,10 @@
       <c r="AB137" s="77"/>
       <c r="AC137" s="77"/>
       <c r="AD137" s="81"/>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE137" s="84"/>
+      <c r="AF137" s="86"/>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
@@ -9672,20 +10130,28 @@
         <f>-144.18+63.92+-8.09+-34.2</f>
         <v>-122.55000000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:33" s="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A140" s="87" t="s">
+      <c r="AE138" s="84">
+        <f>3.55+-42.45+101.32+4.68-2.01</f>
+        <v>65.089999999999989</v>
+      </c>
+      <c r="AF138" s="86">
+        <f>3.7-0.98+3.32+43.5+23.45</f>
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" s="69" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A140" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="B140" s="87"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="87"/>
-      <c r="E140" s="87"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
       <c r="F140" s="4"/>
       <c r="T140" s="57"/>
     </row>
-    <row r="141" spans="1:33" s="69" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:36" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="71" t="s">
         <v>267</v>
       </c>
@@ -9759,7 +10225,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:33" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:36" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A142" s="72" t="s">
         <v>296</v>
       </c>
@@ -9814,11 +10280,14 @@
       <c r="R142" s="22">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="143" spans="1:33" s="69" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="S142" s="22">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="1:33" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:36" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A144" s="72" t="s">
         <v>292</v>
       </c>
@@ -9872,6 +10341,9 @@
       </c>
       <c r="R144" s="22">
         <v>0.11899999999999999</v>
+      </c>
+      <c r="S144" s="22">
+        <v>0.104</v>
       </c>
     </row>
     <row r="145" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
@@ -9932,6 +10404,9 @@
       <c r="R146" s="22">
         <v>0.13100000000000001</v>
       </c>
+      <c r="S146" s="22">
+        <v>0.11799999999999999</v>
+      </c>
     </row>
     <row r="147" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F147" s="4"/>
@@ -9940,40 +10415,40 @@
       <c r="A148" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="86">
+      <c r="B148" s="89">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="C148" s="86"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="86">
+      <c r="C148" s="89"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89">
         <v>2.18E-2</v>
       </c>
-      <c r="F148" s="86"/>
-      <c r="G148" s="86"/>
-      <c r="H148" s="86">
+      <c r="F148" s="89"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="89">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="I148" s="86"/>
-      <c r="J148" s="86"/>
-      <c r="K148" s="86">
+      <c r="I148" s="89"/>
+      <c r="J148" s="89"/>
+      <c r="K148" s="89">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L148" s="86"/>
-      <c r="M148" s="86"/>
-      <c r="N148" s="86">
+      <c r="L148" s="89"/>
+      <c r="M148" s="89"/>
+      <c r="N148" s="89">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O148" s="86"/>
-      <c r="P148" s="86"/>
-      <c r="Q148" s="85"/>
-      <c r="R148" s="85"/>
-      <c r="S148" s="85"/>
-      <c r="T148" s="85"/>
-      <c r="U148" s="85"/>
-      <c r="V148" s="85"/>
-      <c r="W148" s="85"/>
-      <c r="X148" s="85"/>
-      <c r="Y148" s="85"/>
+      <c r="O148" s="89"/>
+      <c r="P148" s="89"/>
+      <c r="Q148" s="91"/>
+      <c r="R148" s="91"/>
+      <c r="S148" s="91"/>
+      <c r="T148" s="91"/>
+      <c r="U148" s="91"/>
+      <c r="V148" s="91"/>
+      <c r="W148" s="91"/>
+      <c r="X148" s="91"/>
+      <c r="Y148" s="91"/>
     </row>
     <row r="149" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F149" s="4"/>
@@ -9982,40 +10457,40 @@
       <c r="A150" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B150" s="86">
+      <c r="B150" s="89">
         <v>2.12E-2</v>
       </c>
-      <c r="C150" s="86"/>
-      <c r="D150" s="86"/>
-      <c r="E150" s="86">
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F150" s="86"/>
-      <c r="G150" s="86"/>
-      <c r="H150" s="86">
+      <c r="F150" s="89"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="89">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="I150" s="86"/>
-      <c r="J150" s="86"/>
-      <c r="K150" s="86">
+      <c r="I150" s="89"/>
+      <c r="J150" s="89"/>
+      <c r="K150" s="89">
         <v>2.12E-2</v>
       </c>
-      <c r="L150" s="86"/>
-      <c r="M150" s="86"/>
-      <c r="N150" s="86">
+      <c r="L150" s="89"/>
+      <c r="M150" s="89"/>
+      <c r="N150" s="89">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="O150" s="86"/>
-      <c r="P150" s="86"/>
-      <c r="Q150" s="85"/>
-      <c r="R150" s="85"/>
-      <c r="S150" s="85"/>
-      <c r="T150" s="85"/>
-      <c r="U150" s="85"/>
-      <c r="V150" s="85"/>
-      <c r="W150" s="85"/>
-      <c r="X150" s="85"/>
-      <c r="Y150" s="85"/>
+      <c r="O150" s="89"/>
+      <c r="P150" s="89"/>
+      <c r="Q150" s="91"/>
+      <c r="R150" s="91"/>
+      <c r="S150" s="91"/>
+      <c r="T150" s="91"/>
+      <c r="U150" s="91"/>
+      <c r="V150" s="91"/>
+      <c r="W150" s="91"/>
+      <c r="X150" s="91"/>
+      <c r="Y150" s="91"/>
     </row>
     <row r="151" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F151" s="4"/>
@@ -10024,40 +10499,40 @@
       <c r="A152" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B152" s="86">
+      <c r="B152" s="89">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
-      <c r="E152" s="86">
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="F152" s="86"/>
-      <c r="G152" s="86"/>
-      <c r="H152" s="86">
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="I152" s="86"/>
-      <c r="J152" s="86"/>
-      <c r="K152" s="86">
+      <c r="I152" s="89"/>
+      <c r="J152" s="89"/>
+      <c r="K152" s="89">
         <v>2.12E-2</v>
       </c>
-      <c r="L152" s="86"/>
-      <c r="M152" s="86"/>
-      <c r="N152" s="86">
+      <c r="L152" s="89"/>
+      <c r="M152" s="89"/>
+      <c r="N152" s="89">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="O152" s="86"/>
-      <c r="P152" s="86"/>
-      <c r="Q152" s="85"/>
-      <c r="R152" s="85"/>
-      <c r="S152" s="85"/>
-      <c r="T152" s="85"/>
-      <c r="U152" s="85"/>
-      <c r="V152" s="85"/>
-      <c r="W152" s="85"/>
-      <c r="X152" s="85"/>
-      <c r="Y152" s="85"/>
+      <c r="O152" s="89"/>
+      <c r="P152" s="89"/>
+      <c r="Q152" s="91"/>
+      <c r="R152" s="91"/>
+      <c r="S152" s="91"/>
+      <c r="T152" s="91"/>
+      <c r="U152" s="91"/>
+      <c r="V152" s="91"/>
+      <c r="W152" s="91"/>
+      <c r="X152" s="91"/>
+      <c r="Y152" s="91"/>
     </row>
     <row r="153" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F153" s="4"/>
@@ -10066,40 +10541,40 @@
       <c r="A154" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B154" s="86">
+      <c r="B154" s="89">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
-      <c r="E154" s="86">
+      <c r="C154" s="89"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F154" s="86"/>
-      <c r="G154" s="86"/>
-      <c r="H154" s="86">
+      <c r="F154" s="89"/>
+      <c r="G154" s="89"/>
+      <c r="H154" s="89">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="I154" s="86"/>
-      <c r="J154" s="86"/>
-      <c r="K154" s="86">
+      <c r="I154" s="89"/>
+      <c r="J154" s="89"/>
+      <c r="K154" s="89">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="L154" s="86"/>
-      <c r="M154" s="86"/>
-      <c r="N154" s="86">
+      <c r="L154" s="89"/>
+      <c r="M154" s="89"/>
+      <c r="N154" s="89">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="O154" s="86"/>
-      <c r="P154" s="86"/>
-      <c r="Q154" s="85"/>
-      <c r="R154" s="85"/>
-      <c r="S154" s="85"/>
-      <c r="T154" s="85"/>
-      <c r="U154" s="85"/>
-      <c r="V154" s="85"/>
-      <c r="W154" s="85"/>
-      <c r="X154" s="85"/>
-      <c r="Y154" s="85"/>
+      <c r="O154" s="89"/>
+      <c r="P154" s="89"/>
+      <c r="Q154" s="91"/>
+      <c r="R154" s="91"/>
+      <c r="S154" s="91"/>
+      <c r="T154" s="91"/>
+      <c r="U154" s="91"/>
+      <c r="V154" s="91"/>
+      <c r="W154" s="91"/>
+      <c r="X154" s="91"/>
+      <c r="Y154" s="91"/>
     </row>
     <row r="155" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F155" s="4"/>
@@ -10108,40 +10583,40 @@
       <c r="A156" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B156" s="86">
+      <c r="B156" s="89">
         <v>1.32E-2</v>
       </c>
-      <c r="C156" s="86"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="86">
+      <c r="C156" s="89"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89">
         <v>1.26E-2</v>
       </c>
-      <c r="F156" s="86"/>
-      <c r="G156" s="86"/>
-      <c r="H156" s="86">
+      <c r="F156" s="89"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="89">
         <v>1.32E-2</v>
       </c>
-      <c r="I156" s="86"/>
-      <c r="J156" s="86"/>
-      <c r="K156" s="86">
+      <c r="I156" s="89"/>
+      <c r="J156" s="89"/>
+      <c r="K156" s="89">
         <v>1.38E-2</v>
       </c>
-      <c r="L156" s="86"/>
-      <c r="M156" s="86"/>
-      <c r="N156" s="86">
+      <c r="L156" s="89"/>
+      <c r="M156" s="89"/>
+      <c r="N156" s="89">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="O156" s="86"/>
-      <c r="P156" s="86"/>
-      <c r="Q156" s="85"/>
-      <c r="R156" s="85"/>
-      <c r="S156" s="85"/>
-      <c r="T156" s="85"/>
-      <c r="U156" s="85"/>
-      <c r="V156" s="85"/>
-      <c r="W156" s="85"/>
-      <c r="X156" s="85"/>
-      <c r="Y156" s="85"/>
+      <c r="O156" s="89"/>
+      <c r="P156" s="89"/>
+      <c r="Q156" s="91"/>
+      <c r="R156" s="91"/>
+      <c r="S156" s="91"/>
+      <c r="T156" s="91"/>
+      <c r="U156" s="91"/>
+      <c r="V156" s="91"/>
+      <c r="W156" s="91"/>
+      <c r="X156" s="91"/>
+      <c r="Y156" s="91"/>
     </row>
     <row r="157" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F157" s="4"/>
@@ -10150,40 +10625,40 @@
       <c r="A158" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B158" s="86">
+      <c r="B158" s="89">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="C158" s="86"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="86">
+      <c r="C158" s="89"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89">
         <v>1.67E-2</v>
       </c>
-      <c r="F158" s="86"/>
-      <c r="G158" s="86"/>
-      <c r="H158" s="86">
+      <c r="F158" s="89"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="89">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="I158" s="86"/>
-      <c r="J158" s="86"/>
-      <c r="K158" s="86">
+      <c r="I158" s="89"/>
+      <c r="J158" s="89"/>
+      <c r="K158" s="89">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="L158" s="86"/>
-      <c r="M158" s="86"/>
-      <c r="N158" s="86">
+      <c r="L158" s="89"/>
+      <c r="M158" s="89"/>
+      <c r="N158" s="89">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="O158" s="86"/>
-      <c r="P158" s="86"/>
-      <c r="Q158" s="85"/>
-      <c r="R158" s="85"/>
-      <c r="S158" s="85"/>
-      <c r="T158" s="85"/>
-      <c r="U158" s="85"/>
-      <c r="V158" s="85"/>
-      <c r="W158" s="85"/>
-      <c r="X158" s="85"/>
-      <c r="Y158" s="85"/>
+      <c r="O158" s="89"/>
+      <c r="P158" s="89"/>
+      <c r="Q158" s="91"/>
+      <c r="R158" s="91"/>
+      <c r="S158" s="91"/>
+      <c r="T158" s="91"/>
+      <c r="U158" s="91"/>
+      <c r="V158" s="91"/>
+      <c r="W158" s="91"/>
+      <c r="X158" s="91"/>
+      <c r="Y158" s="91"/>
     </row>
     <row r="159" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F159" s="4"/>
@@ -10192,40 +10667,40 @@
       <c r="A160" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B160" s="86">
+      <c r="B160" s="89">
         <v>1.9217</v>
       </c>
-      <c r="C160" s="86"/>
-      <c r="D160" s="86"/>
-      <c r="E160" s="86">
+      <c r="C160" s="89"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89">
         <v>1.9060999999999999</v>
       </c>
-      <c r="F160" s="86"/>
-      <c r="G160" s="86"/>
-      <c r="H160" s="86">
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89">
         <v>1.8763000000000001</v>
       </c>
-      <c r="I160" s="86"/>
-      <c r="J160" s="86"/>
-      <c r="K160" s="86">
+      <c r="I160" s="89"/>
+      <c r="J160" s="89"/>
+      <c r="K160" s="89">
         <v>1.8608</v>
       </c>
-      <c r="L160" s="86"/>
-      <c r="M160" s="86"/>
-      <c r="N160" s="86">
+      <c r="L160" s="89"/>
+      <c r="M160" s="89"/>
+      <c r="N160" s="89">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="O160" s="86"/>
-      <c r="P160" s="86"/>
-      <c r="Q160" s="85"/>
-      <c r="R160" s="85"/>
-      <c r="S160" s="85"/>
-      <c r="T160" s="85"/>
-      <c r="U160" s="85"/>
-      <c r="V160" s="85"/>
-      <c r="W160" s="85"/>
-      <c r="X160" s="85"/>
-      <c r="Y160" s="85"/>
+      <c r="O160" s="89"/>
+      <c r="P160" s="89"/>
+      <c r="Q160" s="91"/>
+      <c r="R160" s="91"/>
+      <c r="S160" s="91"/>
+      <c r="T160" s="91"/>
+      <c r="U160" s="91"/>
+      <c r="V160" s="91"/>
+      <c r="W160" s="91"/>
+      <c r="X160" s="91"/>
+      <c r="Y160" s="91"/>
     </row>
     <row r="161" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F161" s="4"/>
@@ -10234,40 +10709,40 @@
       <c r="A162" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B162" s="86">
+      <c r="B162" s="89">
         <v>2.4043999999999999</v>
       </c>
-      <c r="C162" s="86"/>
-      <c r="D162" s="86"/>
-      <c r="E162" s="86">
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89">
         <v>2.5068999999999999</v>
       </c>
-      <c r="F162" s="86"/>
-      <c r="G162" s="86"/>
-      <c r="H162" s="86">
+      <c r="F162" s="89"/>
+      <c r="G162" s="89"/>
+      <c r="H162" s="89">
         <v>2.4020000000000001</v>
       </c>
-      <c r="I162" s="86"/>
-      <c r="J162" s="86"/>
-      <c r="K162" s="86">
+      <c r="I162" s="89"/>
+      <c r="J162" s="89"/>
+      <c r="K162" s="89">
         <v>2.3433000000000002</v>
       </c>
-      <c r="L162" s="86"/>
-      <c r="M162" s="86"/>
-      <c r="N162" s="86">
+      <c r="L162" s="89"/>
+      <c r="M162" s="89"/>
+      <c r="N162" s="89">
         <v>2.3170000000000002</v>
       </c>
-      <c r="O162" s="86"/>
-      <c r="P162" s="86"/>
-      <c r="Q162" s="85"/>
-      <c r="R162" s="85"/>
-      <c r="S162" s="85"/>
-      <c r="T162" s="85"/>
-      <c r="U162" s="85"/>
-      <c r="V162" s="85"/>
-      <c r="W162" s="85"/>
-      <c r="X162" s="85"/>
-      <c r="Y162" s="85"/>
+      <c r="O162" s="89"/>
+      <c r="P162" s="89"/>
+      <c r="Q162" s="91"/>
+      <c r="R162" s="91"/>
+      <c r="S162" s="91"/>
+      <c r="T162" s="91"/>
+      <c r="U162" s="91"/>
+      <c r="V162" s="91"/>
+      <c r="W162" s="91"/>
+      <c r="X162" s="91"/>
+      <c r="Y162" s="91"/>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F163" s="4"/>
@@ -10277,40 +10752,40 @@
       <c r="A164" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B164" s="86">
+      <c r="B164" s="89">
         <v>1.9218</v>
       </c>
-      <c r="C164" s="86"/>
-      <c r="D164" s="86"/>
-      <c r="E164" s="86">
+      <c r="C164" s="89"/>
+      <c r="D164" s="89"/>
+      <c r="E164" s="89">
         <v>1.9300999999999999</v>
       </c>
-      <c r="F164" s="86"/>
-      <c r="G164" s="86"/>
-      <c r="H164" s="86">
+      <c r="F164" s="89"/>
+      <c r="G164" s="89"/>
+      <c r="H164" s="89">
         <v>1.9877</v>
       </c>
-      <c r="I164" s="86"/>
-      <c r="J164" s="86"/>
-      <c r="K164" s="86">
+      <c r="I164" s="89"/>
+      <c r="J164" s="89"/>
+      <c r="K164" s="89">
         <v>1.9297</v>
       </c>
-      <c r="L164" s="86"/>
-      <c r="M164" s="86"/>
-      <c r="N164" s="86">
+      <c r="L164" s="89"/>
+      <c r="M164" s="89"/>
+      <c r="N164" s="89">
         <v>1.9988999999999999</v>
       </c>
-      <c r="O164" s="86"/>
-      <c r="P164" s="86"/>
-      <c r="Q164" s="85"/>
-      <c r="R164" s="85"/>
-      <c r="S164" s="85"/>
-      <c r="T164" s="85"/>
-      <c r="U164" s="85"/>
-      <c r="V164" s="85"/>
-      <c r="W164" s="85"/>
-      <c r="X164" s="85"/>
-      <c r="Y164" s="85"/>
+      <c r="O164" s="89"/>
+      <c r="P164" s="89"/>
+      <c r="Q164" s="91"/>
+      <c r="R164" s="91"/>
+      <c r="S164" s="91"/>
+      <c r="T164" s="91"/>
+      <c r="U164" s="91"/>
+      <c r="V164" s="91"/>
+      <c r="W164" s="91"/>
+      <c r="X164" s="91"/>
+      <c r="Y164" s="91"/>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.15">
       <c r="F165" s="4"/>
@@ -10371,7 +10846,9 @@
       <c r="R166" s="73">
         <v>23064</v>
       </c>
-      <c r="S166" s="73"/>
+      <c r="S166" s="73">
+        <v>27186</v>
+      </c>
       <c r="T166" s="73"/>
       <c r="U166" s="73"/>
       <c r="V166" s="73"/>
@@ -10381,6 +10858,7 @@
     </row>
     <row r="167" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F167" s="4"/>
+      <c r="S167" s="83"/>
     </row>
     <row r="168" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="72" t="s">
@@ -10437,7 +10915,9 @@
       <c r="R168" s="73">
         <v>5149</v>
       </c>
-      <c r="S168" s="73"/>
+      <c r="S168" s="73">
+        <v>6308</v>
+      </c>
       <c r="T168" s="73"/>
       <c r="U168" s="73"/>
       <c r="V168" s="73"/>
@@ -10447,6 +10927,7 @@
     </row>
     <row r="169" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F169" s="4"/>
+      <c r="S169" s="83"/>
     </row>
     <row r="170" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="72" t="s">
@@ -10503,7 +10984,9 @@
       <c r="R170" s="73">
         <v>27841</v>
       </c>
-      <c r="S170" s="73"/>
+      <c r="S170" s="73">
+        <v>28152</v>
+      </c>
       <c r="T170" s="73"/>
       <c r="U170" s="73"/>
       <c r="V170" s="73"/>
@@ -10513,9 +10996,10 @@
     </row>
     <row r="171" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F171" s="4"/>
-      <c r="R171" s="78">
-        <f>(R170-B170)/B170</f>
-        <v>0.11596119929453262</v>
+      <c r="R171" s="78"/>
+      <c r="S171" s="83">
+        <f>(S170-B170)/B170</f>
+        <v>0.12842712842712842</v>
       </c>
     </row>
     <row r="172" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
@@ -10573,7 +11057,9 @@
       <c r="R172" s="73">
         <v>68201</v>
       </c>
-      <c r="S172" s="73"/>
+      <c r="S172" s="73">
+        <v>69700</v>
+      </c>
       <c r="T172" s="73"/>
       <c r="U172" s="73"/>
       <c r="V172" s="73"/>
@@ -10583,9 +11069,10 @@
     </row>
     <row r="173" spans="1:25" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F173" s="4"/>
-      <c r="R173" s="78">
-        <f>(R172-B172)/B172</f>
-        <v>0.19901197236335508</v>
+      <c r="R173" s="78"/>
+      <c r="S173" s="83">
+        <f>(S172-B172)/B172</f>
+        <v>0.22536523619486296</v>
       </c>
     </row>
     <row r="174" spans="1:25" s="78" customFormat="1" x14ac:dyDescent="0.15">
@@ -10643,7 +11130,9 @@
       <c r="R174" s="73">
         <v>26104</v>
       </c>
-      <c r="S174" s="73"/>
+      <c r="S174" s="73">
+        <v>26828</v>
+      </c>
       <c r="T174" s="73"/>
       <c r="U174" s="73"/>
       <c r="V174" s="73"/>
@@ -10653,9 +11142,10 @@
     </row>
     <row r="175" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F175" s="4"/>
-      <c r="R175" s="78">
-        <f>(R174-B174)/B174</f>
-        <v>0.30847117794486217</v>
+      <c r="R175" s="78"/>
+      <c r="S175" s="83">
+        <f>(S174-B174)/B174</f>
+        <v>0.34476190476190477</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.15">
@@ -12317,8 +12807,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="77" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="84" t="s">
+    <row r="209" spans="1:26" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="92" t="s">
         <v>363</v>
       </c>
       <c r="B209" s="71" t="s">
@@ -12379,8 +12869,8 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A210" s="85"/>
+    <row r="210" spans="1:26" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="A210" s="91"/>
       <c r="B210" s="71" t="s">
         <v>362</v>
       </c>
@@ -12439,8 +12929,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="77" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="84" t="s">
+    <row r="211" spans="1:26" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="92" t="s">
         <v>364</v>
       </c>
       <c r="B211" s="71" t="s">
@@ -12501,8 +12991,8 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="17" x14ac:dyDescent="0.15">
-      <c r="A212" s="85"/>
+    <row r="212" spans="1:26" ht="17" x14ac:dyDescent="0.15">
+      <c r="A212" s="91"/>
       <c r="B212" s="71" t="s">
         <v>362</v>
       </c>
@@ -12561,8 +13051,8 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A213" s="84" t="s">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A213" s="92" t="s">
         <v>365</v>
       </c>
       <c r="B213" s="71" t="s">
@@ -12623,8 +13113,8 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A214" s="85"/>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A214" s="91"/>
       <c r="B214" s="71" t="s">
         <v>362</v>
       </c>
@@ -12683,82 +13173,469 @@
         <v>-33.1</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F215" s="4"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:26" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A216" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="B216" s="85"/>
+      <c r="C216" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D216" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E216" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F216" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G216" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H216" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="I216" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="J216" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K216" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L216" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="M216" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="N216" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="O216" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="P216" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q216" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="R216" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="S216" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="T216" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="U216" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="V216" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="W216" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="X216" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y216" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z216" s="85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:26" s="86" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F221" s="4"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:26" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A222" s="86" t="s">
+        <v>381</v>
+      </c>
+      <c r="B222" s="85"/>
+      <c r="C222" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D222" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E222" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F222" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G222" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H222" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="I222" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="J222" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K222" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L222" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="M222" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="N222" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="O222" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="P222" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q222" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="R222" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="S222" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="T222" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="U222" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="V222" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="W222" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="X222" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y222" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z222" s="85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F223" s="4"/>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="F224" s="4"/>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:26" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A224" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="B224" s="85"/>
+      <c r="C224" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D224" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E224" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F224" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G224" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H224" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="I224" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="J224" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K224" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L224" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="M224" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="N224" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="O224" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="P224" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q224" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="R224" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="S224" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="T224" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="U224" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="V224" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="W224" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="X224" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y224" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z224" s="85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F225" s="4"/>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F226" s="4"/>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:26" s="86" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A226" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="B226" s="85"/>
+      <c r="C226" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D226" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E226" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F226" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G226" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H226" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="I226" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="J226" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K226" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L226" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="M226" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="N226" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="O226" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="P226" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q226" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="R226" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="S226" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="T226" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="U226" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="V226" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="W226" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="X226" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y226" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z226" s="85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F227" s="4"/>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F228" s="4"/>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:26" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A228" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B228" s="85"/>
+      <c r="C228" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D228" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E228" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="F228" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="G228" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="H228" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="I228" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="J228" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="K228" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L228" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="M228" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="N228" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="O228" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="P228" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q228" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="R228" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="S228" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="T228" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="U228" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="V228" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="W228" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="X228" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y228" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z228" s="85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F229" s="4"/>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F230" s="4"/>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F231" s="4"/>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F232" s="4"/>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F233" s="4"/>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F234" s="4"/>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F235" s="4"/>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F236" s="4"/>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F237" s="4"/>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F238" s="4"/>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F239" s="4"/>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F240" s="4"/>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.15">
@@ -12971,14 +13848,70 @@
     <row r="310" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F310" s="4"/>
     </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F312" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="Q162:S162"/>
+    <mergeCell ref="T162:V162"/>
+    <mergeCell ref="W162:Y162"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="K164:M164"/>
+    <mergeCell ref="N164:P164"/>
+    <mergeCell ref="Q164:S164"/>
+    <mergeCell ref="T164:V164"/>
+    <mergeCell ref="W164:Y164"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:M162"/>
+    <mergeCell ref="N162:P162"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="T156:V156"/>
+    <mergeCell ref="W156:Y156"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:M158"/>
+    <mergeCell ref="N158:P158"/>
+    <mergeCell ref="Q158:S158"/>
+    <mergeCell ref="T158:V158"/>
+    <mergeCell ref="W158:Y158"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="E156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="K156:M156"/>
+    <mergeCell ref="N156:P156"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="T160:V160"/>
+    <mergeCell ref="W160:Y160"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="N150:P150"/>
+    <mergeCell ref="Q150:S150"/>
+    <mergeCell ref="T150:V150"/>
+    <mergeCell ref="W150:Y150"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:M152"/>
+    <mergeCell ref="N152:P152"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:M160"/>
+    <mergeCell ref="N160:P160"/>
     <mergeCell ref="Q148:S148"/>
     <mergeCell ref="T148:V148"/>
     <mergeCell ref="W148:Y148"/>
@@ -12995,62 +13928,12 @@
     <mergeCell ref="W152:Y152"/>
     <mergeCell ref="B148:D148"/>
     <mergeCell ref="E148:G148"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:M160"/>
-    <mergeCell ref="N160:P160"/>
-    <mergeCell ref="Q160:S160"/>
-    <mergeCell ref="T160:V160"/>
-    <mergeCell ref="W160:Y160"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="N150:P150"/>
-    <mergeCell ref="Q150:S150"/>
-    <mergeCell ref="T150:V150"/>
-    <mergeCell ref="W150:Y150"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="K152:M152"/>
-    <mergeCell ref="N152:P152"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="T156:V156"/>
-    <mergeCell ref="W156:Y156"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="H158:J158"/>
-    <mergeCell ref="K158:M158"/>
-    <mergeCell ref="N158:P158"/>
-    <mergeCell ref="Q158:S158"/>
-    <mergeCell ref="T158:V158"/>
-    <mergeCell ref="W158:Y158"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="E156:G156"/>
-    <mergeCell ref="H156:J156"/>
-    <mergeCell ref="K156:M156"/>
-    <mergeCell ref="N156:P156"/>
-    <mergeCell ref="W162:Y162"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="K164:M164"/>
-    <mergeCell ref="N164:P164"/>
-    <mergeCell ref="Q164:S164"/>
-    <mergeCell ref="T164:V164"/>
-    <mergeCell ref="W164:Y164"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:M162"/>
-    <mergeCell ref="N162:P162"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="Q162:S162"/>
-    <mergeCell ref="T162:V162"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A140:E140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13123,7 +14006,7 @@
       <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="97" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -13190,7 +14073,7 @@
       <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -13257,7 +14140,7 @@
       <c r="AA3" s="38"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
@@ -13319,7 +14202,7 @@
       <c r="AA4" s="31"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
@@ -13379,7 +14262,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
@@ -13440,7 +14323,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
@@ -13449,7 +14332,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="98" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -13460,7 +14343,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="94"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
@@ -13469,7 +14352,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="94"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
@@ -13478,7 +14361,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="94"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="14" t="s">
         <v>47</v>
       </c>
@@ -13487,7 +14370,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="94"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
@@ -13496,7 +14379,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="94"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -13505,7 +14388,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A14" s="94"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="14" t="s">
         <v>47</v>
       </c>
@@ -13514,7 +14397,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="97" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -13525,7 +14408,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="15" t="s">
         <v>55</v>
       </c>
@@ -13534,7 +14417,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="15" t="s">
         <v>56</v>
       </c>
@@ -13543,7 +14426,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -13552,7 +14435,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="15" t="s">
         <v>61</v>
       </c>
@@ -13561,7 +14444,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="15" t="s">
         <v>63</v>
       </c>
@@ -13570,7 +14453,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="15" t="s">
         <v>63</v>
       </c>
@@ -13579,7 +14462,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="15" t="s">
         <v>66</v>
       </c>
@@ -13588,7 +14471,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="15" t="s">
         <v>66</v>
       </c>
@@ -13597,7 +14480,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -13606,7 +14489,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="98" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -13617,7 +14500,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="94"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -13626,7 +14509,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
@@ -13635,7 +14518,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="94"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="14" t="s">
         <v>72</v>
       </c>
@@ -13644,7 +14527,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="94"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="14" t="s">
         <v>72</v>
       </c>
@@ -13653,7 +14536,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="94"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="14" t="s">
         <v>72</v>
       </c>
@@ -13662,7 +14545,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="94"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="14" t="s">
         <v>73</v>
       </c>
@@ -13671,7 +14554,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="94"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="14" t="s">
         <v>73</v>
       </c>
@@ -13680,7 +14563,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="97" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -13691,7 +14574,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
@@ -13700,7 +14583,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="15" t="s">
         <v>85</v>
       </c>
@@ -13709,7 +14592,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="15" t="s">
         <v>86</v>
       </c>
@@ -13718,7 +14601,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="98" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -13729,7 +14612,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="94"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="14" t="s">
         <v>93</v>
       </c>
@@ -13738,7 +14621,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="94"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="14" t="s">
         <v>93</v>
       </c>
@@ -13747,7 +14630,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="94"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="14" t="s">
         <v>94</v>
       </c>
@@ -13756,7 +14639,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="94"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="14" t="s">
         <v>94</v>
       </c>
@@ -13765,7 +14648,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="94"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="14" t="s">
         <v>94</v>
       </c>
@@ -13774,7 +14657,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="94"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="14" t="s">
         <v>94</v>
       </c>
@@ -13783,7 +14666,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="94"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="14" t="s">
         <v>94</v>
       </c>
@@ -13792,7 +14675,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="97" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -13803,7 +14686,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="93"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="15" t="s">
         <v>104</v>
       </c>
@@ -13812,7 +14695,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="93"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="15" t="s">
         <v>105</v>
       </c>
@@ -13821,7 +14704,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="93"/>
+      <c r="A48" s="97"/>
       <c r="B48" s="15" t="s">
         <v>105</v>
       </c>
@@ -13830,7 +14713,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49" s="93"/>
+      <c r="A49" s="97"/>
       <c r="B49" s="15" t="s">
         <v>106</v>
       </c>
@@ -13839,7 +14722,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50" s="93"/>
+      <c r="A50" s="97"/>
       <c r="B50" s="15" t="s">
         <v>106</v>
       </c>
@@ -13848,7 +14731,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="93"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="15" t="s">
         <v>107</v>
       </c>
@@ -13857,7 +14740,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="93"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="15" t="s">
         <v>107</v>
       </c>
@@ -13866,7 +14749,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53" s="93"/>
+      <c r="A53" s="97"/>
       <c r="B53" s="15" t="s">
         <v>107</v>
       </c>
@@ -13875,7 +14758,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54" s="93"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="15" t="s">
         <v>108</v>
       </c>
@@ -13885,7 +14768,7 @@
     </row>
     <row r="56" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -13894,18 +14777,18 @@
       <c r="C58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="90"/>
-      <c r="I58" s="91" t="s">
+      <c r="E58" s="93"/>
+      <c r="I58" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A59" s="89"/>
+      <c r="A59" s="99"/>
       <c r="B59" s="19" t="s">
         <v>121</v>
       </c>
@@ -13918,12 +14801,12 @@
       <c r="E59" s="21">
         <v>0.1</v>
       </c>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
     </row>
     <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="19" t="s">
         <v>122</v>
       </c>
@@ -13936,12 +14819,12 @@
       <c r="E60" s="21">
         <v>0.08</v>
       </c>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
     </row>
     <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A61" s="89"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="19" t="s">
         <v>123</v>
       </c>
@@ -13957,7 +14840,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
+      <c r="A62" s="99"/>
       <c r="B62" s="19" t="s">
         <v>124</v>
       </c>
@@ -13976,7 +14859,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A63" s="88" t="s">
+      <c r="A63" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="18">
@@ -14008,17 +14891,17 @@
       <c r="J63" s="19">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K63" s="85" t="s">
+      <c r="K63" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64" s="88"/>
+      <c r="A64" s="96"/>
       <c r="B64" s="18">
         <v>2</v>
       </c>
@@ -14048,15 +14931,15 @@
       <c r="J64" s="19">
         <v>31.03</v>
       </c>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
+      <c r="A65" s="96"/>
       <c r="B65" s="18">
         <v>3</v>
       </c>
@@ -14104,7 +14987,7 @@
       </c>
     </row>
     <row r="66" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A66" s="88"/>
+      <c r="A66" s="96"/>
       <c r="B66" s="18">
         <v>4</v>
       </c>
@@ -14159,7 +15042,7 @@
       </c>
     </row>
     <row r="67" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A67" s="88"/>
+      <c r="A67" s="96"/>
       <c r="B67" s="18">
         <v>5</v>
       </c>
@@ -14214,7 +15097,7 @@
       </c>
     </row>
     <row r="68" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A68" s="88"/>
+      <c r="A68" s="96"/>
       <c r="B68" s="18">
         <v>6</v>
       </c>
@@ -14269,7 +15152,7 @@
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A69" s="88"/>
+      <c r="A69" s="96"/>
       <c r="B69" s="18">
         <v>7</v>
       </c>
@@ -14324,7 +15207,7 @@
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A70" s="88"/>
+      <c r="A70" s="96"/>
       <c r="B70" s="18">
         <v>8</v>
       </c>
@@ -14379,7 +15262,7 @@
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A71" s="88"/>
+      <c r="A71" s="96"/>
       <c r="B71" s="18">
         <v>9</v>
       </c>
@@ -14405,7 +15288,7 @@
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A72" s="88"/>
+      <c r="A72" s="96"/>
       <c r="B72" s="18">
         <v>10</v>
       </c>
@@ -14806,7 +15689,7 @@
     </row>
     <row r="85" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -14815,18 +15698,18 @@
       <c r="C87" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="90" t="s">
+      <c r="D87" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="90"/>
-      <c r="I87" s="91" t="s">
+      <c r="E87" s="93"/>
+      <c r="I87" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
+      <c r="J87" s="95"/>
+      <c r="K87" s="95"/>
     </row>
     <row r="88" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="89"/>
+      <c r="A88" s="99"/>
       <c r="B88" s="19" t="s">
         <v>121</v>
       </c>
@@ -14839,12 +15722,12 @@
       <c r="E88" s="21">
         <v>0.2</v>
       </c>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="95"/>
     </row>
     <row r="89" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A89" s="89"/>
+      <c r="A89" s="99"/>
       <c r="B89" s="19" t="s">
         <v>122</v>
       </c>
@@ -14857,12 +15740,12 @@
       <c r="E89" s="21">
         <v>0.08</v>
       </c>
-      <c r="I89" s="92"/>
-      <c r="J89" s="92"/>
-      <c r="K89" s="92"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
+      <c r="A90" s="99"/>
       <c r="B90" s="19" t="s">
         <v>123</v>
       </c>
@@ -14878,7 +15761,7 @@
       </c>
     </row>
     <row r="91" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A91" s="89"/>
+      <c r="A91" s="99"/>
       <c r="B91" s="19" t="s">
         <v>124</v>
       </c>
@@ -14897,7 +15780,7 @@
       </c>
     </row>
     <row r="92" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A92" s="88" t="s">
+      <c r="A92" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B92" s="18">
@@ -14929,17 +15812,17 @@
       <c r="J92" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K92" s="85" t="s">
+      <c r="K92" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L92" s="85"/>
-      <c r="M92" s="85"/>
-      <c r="N92" s="85"/>
-      <c r="O92" s="85"/>
-      <c r="P92" s="85"/>
+      <c r="L92" s="91"/>
+      <c r="M92" s="91"/>
+      <c r="N92" s="91"/>
+      <c r="O92" s="91"/>
+      <c r="P92" s="91"/>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A93" s="88"/>
+      <c r="A93" s="96"/>
       <c r="B93" s="18">
         <v>2</v>
       </c>
@@ -14969,15 +15852,15 @@
       <c r="J93" s="19">
         <v>54</v>
       </c>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
-      <c r="M93" s="85"/>
-      <c r="N93" s="85"/>
-      <c r="O93" s="85"/>
-      <c r="P93" s="85"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="91"/>
+      <c r="P93" s="91"/>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A94" s="88"/>
+      <c r="A94" s="96"/>
       <c r="B94" s="18">
         <v>3</v>
       </c>
@@ -15025,7 +15908,7 @@
       </c>
     </row>
     <row r="95" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A95" s="88"/>
+      <c r="A95" s="96"/>
       <c r="B95" s="18">
         <v>4</v>
       </c>
@@ -15080,7 +15963,7 @@
       </c>
     </row>
     <row r="96" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A96" s="88"/>
+      <c r="A96" s="96"/>
       <c r="B96" s="18">
         <v>5</v>
       </c>
@@ -15135,7 +16018,7 @@
       </c>
     </row>
     <row r="97" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A97" s="88"/>
+      <c r="A97" s="96"/>
       <c r="B97" s="18">
         <v>6</v>
       </c>
@@ -15190,7 +16073,7 @@
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A98" s="88"/>
+      <c r="A98" s="96"/>
       <c r="B98" s="18">
         <v>7</v>
       </c>
@@ -15245,7 +16128,7 @@
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A99" s="88"/>
+      <c r="A99" s="96"/>
       <c r="B99" s="18">
         <v>8</v>
       </c>
@@ -15300,7 +16183,7 @@
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A100" s="88"/>
+      <c r="A100" s="96"/>
       <c r="B100" s="18">
         <v>9</v>
       </c>
@@ -15326,7 +16209,7 @@
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A101" s="88"/>
+      <c r="A101" s="96"/>
       <c r="B101" s="18">
         <v>10</v>
       </c>
@@ -15727,7 +16610,7 @@
     </row>
     <row r="114" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="19" t="s">
@@ -15736,18 +16619,18 @@
       <c r="C116" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D116" s="90" t="s">
+      <c r="D116" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E116" s="90"/>
-      <c r="I116" s="91" t="s">
+      <c r="E116" s="93"/>
+      <c r="I116" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="J116" s="92"/>
-      <c r="K116" s="92"/>
+      <c r="J116" s="95"/>
+      <c r="K116" s="95"/>
     </row>
     <row r="117" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A117" s="89"/>
+      <c r="A117" s="99"/>
       <c r="B117" s="19" t="s">
         <v>121</v>
       </c>
@@ -15760,12 +16643,12 @@
       <c r="E117" s="21">
         <v>0.15</v>
       </c>
-      <c r="I117" s="92"/>
-      <c r="J117" s="92"/>
-      <c r="K117" s="92"/>
+      <c r="I117" s="95"/>
+      <c r="J117" s="95"/>
+      <c r="K117" s="95"/>
     </row>
     <row r="118" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A118" s="89"/>
+      <c r="A118" s="99"/>
       <c r="B118" s="19" t="s">
         <v>122</v>
       </c>
@@ -15778,12 +16661,12 @@
       <c r="E118" s="21">
         <v>0.1</v>
       </c>
-      <c r="I118" s="92"/>
-      <c r="J118" s="92"/>
-      <c r="K118" s="92"/>
+      <c r="I118" s="95"/>
+      <c r="J118" s="95"/>
+      <c r="K118" s="95"/>
     </row>
     <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A119" s="89"/>
+      <c r="A119" s="99"/>
       <c r="B119" s="19" t="s">
         <v>123</v>
       </c>
@@ -15798,7 +16681,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A120" s="89"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="19" t="s">
         <v>124</v>
       </c>
@@ -15817,7 +16700,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A121" s="88" t="s">
+      <c r="A121" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="18">
@@ -15849,17 +16732,17 @@
       <c r="J121" s="19">
         <v>2.0299999999999998</v>
       </c>
-      <c r="K121" s="85" t="s">
+      <c r="K121" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L121" s="85"/>
-      <c r="M121" s="85"/>
-      <c r="N121" s="85"/>
-      <c r="O121" s="85"/>
-      <c r="P121" s="85"/>
+      <c r="L121" s="91"/>
+      <c r="M121" s="91"/>
+      <c r="N121" s="91"/>
+      <c r="O121" s="91"/>
+      <c r="P121" s="91"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A122" s="88"/>
+      <c r="A122" s="96"/>
       <c r="B122" s="18">
         <v>2</v>
       </c>
@@ -15889,15 +16772,15 @@
       <c r="J122" s="19">
         <v>125.65</v>
       </c>
-      <c r="K122" s="85"/>
-      <c r="L122" s="85"/>
-      <c r="M122" s="85"/>
-      <c r="N122" s="85"/>
-      <c r="O122" s="85"/>
-      <c r="P122" s="85"/>
+      <c r="K122" s="91"/>
+      <c r="L122" s="91"/>
+      <c r="M122" s="91"/>
+      <c r="N122" s="91"/>
+      <c r="O122" s="91"/>
+      <c r="P122" s="91"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A123" s="88"/>
+      <c r="A123" s="96"/>
       <c r="B123" s="18">
         <v>3</v>
       </c>
@@ -15945,7 +16828,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A124" s="88"/>
+      <c r="A124" s="96"/>
       <c r="B124" s="18">
         <v>4</v>
       </c>
@@ -16000,7 +16883,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A125" s="88"/>
+      <c r="A125" s="96"/>
       <c r="B125" s="18">
         <v>5</v>
       </c>
@@ -16055,7 +16938,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A126" s="88"/>
+      <c r="A126" s="96"/>
       <c r="B126" s="18">
         <v>6</v>
       </c>
@@ -16110,7 +16993,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A127" s="88"/>
+      <c r="A127" s="96"/>
       <c r="B127" s="18">
         <v>7</v>
       </c>
@@ -16165,7 +17048,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A128" s="88"/>
+      <c r="A128" s="96"/>
       <c r="B128" s="18">
         <v>8</v>
       </c>
@@ -16220,7 +17103,7 @@
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A129" s="88"/>
+      <c r="A129" s="96"/>
       <c r="B129" s="18">
         <v>9</v>
       </c>
@@ -16246,7 +17129,7 @@
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A130" s="88"/>
+      <c r="A130" s="96"/>
       <c r="B130" s="18">
         <v>10</v>
       </c>
@@ -16647,7 +17530,7 @@
     </row>
     <row r="143" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="89" t="s">
+      <c r="A145" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B145" s="55" t="s">
@@ -16656,18 +17539,18 @@
       <c r="C145" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D145" s="90" t="s">
+      <c r="D145" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E145" s="90"/>
-      <c r="I145" s="91" t="s">
+      <c r="E145" s="93"/>
+      <c r="I145" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J145" s="92"/>
-      <c r="K145" s="92"/>
+      <c r="J145" s="95"/>
+      <c r="K145" s="95"/>
     </row>
     <row r="146" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A146" s="89"/>
+      <c r="A146" s="99"/>
       <c r="B146" s="55" t="s">
         <v>121</v>
       </c>
@@ -16680,12 +17563,12 @@
       <c r="E146" s="21">
         <v>0.2</v>
       </c>
-      <c r="I146" s="92"/>
-      <c r="J146" s="92"/>
-      <c r="K146" s="92"/>
+      <c r="I146" s="95"/>
+      <c r="J146" s="95"/>
+      <c r="K146" s="95"/>
     </row>
     <row r="147" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A147" s="89"/>
+      <c r="A147" s="99"/>
       <c r="B147" s="55" t="s">
         <v>122</v>
       </c>
@@ -16698,12 +17581,12 @@
       <c r="E147" s="21">
         <v>0.15</v>
       </c>
-      <c r="I147" s="92"/>
-      <c r="J147" s="92"/>
-      <c r="K147" s="92"/>
+      <c r="I147" s="95"/>
+      <c r="J147" s="95"/>
+      <c r="K147" s="95"/>
     </row>
     <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A148" s="89"/>
+      <c r="A148" s="99"/>
       <c r="B148" s="55" t="s">
         <v>123</v>
       </c>
@@ -16718,7 +17601,7 @@
       </c>
     </row>
     <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A149" s="89"/>
+      <c r="A149" s="99"/>
       <c r="B149" s="55" t="s">
         <v>124</v>
       </c>
@@ -16737,7 +17620,7 @@
       </c>
     </row>
     <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A150" s="88" t="s">
+      <c r="A150" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B150" s="18">
@@ -16769,17 +17652,17 @@
       <c r="J150" s="55">
         <v>2.38</v>
       </c>
-      <c r="K150" s="85" t="s">
+      <c r="K150" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L150" s="85"/>
-      <c r="M150" s="85"/>
-      <c r="N150" s="85"/>
-      <c r="O150" s="85"/>
-      <c r="P150" s="85"/>
+      <c r="L150" s="91"/>
+      <c r="M150" s="91"/>
+      <c r="N150" s="91"/>
+      <c r="O150" s="91"/>
+      <c r="P150" s="91"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A151" s="88"/>
+      <c r="A151" s="96"/>
       <c r="B151" s="18">
         <v>2</v>
       </c>
@@ -16809,15 +17692,15 @@
       <c r="J151" s="55">
         <v>140.65</v>
       </c>
-      <c r="K151" s="85"/>
-      <c r="L151" s="85"/>
-      <c r="M151" s="85"/>
-      <c r="N151" s="85"/>
-      <c r="O151" s="85"/>
-      <c r="P151" s="85"/>
+      <c r="K151" s="91"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="91"/>
+      <c r="N151" s="91"/>
+      <c r="O151" s="91"/>
+      <c r="P151" s="91"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A152" s="88"/>
+      <c r="A152" s="96"/>
       <c r="B152" s="18">
         <v>3</v>
       </c>
@@ -16865,7 +17748,7 @@
       </c>
     </row>
     <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A153" s="88"/>
+      <c r="A153" s="96"/>
       <c r="B153" s="18">
         <v>4</v>
       </c>
@@ -16920,7 +17803,7 @@
       </c>
     </row>
     <row r="154" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A154" s="88"/>
+      <c r="A154" s="96"/>
       <c r="B154" s="18">
         <v>5</v>
       </c>
@@ -16975,7 +17858,7 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A155" s="88"/>
+      <c r="A155" s="96"/>
       <c r="B155" s="18">
         <v>6</v>
       </c>
@@ -17030,7 +17913,7 @@
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A156" s="88"/>
+      <c r="A156" s="96"/>
       <c r="B156" s="18">
         <v>7</v>
       </c>
@@ -17085,7 +17968,7 @@
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A157" s="88"/>
+      <c r="A157" s="96"/>
       <c r="B157" s="18">
         <v>8</v>
       </c>
@@ -17140,7 +18023,7 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A158" s="88"/>
+      <c r="A158" s="96"/>
       <c r="B158" s="18">
         <v>9</v>
       </c>
@@ -17166,7 +18049,7 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A159" s="88"/>
+      <c r="A159" s="96"/>
       <c r="B159" s="18">
         <v>10</v>
       </c>
@@ -17567,7 +18450,7 @@
     </row>
     <row r="172" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="89" t="s">
+      <c r="A174" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B174" s="55" t="s">
@@ -17576,18 +18459,18 @@
       <c r="C174" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D174" s="90" t="s">
+      <c r="D174" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E174" s="90"/>
-      <c r="I174" s="91" t="s">
+      <c r="E174" s="93"/>
+      <c r="I174" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J174" s="92"/>
-      <c r="K174" s="92"/>
+      <c r="J174" s="95"/>
+      <c r="K174" s="95"/>
     </row>
     <row r="175" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A175" s="89"/>
+      <c r="A175" s="99"/>
       <c r="B175" s="55" t="s">
         <v>121</v>
       </c>
@@ -17600,12 +18483,12 @@
       <c r="E175" s="21">
         <v>0.15</v>
       </c>
-      <c r="I175" s="92"/>
-      <c r="J175" s="92"/>
-      <c r="K175" s="92"/>
+      <c r="I175" s="95"/>
+      <c r="J175" s="95"/>
+      <c r="K175" s="95"/>
     </row>
     <row r="176" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A176" s="89"/>
+      <c r="A176" s="99"/>
       <c r="B176" s="55" t="s">
         <v>122</v>
       </c>
@@ -17618,12 +18501,12 @@
       <c r="E176" s="21">
         <v>0.15</v>
       </c>
-      <c r="I176" s="92"/>
-      <c r="J176" s="92"/>
-      <c r="K176" s="92"/>
+      <c r="I176" s="95"/>
+      <c r="J176" s="95"/>
+      <c r="K176" s="95"/>
     </row>
     <row r="177" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A177" s="89"/>
+      <c r="A177" s="99"/>
       <c r="B177" s="55" t="s">
         <v>123</v>
       </c>
@@ -17638,7 +18521,7 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A178" s="89"/>
+      <c r="A178" s="99"/>
       <c r="B178" s="55" t="s">
         <v>124</v>
       </c>
@@ -17657,7 +18540,7 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A179" s="88" t="s">
+      <c r="A179" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B179" s="18">
@@ -17689,17 +18572,17 @@
       <c r="J179" s="55">
         <v>2.38</v>
       </c>
-      <c r="K179" s="85" t="s">
+      <c r="K179" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L179" s="85"/>
-      <c r="M179" s="85"/>
-      <c r="N179" s="85"/>
-      <c r="O179" s="85"/>
-      <c r="P179" s="85"/>
+      <c r="L179" s="91"/>
+      <c r="M179" s="91"/>
+      <c r="N179" s="91"/>
+      <c r="O179" s="91"/>
+      <c r="P179" s="91"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A180" s="88"/>
+      <c r="A180" s="96"/>
       <c r="B180" s="18">
         <v>2</v>
       </c>
@@ -17729,15 +18612,15 @@
       <c r="J180" s="55">
         <v>140.65</v>
       </c>
-      <c r="K180" s="85"/>
-      <c r="L180" s="85"/>
-      <c r="M180" s="85"/>
-      <c r="N180" s="85"/>
-      <c r="O180" s="85"/>
-      <c r="P180" s="85"/>
+      <c r="K180" s="91"/>
+      <c r="L180" s="91"/>
+      <c r="M180" s="91"/>
+      <c r="N180" s="91"/>
+      <c r="O180" s="91"/>
+      <c r="P180" s="91"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A181" s="88"/>
+      <c r="A181" s="96"/>
       <c r="B181" s="18">
         <v>3</v>
       </c>
@@ -17785,7 +18668,7 @@
       </c>
     </row>
     <row r="182" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A182" s="88"/>
+      <c r="A182" s="96"/>
       <c r="B182" s="18">
         <v>4</v>
       </c>
@@ -17840,7 +18723,7 @@
       </c>
     </row>
     <row r="183" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A183" s="88"/>
+      <c r="A183" s="96"/>
       <c r="B183" s="18">
         <v>5</v>
       </c>
@@ -17895,7 +18778,7 @@
       </c>
     </row>
     <row r="184" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A184" s="88"/>
+      <c r="A184" s="96"/>
       <c r="B184" s="18">
         <v>6</v>
       </c>
@@ -17950,7 +18833,7 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A185" s="88"/>
+      <c r="A185" s="96"/>
       <c r="B185" s="18">
         <v>7</v>
       </c>
@@ -18005,7 +18888,7 @@
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A186" s="88"/>
+      <c r="A186" s="96"/>
       <c r="B186" s="18">
         <v>8</v>
       </c>
@@ -18060,7 +18943,7 @@
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A187" s="88"/>
+      <c r="A187" s="96"/>
       <c r="B187" s="18">
         <v>9</v>
       </c>
@@ -18086,7 +18969,7 @@
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A188" s="88"/>
+      <c r="A188" s="96"/>
       <c r="B188" s="18">
         <v>10</v>
       </c>
@@ -18487,7 +19370,7 @@
     </row>
     <row r="201" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="203" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="89" t="s">
+      <c r="A203" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B203" s="55" t="s">
@@ -18496,18 +19379,18 @@
       <c r="C203" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D203" s="90" t="s">
+      <c r="D203" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E203" s="90"/>
-      <c r="I203" s="91" t="s">
+      <c r="E203" s="93"/>
+      <c r="I203" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J203" s="92"/>
-      <c r="K203" s="92"/>
+      <c r="J203" s="95"/>
+      <c r="K203" s="95"/>
     </row>
     <row r="204" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A204" s="89"/>
+      <c r="A204" s="99"/>
       <c r="B204" s="55" t="s">
         <v>121</v>
       </c>
@@ -18520,12 +19403,12 @@
       <c r="E204" s="21">
         <v>0.15</v>
       </c>
-      <c r="I204" s="92"/>
-      <c r="J204" s="92"/>
-      <c r="K204" s="92"/>
+      <c r="I204" s="95"/>
+      <c r="J204" s="95"/>
+      <c r="K204" s="95"/>
     </row>
     <row r="205" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A205" s="89"/>
+      <c r="A205" s="99"/>
       <c r="B205" s="55" t="s">
         <v>122</v>
       </c>
@@ -18538,12 +19421,12 @@
       <c r="E205" s="21">
         <v>0.15</v>
       </c>
-      <c r="I205" s="92"/>
-      <c r="J205" s="92"/>
-      <c r="K205" s="92"/>
+      <c r="I205" s="95"/>
+      <c r="J205" s="95"/>
+      <c r="K205" s="95"/>
     </row>
     <row r="206" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A206" s="89"/>
+      <c r="A206" s="99"/>
       <c r="B206" s="55" t="s">
         <v>123</v>
       </c>
@@ -18558,7 +19441,7 @@
       </c>
     </row>
     <row r="207" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A207" s="89"/>
+      <c r="A207" s="99"/>
       <c r="B207" s="55" t="s">
         <v>124</v>
       </c>
@@ -18577,7 +19460,7 @@
       </c>
     </row>
     <row r="208" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A208" s="88" t="s">
+      <c r="A208" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B208" s="18">
@@ -18609,17 +19492,17 @@
       <c r="J208" s="55">
         <v>2.38</v>
       </c>
-      <c r="K208" s="85" t="s">
+      <c r="K208" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L208" s="85"/>
-      <c r="M208" s="85"/>
-      <c r="N208" s="85"/>
-      <c r="O208" s="85"/>
-      <c r="P208" s="85"/>
+      <c r="L208" s="91"/>
+      <c r="M208" s="91"/>
+      <c r="N208" s="91"/>
+      <c r="O208" s="91"/>
+      <c r="P208" s="91"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A209" s="88"/>
+      <c r="A209" s="96"/>
       <c r="B209" s="18">
         <v>2</v>
       </c>
@@ -18649,15 +19532,15 @@
       <c r="J209" s="55">
         <v>140.65</v>
       </c>
-      <c r="K209" s="85"/>
-      <c r="L209" s="85"/>
-      <c r="M209" s="85"/>
-      <c r="N209" s="85"/>
-      <c r="O209" s="85"/>
-      <c r="P209" s="85"/>
+      <c r="K209" s="91"/>
+      <c r="L209" s="91"/>
+      <c r="M209" s="91"/>
+      <c r="N209" s="91"/>
+      <c r="O209" s="91"/>
+      <c r="P209" s="91"/>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A210" s="88"/>
+      <c r="A210" s="96"/>
       <c r="B210" s="18">
         <v>3</v>
       </c>
@@ -18705,7 +19588,7 @@
       </c>
     </row>
     <row r="211" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A211" s="88"/>
+      <c r="A211" s="96"/>
       <c r="B211" s="18">
         <v>4</v>
       </c>
@@ -18760,7 +19643,7 @@
       </c>
     </row>
     <row r="212" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A212" s="88"/>
+      <c r="A212" s="96"/>
       <c r="B212" s="18">
         <v>5</v>
       </c>
@@ -18815,7 +19698,7 @@
       </c>
     </row>
     <row r="213" spans="1:16" ht="45" x14ac:dyDescent="0.15">
-      <c r="A213" s="88"/>
+      <c r="A213" s="96"/>
       <c r="B213" s="18">
         <v>6</v>
       </c>
@@ -18870,7 +19753,7 @@
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A214" s="88"/>
+      <c r="A214" s="96"/>
       <c r="B214" s="18">
         <v>7</v>
       </c>
@@ -18925,7 +19808,7 @@
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A215" s="88"/>
+      <c r="A215" s="96"/>
       <c r="B215" s="18">
         <v>8</v>
       </c>
@@ -18980,7 +19863,7 @@
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A216" s="88"/>
+      <c r="A216" s="96"/>
       <c r="B216" s="18">
         <v>9</v>
       </c>
@@ -19006,7 +19889,7 @@
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A217" s="88"/>
+      <c r="A217" s="96"/>
       <c r="B217" s="18">
         <v>10</v>
       </c>
@@ -19407,7 +20290,7 @@
     </row>
     <row r="230" spans="1:36" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="232" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="89" t="s">
+      <c r="A232" s="99" t="s">
         <v>119</v>
       </c>
       <c r="B232" s="55" t="s">
@@ -19416,18 +20299,18 @@
       <c r="C232" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="D232" s="90" t="s">
+      <c r="D232" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E232" s="90"/>
-      <c r="I232" s="91" t="s">
+      <c r="E232" s="93"/>
+      <c r="I232" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="J232" s="92"/>
-      <c r="K232" s="92"/>
+      <c r="J232" s="95"/>
+      <c r="K232" s="95"/>
     </row>
     <row r="233" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A233" s="89"/>
+      <c r="A233" s="99"/>
       <c r="B233" s="55" t="s">
         <v>121</v>
       </c>
@@ -19440,12 +20323,12 @@
       <c r="E233" s="21">
         <v>0.15</v>
       </c>
-      <c r="I233" s="92"/>
-      <c r="J233" s="92"/>
-      <c r="K233" s="92"/>
+      <c r="I233" s="95"/>
+      <c r="J233" s="95"/>
+      <c r="K233" s="95"/>
     </row>
     <row r="234" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A234" s="89"/>
+      <c r="A234" s="99"/>
       <c r="B234" s="55" t="s">
         <v>122</v>
       </c>
@@ -19458,12 +20341,12 @@
       <c r="E234" s="21">
         <v>0.15</v>
       </c>
-      <c r="I234" s="92"/>
-      <c r="J234" s="92"/>
-      <c r="K234" s="92"/>
+      <c r="I234" s="95"/>
+      <c r="J234" s="95"/>
+      <c r="K234" s="95"/>
     </row>
     <row r="235" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A235" s="89"/>
+      <c r="A235" s="99"/>
       <c r="B235" s="55" t="s">
         <v>123</v>
       </c>
@@ -19478,7 +20361,7 @@
       </c>
     </row>
     <row r="236" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A236" s="89"/>
+      <c r="A236" s="99"/>
       <c r="B236" s="55" t="s">
         <v>124</v>
       </c>
@@ -19497,7 +20380,7 @@
       </c>
     </row>
     <row r="237" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A237" s="88" t="s">
+      <c r="A237" s="96" t="s">
         <v>129</v>
       </c>
       <c r="B237" s="18">
@@ -19529,17 +20412,17 @@
       <c r="J237" s="55">
         <v>2.38</v>
       </c>
-      <c r="K237" s="85" t="s">
+      <c r="K237" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="L237" s="85"/>
-      <c r="M237" s="85"/>
-      <c r="N237" s="85"/>
-      <c r="O237" s="85"/>
-      <c r="P237" s="85"/>
+      <c r="L237" s="91"/>
+      <c r="M237" s="91"/>
+      <c r="N237" s="91"/>
+      <c r="O237" s="91"/>
+      <c r="P237" s="91"/>
     </row>
     <row r="238" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A238" s="88"/>
+      <c r="A238" s="96"/>
       <c r="B238" s="18">
         <v>2</v>
       </c>
@@ -19569,15 +20452,15 @@
       <c r="J238" s="55">
         <v>140.65</v>
       </c>
-      <c r="K238" s="85"/>
-      <c r="L238" s="85"/>
-      <c r="M238" s="85"/>
-      <c r="N238" s="85"/>
-      <c r="O238" s="85"/>
-      <c r="P238" s="85"/>
+      <c r="K238" s="91"/>
+      <c r="L238" s="91"/>
+      <c r="M238" s="91"/>
+      <c r="N238" s="91"/>
+      <c r="O238" s="91"/>
+      <c r="P238" s="91"/>
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A239" s="88"/>
+      <c r="A239" s="96"/>
       <c r="B239" s="18">
         <v>3</v>
       </c>
@@ -19625,7 +20508,7 @@
       </c>
     </row>
     <row r="240" spans="1:36" ht="30" x14ac:dyDescent="0.15">
-      <c r="A240" s="88"/>
+      <c r="A240" s="96"/>
       <c r="B240" s="18">
         <v>4</v>
       </c>
@@ -19680,7 +20563,7 @@
       </c>
     </row>
     <row r="241" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A241" s="88"/>
+      <c r="A241" s="96"/>
       <c r="B241" s="18">
         <v>5</v>
       </c>
@@ -19735,7 +20618,7 @@
       </c>
     </row>
     <row r="242" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A242" s="88"/>
+      <c r="A242" s="96"/>
       <c r="B242" s="18">
         <v>6</v>
       </c>
@@ -19790,7 +20673,7 @@
       </c>
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A243" s="88"/>
+      <c r="A243" s="96"/>
       <c r="B243" s="18">
         <v>7</v>
       </c>
@@ -19845,7 +20728,7 @@
       </c>
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A244" s="88"/>
+      <c r="A244" s="96"/>
       <c r="B244" s="18">
         <v>8</v>
       </c>
@@ -19900,7 +20783,7 @@
       </c>
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A245" s="88"/>
+      <c r="A245" s="96"/>
       <c r="B245" s="18">
         <v>9</v>
       </c>
@@ -19926,7 +20809,7 @@
       </c>
     </row>
     <row r="246" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A246" s="88"/>
+      <c r="A246" s="96"/>
       <c r="B246" s="18">
         <v>10</v>
       </c>
@@ -20327,17 +21210,25 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="I58:K60"/>
-    <mergeCell ref="I116:K118"/>
-    <mergeCell ref="I87:K89"/>
-    <mergeCell ref="A121:A130"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="K121:P122"/>
-    <mergeCell ref="K92:P93"/>
-    <mergeCell ref="K63:P64"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A92:A101"/>
+    <mergeCell ref="A237:A246"/>
+    <mergeCell ref="K237:P238"/>
+    <mergeCell ref="A208:A217"/>
+    <mergeCell ref="K208:P209"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="I232:K234"/>
+    <mergeCell ref="A179:A188"/>
+    <mergeCell ref="K179:P180"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="I203:K205"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="I145:K147"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="K150:P151"/>
+    <mergeCell ref="A174:A178"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="I174:K176"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A24"/>
@@ -20350,25 +21241,17 @@
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A87:A91"/>
     <mergeCell ref="A63:A72"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="I145:K147"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="K150:P151"/>
-    <mergeCell ref="A174:A178"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="I174:K176"/>
-    <mergeCell ref="A179:A188"/>
-    <mergeCell ref="K179:P180"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="I203:K205"/>
-    <mergeCell ref="A237:A246"/>
-    <mergeCell ref="K237:P238"/>
-    <mergeCell ref="A208:A217"/>
-    <mergeCell ref="K208:P209"/>
-    <mergeCell ref="A232:A236"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="I232:K234"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="I58:K60"/>
+    <mergeCell ref="I116:K118"/>
+    <mergeCell ref="I87:K89"/>
+    <mergeCell ref="A121:A130"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="K121:P122"/>
+    <mergeCell ref="K92:P93"/>
+    <mergeCell ref="K63:P64"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A92:A101"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22305,20 +23188,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
       <c r="F3" s="52" t="s">
         <v>184</v>
       </c>
@@ -22404,14 +23287,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="102"/>
       <c r="F8" s="47" t="s">
         <v>236</v>
       </c>
@@ -22484,7 +23367,7 @@
       <c r="A17" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="103" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22492,16 +23375,16 @@
       <c r="A18" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="99"/>
+      <c r="C18" s="104"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="95"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="92"/>
+      <c r="C20" s="95"/>
     </row>
     <row r="21" spans="1:3" ht="47" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
